--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -451,17 +451,13 @@
         <v>64315.83333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66400</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>64394.16666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K3" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>64465</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K4" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>64532.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K5" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>64600.83333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>67100</v>
-      </c>
-      <c r="K6" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>64671.66666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>67100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>64744.16666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>67200</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -795,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -833,17 +769,11 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -874,17 +804,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -915,17 +839,11 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -956,17 +874,11 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -997,17 +909,11 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,17 +944,11 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,16 +1192,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>66400</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>1.04921686746988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1366,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1401,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2483,13 +2341,17 @@
         <v>68195.83333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>67700</v>
+      </c>
+      <c r="K56" t="n">
+        <v>67700</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2524,8 +2386,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>67700</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2559,8 +2427,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>67700</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2693,13 +2567,17 @@
         <v>68390.83333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>68200</v>
+      </c>
+      <c r="K62" t="n">
+        <v>68200</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2734,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>68200</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2769,8 +2653,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>68200</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2938,13 +2828,17 @@
         <v>68562.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>68800</v>
+      </c>
+      <c r="K69" t="n">
+        <v>68800</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2979,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3008,14 +2908,22 @@
         <v>68582.5</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>68150</v>
+      </c>
+      <c r="K71" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3049,8 +2957,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3084,8 +2998,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3119,8 +3039,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3154,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3189,8 +3121,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3224,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3203,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3294,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3329,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3364,8 +3326,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3399,8 +3367,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3434,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3469,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3504,8 +3490,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +3531,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3644,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3679,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3714,8 +3736,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3749,8 +3777,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3784,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3819,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3883,14 +3935,22 @@
         <v>67874.16666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K96" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3918,14 +3978,22 @@
         <v>67848.33333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>66450</v>
+      </c>
+      <c r="K97" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3994,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4064,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4099,8 +4191,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4128,14 +4226,22 @@
         <v>67640</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>66750</v>
+      </c>
+      <c r="K103" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4169,8 +4275,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4316,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4239,8 +4357,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4274,8 +4398,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4309,8 +4439,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4344,8 +4480,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4379,8 +4521,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4685,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +4767,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +4931,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +5013,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4834,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +5136,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5218,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5259,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5300,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +5341,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5464,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +5505,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5289,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5710,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5751,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +5874,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5915,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5956,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5639,8 +5997,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5674,8 +6038,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5709,8 +6079,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6120,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6161,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +6202,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6243,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6284,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +6325,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +6366,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5989,8 +6407,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6024,8 +6448,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6489,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6094,8 +6530,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6571,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +6612,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6735,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6776,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6374,8 +6858,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +6899,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6444,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6981,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +7063,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +7104,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6654,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7268,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6794,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6864,8 +7432,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +7473,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7514,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7596,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7637,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +7678,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7109,8 +7719,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7179,8 +7801,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +7842,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7249,8 +7883,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +7924,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7965,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8006,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +8047,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7424,8 +8088,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +8129,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>68800</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="C2" t="n">
         <v>66400</v>
@@ -442,13 +442,13 @@
         <v>66400</v>
       </c>
       <c r="E2" t="n">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="F2" t="n">
-        <v>7.7384</v>
+        <v>10.5344</v>
       </c>
       <c r="G2" t="n">
-        <v>64315.83333333334</v>
+        <v>64240</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>66400</v>
       </c>
       <c r="C3" t="n">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="D3" t="n">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="E3" t="n">
         <v>66400</v>
       </c>
       <c r="F3" t="n">
-        <v>4.6204</v>
+        <v>7.7384</v>
       </c>
       <c r="G3" t="n">
-        <v>64394.16666666666</v>
+        <v>64315.83333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="C4" t="n">
         <v>66800</v>
@@ -512,13 +512,13 @@
         <v>66800</v>
       </c>
       <c r="E4" t="n">
-        <v>66800</v>
+        <v>66400</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>4.6204</v>
       </c>
       <c r="G4" t="n">
-        <v>64465</v>
+        <v>64394.16666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>66800</v>
       </c>
       <c r="C5" t="n">
-        <v>67100</v>
+        <v>66800</v>
       </c>
       <c r="D5" t="n">
-        <v>67100</v>
+        <v>66800</v>
       </c>
       <c r="E5" t="n">
-        <v>66750</v>
+        <v>66800</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>64532.5</v>
+        <v>64465</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67100</v>
+        <v>66800</v>
       </c>
       <c r="C6" t="n">
         <v>67100</v>
@@ -582,13 +582,13 @@
         <v>67100</v>
       </c>
       <c r="E6" t="n">
-        <v>67100</v>
+        <v>66750</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>64600.83333333334</v>
+        <v>64532.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>67100</v>
       </c>
       <c r="C7" t="n">
-        <v>67200</v>
+        <v>67100</v>
       </c>
       <c r="D7" t="n">
-        <v>67200</v>
+        <v>67100</v>
       </c>
       <c r="E7" t="n">
         <v>67100</v>
       </c>
       <c r="F7" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>64671.66666666666</v>
+        <v>64600.83333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67200</v>
+        <v>67100</v>
       </c>
       <c r="C8" t="n">
         <v>67200</v>
@@ -652,19 +652,19 @@
         <v>67200</v>
       </c>
       <c r="E8" t="n">
-        <v>67200</v>
+        <v>67100</v>
       </c>
       <c r="F8" t="n">
-        <v>7.7344</v>
+        <v>6.9</v>
       </c>
       <c r="G8" t="n">
-        <v>64744.16666666666</v>
+        <v>64671.66666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -681,25 +681,25 @@
         <v>67200</v>
       </c>
       <c r="C9" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="D9" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="E9" t="n">
         <v>67200</v>
       </c>
       <c r="F9" t="n">
-        <v>16.7993</v>
+        <v>7.7344</v>
       </c>
       <c r="G9" t="n">
-        <v>64817.5</v>
+        <v>64744.16666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="C10" t="n">
         <v>67250</v>
@@ -722,13 +722,13 @@
         <v>67250</v>
       </c>
       <c r="E10" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="F10" t="n">
-        <v>92.0534</v>
+        <v>16.7993</v>
       </c>
       <c r="G10" t="n">
-        <v>64888.33333333334</v>
+        <v>64817.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,25 +751,25 @@
         <v>67250</v>
       </c>
       <c r="C11" t="n">
-        <v>67800</v>
+        <v>67250</v>
       </c>
       <c r="D11" t="n">
-        <v>67800</v>
+        <v>67250</v>
       </c>
       <c r="E11" t="n">
         <v>67250</v>
       </c>
       <c r="F11" t="n">
-        <v>49.1991</v>
+        <v>92.0534</v>
       </c>
       <c r="G11" t="n">
-        <v>64968.33333333334</v>
+        <v>64888.33333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67950</v>
+        <v>67250</v>
       </c>
       <c r="C12" t="n">
-        <v>68150</v>
+        <v>67800</v>
       </c>
       <c r="D12" t="n">
-        <v>68150</v>
+        <v>67800</v>
       </c>
       <c r="E12" t="n">
-        <v>67950</v>
+        <v>67250</v>
       </c>
       <c r="F12" t="n">
-        <v>39.1959</v>
+        <v>49.1991</v>
       </c>
       <c r="G12" t="n">
-        <v>65054.16666666666</v>
+        <v>64968.33333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>68250</v>
+        <v>67950</v>
       </c>
       <c r="C13" t="n">
-        <v>68450</v>
+        <v>68150</v>
       </c>
       <c r="D13" t="n">
-        <v>68450</v>
+        <v>68150</v>
       </c>
       <c r="E13" t="n">
-        <v>68250</v>
+        <v>67950</v>
       </c>
       <c r="F13" t="n">
-        <v>7.28746311</v>
+        <v>39.1959</v>
       </c>
       <c r="G13" t="n">
-        <v>65143.33333333334</v>
+        <v>65054.16666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68500</v>
+        <v>68250</v>
       </c>
       <c r="C14" t="n">
-        <v>68500</v>
+        <v>68450</v>
       </c>
       <c r="D14" t="n">
-        <v>68550</v>
+        <v>68450</v>
       </c>
       <c r="E14" t="n">
-        <v>68500</v>
+        <v>68250</v>
       </c>
       <c r="F14" t="n">
-        <v>55.435</v>
+        <v>7.28746311</v>
       </c>
       <c r="G14" t="n">
-        <v>65236.66666666666</v>
+        <v>65143.33333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -891,19 +891,19 @@
         <v>68500</v>
       </c>
       <c r="C15" t="n">
-        <v>68650</v>
+        <v>68500</v>
       </c>
       <c r="D15" t="n">
-        <v>68650</v>
+        <v>68550</v>
       </c>
       <c r="E15" t="n">
-        <v>68100</v>
+        <v>68500</v>
       </c>
       <c r="F15" t="n">
-        <v>19.4897</v>
+        <v>55.435</v>
       </c>
       <c r="G15" t="n">
-        <v>65330.83333333334</v>
+        <v>65236.66666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68150</v>
+        <v>68500</v>
       </c>
       <c r="C16" t="n">
-        <v>68150</v>
+        <v>68650</v>
       </c>
       <c r="D16" t="n">
-        <v>68150</v>
+        <v>68650</v>
       </c>
       <c r="E16" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="F16" t="n">
-        <v>6.5952</v>
+        <v>19.4897</v>
       </c>
       <c r="G16" t="n">
-        <v>65415.83333333334</v>
+        <v>65330.83333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="C17" t="n">
-        <v>68700</v>
+        <v>68150</v>
       </c>
       <c r="D17" t="n">
-        <v>68700</v>
+        <v>68150</v>
       </c>
       <c r="E17" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="F17" t="n">
-        <v>5.56113842</v>
+        <v>6.5952</v>
       </c>
       <c r="G17" t="n">
-        <v>65506.66666666666</v>
+        <v>65415.83333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68150</v>
+        <v>68600</v>
       </c>
       <c r="C18" t="n">
-        <v>68150</v>
+        <v>68700</v>
       </c>
       <c r="D18" t="n">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="E18" t="n">
-        <v>68100</v>
+        <v>68600</v>
       </c>
       <c r="F18" t="n">
-        <v>20.006</v>
+        <v>5.56113842</v>
       </c>
       <c r="G18" t="n">
-        <v>65590</v>
+        <v>65506.66666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68850</v>
+        <v>68150</v>
       </c>
       <c r="C19" t="n">
-        <v>68900</v>
+        <v>68150</v>
       </c>
       <c r="D19" t="n">
-        <v>68900</v>
+        <v>68800</v>
       </c>
       <c r="E19" t="n">
-        <v>68850</v>
+        <v>68100</v>
       </c>
       <c r="F19" t="n">
-        <v>7.7035</v>
+        <v>20.006</v>
       </c>
       <c r="G19" t="n">
-        <v>65683.33333333333</v>
+        <v>65590</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68950</v>
+        <v>68850</v>
       </c>
       <c r="C20" t="n">
-        <v>69200</v>
+        <v>68900</v>
       </c>
       <c r="D20" t="n">
-        <v>69200</v>
+        <v>68900</v>
       </c>
       <c r="E20" t="n">
-        <v>68950</v>
+        <v>68850</v>
       </c>
       <c r="F20" t="n">
-        <v>22.9224</v>
+        <v>7.7035</v>
       </c>
       <c r="G20" t="n">
-        <v>65781.66666666667</v>
+        <v>65683.33333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>69300</v>
+        <v>68950</v>
       </c>
       <c r="C21" t="n">
-        <v>69450</v>
+        <v>69200</v>
       </c>
       <c r="D21" t="n">
-        <v>69450</v>
+        <v>69200</v>
       </c>
       <c r="E21" t="n">
-        <v>69300</v>
+        <v>68950</v>
       </c>
       <c r="F21" t="n">
-        <v>89.1669</v>
+        <v>22.9224</v>
       </c>
       <c r="G21" t="n">
-        <v>65879.16666666667</v>
+        <v>65781.66666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>69500</v>
+        <v>69300</v>
       </c>
       <c r="C22" t="n">
-        <v>69500</v>
+        <v>69450</v>
       </c>
       <c r="D22" t="n">
-        <v>69500</v>
+        <v>69450</v>
       </c>
       <c r="E22" t="n">
-        <v>69500</v>
+        <v>69300</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>89.1669</v>
       </c>
       <c r="G22" t="n">
-        <v>65980</v>
+        <v>65879.16666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,25 +1171,25 @@
         <v>69500</v>
       </c>
       <c r="C23" t="n">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="D23" t="n">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="E23" t="n">
         <v>69500</v>
       </c>
       <c r="F23" t="n">
-        <v>56.699814</v>
+        <v>0.1</v>
       </c>
       <c r="G23" t="n">
-        <v>66080.83333333333</v>
+        <v>65980</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>69900</v>
+        <v>69500</v>
       </c>
       <c r="C24" t="n">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="D24" t="n">
-        <v>69900</v>
+        <v>70000</v>
       </c>
       <c r="E24" t="n">
         <v>69500</v>
       </c>
       <c r="F24" t="n">
-        <v>2.9935</v>
+        <v>56.699814</v>
       </c>
       <c r="G24" t="n">
-        <v>66172.5</v>
+        <v>66080.83333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>69900</v>
       </c>
       <c r="C25" t="n">
-        <v>69900</v>
+        <v>69500</v>
       </c>
       <c r="D25" t="n">
         <v>69900</v>
       </c>
       <c r="E25" t="n">
-        <v>69900</v>
+        <v>69500</v>
       </c>
       <c r="F25" t="n">
-        <v>9.233499999999999</v>
+        <v>2.9935</v>
       </c>
       <c r="G25" t="n">
-        <v>66263.33333333333</v>
+        <v>66172.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>69900</v>
       </c>
       <c r="C26" t="n">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="D26" t="n">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="E26" t="n">
         <v>69900</v>
       </c>
       <c r="F26" t="n">
-        <v>84.19268928</v>
+        <v>9.233499999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>66383.33333333333</v>
+        <v>66263.33333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="C27" t="n">
         <v>70000</v>
@@ -1317,13 +1317,13 @@
         <v>70000</v>
       </c>
       <c r="E27" t="n">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="F27" t="n">
-        <v>70.9592</v>
+        <v>84.19268928</v>
       </c>
       <c r="G27" t="n">
-        <v>66490.83333333333</v>
+        <v>66383.33333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>70000</v>
       </c>
       <c r="F28" t="n">
-        <v>49.1937</v>
+        <v>70.9592</v>
       </c>
       <c r="G28" t="n">
-        <v>66595.83333333333</v>
+        <v>66490.83333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="C29" t="n">
-        <v>69050</v>
+        <v>70000</v>
       </c>
       <c r="D29" t="n">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="E29" t="n">
-        <v>69050</v>
+        <v>70000</v>
       </c>
       <c r="F29" t="n">
-        <v>6.7167</v>
+        <v>49.1937</v>
       </c>
       <c r="G29" t="n">
-        <v>66691.66666666667</v>
+        <v>66595.83333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C30" t="n">
         <v>69050</v>
       </c>
-      <c r="C30" t="n">
-        <v>68550</v>
-      </c>
       <c r="D30" t="n">
-        <v>69650</v>
+        <v>69500</v>
       </c>
       <c r="E30" t="n">
-        <v>68550</v>
+        <v>69050</v>
       </c>
       <c r="F30" t="n">
-        <v>39.00815395</v>
+        <v>6.7167</v>
       </c>
       <c r="G30" t="n">
-        <v>66789.16666666667</v>
+        <v>66691.66666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69700</v>
+        <v>69050</v>
       </c>
       <c r="C31" t="n">
-        <v>69700</v>
+        <v>68550</v>
       </c>
       <c r="D31" t="n">
-        <v>69700</v>
+        <v>69650</v>
       </c>
       <c r="E31" t="n">
-        <v>69700</v>
+        <v>68550</v>
       </c>
       <c r="F31" t="n">
-        <v>9.316000000000001</v>
+        <v>39.00815395</v>
       </c>
       <c r="G31" t="n">
-        <v>66905</v>
+        <v>66789.16666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68400</v>
+        <v>69700</v>
       </c>
       <c r="C32" t="n">
-        <v>68100</v>
+        <v>69700</v>
       </c>
       <c r="D32" t="n">
-        <v>68400</v>
+        <v>69700</v>
       </c>
       <c r="E32" t="n">
-        <v>68100</v>
+        <v>69700</v>
       </c>
       <c r="F32" t="n">
-        <v>83.15519999999999</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>66984.16666666667</v>
+        <v>66905</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68150</v>
+        <v>68400</v>
       </c>
       <c r="C33" t="n">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="D33" t="n">
-        <v>68150</v>
+        <v>68400</v>
       </c>
       <c r="E33" t="n">
-        <v>67600</v>
+        <v>68100</v>
       </c>
       <c r="F33" t="n">
-        <v>78.36499999999999</v>
+        <v>83.15519999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>67041.66666666667</v>
+        <v>66984.16666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67650</v>
+        <v>68150</v>
       </c>
       <c r="C34" t="n">
-        <v>67900</v>
+        <v>67600</v>
       </c>
       <c r="D34" t="n">
-        <v>67900</v>
+        <v>68150</v>
       </c>
       <c r="E34" t="n">
-        <v>67650</v>
+        <v>67600</v>
       </c>
       <c r="F34" t="n">
-        <v>3.3714</v>
+        <v>78.36499999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>67098.33333333333</v>
+        <v>67041.66666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68000</v>
+        <v>67650</v>
       </c>
       <c r="C35" t="n">
-        <v>68350</v>
+        <v>67900</v>
       </c>
       <c r="D35" t="n">
-        <v>68350</v>
+        <v>67900</v>
       </c>
       <c r="E35" t="n">
-        <v>68000</v>
+        <v>67650</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>3.3714</v>
       </c>
       <c r="G35" t="n">
-        <v>67162.5</v>
+        <v>67098.33333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="C36" t="n">
-        <v>68650</v>
+        <v>68350</v>
       </c>
       <c r="D36" t="n">
-        <v>68650</v>
+        <v>68350</v>
       </c>
       <c r="E36" t="n">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="F36" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>67225.83333333333</v>
+        <v>67162.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67850</v>
+        <v>68600</v>
       </c>
       <c r="C37" t="n">
-        <v>68000</v>
+        <v>68650</v>
       </c>
       <c r="D37" t="n">
-        <v>68000</v>
+        <v>68650</v>
       </c>
       <c r="E37" t="n">
-        <v>67850</v>
+        <v>68600</v>
       </c>
       <c r="F37" t="n">
-        <v>12.8307</v>
+        <v>6.1</v>
       </c>
       <c r="G37" t="n">
-        <v>67277.5</v>
+        <v>67225.83333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68150</v>
+        <v>67850</v>
       </c>
       <c r="C38" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="D38" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="E38" t="n">
-        <v>68150</v>
+        <v>67850</v>
       </c>
       <c r="F38" t="n">
-        <v>6.9423</v>
+        <v>12.8307</v>
       </c>
       <c r="G38" t="n">
-        <v>67330.83333333333</v>
+        <v>67277.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="C39" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="D39" t="n">
-        <v>68750</v>
+        <v>68150</v>
       </c>
       <c r="E39" t="n">
-        <v>68600</v>
+        <v>68150</v>
       </c>
       <c r="F39" t="n">
-        <v>29.6187</v>
+        <v>6.9423</v>
       </c>
       <c r="G39" t="n">
-        <v>67387.5</v>
+        <v>67330.83333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>68600</v>
       </c>
       <c r="D40" t="n">
-        <v>68600</v>
+        <v>68750</v>
       </c>
       <c r="E40" t="n">
         <v>68600</v>
       </c>
       <c r="F40" t="n">
-        <v>22.2812</v>
+        <v>29.6187</v>
       </c>
       <c r="G40" t="n">
-        <v>67444.16666666667</v>
+        <v>67387.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>68600</v>
       </c>
       <c r="F41" t="n">
-        <v>98.92919999999999</v>
+        <v>22.2812</v>
       </c>
       <c r="G41" t="n">
-        <v>67497.5</v>
+        <v>67444.16666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>68600</v>
       </c>
       <c r="F42" t="n">
-        <v>120.573</v>
+        <v>98.92919999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>67550</v>
+        <v>67497.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>68600</v>
       </c>
       <c r="F43" t="n">
-        <v>9.196300000000001</v>
+        <v>120.573</v>
       </c>
       <c r="G43" t="n">
-        <v>67608.33333333333</v>
+        <v>67550</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>68600</v>
       </c>
       <c r="F44" t="n">
-        <v>8.18</v>
+        <v>9.196300000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>67660</v>
+        <v>67608.33333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>68600</v>
       </c>
       <c r="F45" t="n">
-        <v>4.446</v>
+        <v>8.18</v>
       </c>
       <c r="G45" t="n">
-        <v>67710.83333333333</v>
+        <v>67660</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>68600</v>
       </c>
       <c r="F46" t="n">
-        <v>13.7868</v>
+        <v>4.446</v>
       </c>
       <c r="G46" t="n">
-        <v>67760.83333333333</v>
+        <v>67710.83333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>68600</v>
       </c>
       <c r="F47" t="n">
-        <v>27.1004</v>
+        <v>13.7868</v>
       </c>
       <c r="G47" t="n">
-        <v>67810.83333333333</v>
+        <v>67760.83333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>68600</v>
       </c>
       <c r="F48" t="n">
-        <v>99.8013</v>
+        <v>27.1004</v>
       </c>
       <c r="G48" t="n">
-        <v>67860.83333333333</v>
+        <v>67810.83333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>68600</v>
       </c>
       <c r="F49" t="n">
-        <v>17.2747</v>
+        <v>99.8013</v>
       </c>
       <c r="G49" t="n">
-        <v>67911.66666666667</v>
+        <v>67860.83333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68700</v>
+        <v>68600</v>
       </c>
       <c r="C50" t="n">
         <v>68600</v>
       </c>
       <c r="D50" t="n">
-        <v>68700</v>
+        <v>68600</v>
       </c>
       <c r="E50" t="n">
         <v>68600</v>
       </c>
       <c r="F50" t="n">
-        <v>15.7948</v>
+        <v>17.2747</v>
       </c>
       <c r="G50" t="n">
-        <v>67963.33333333333</v>
+        <v>67911.66666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="C51" t="n">
         <v>68600</v>
       </c>
       <c r="D51" t="n">
-        <v>68600</v>
+        <v>68700</v>
       </c>
       <c r="E51" t="n">
         <v>68600</v>
       </c>
       <c r="F51" t="n">
-        <v>35.5961</v>
+        <v>15.7948</v>
       </c>
       <c r="G51" t="n">
-        <v>68014.16666666667</v>
+        <v>67963.33333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>67800</v>
+        <v>68600</v>
       </c>
       <c r="C52" t="n">
-        <v>68150</v>
+        <v>68600</v>
       </c>
       <c r="D52" t="n">
-        <v>68150</v>
+        <v>68600</v>
       </c>
       <c r="E52" t="n">
-        <v>67800</v>
+        <v>68600</v>
       </c>
       <c r="F52" t="n">
-        <v>12.79646368</v>
+        <v>35.5961</v>
       </c>
       <c r="G52" t="n">
-        <v>68056.66666666667</v>
+        <v>68014.16666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="C53" t="n">
-        <v>67550</v>
+        <v>68150</v>
       </c>
       <c r="D53" t="n">
-        <v>67600</v>
+        <v>68150</v>
       </c>
       <c r="E53" t="n">
-        <v>67550</v>
+        <v>67800</v>
       </c>
       <c r="F53" t="n">
-        <v>15.2753</v>
+        <v>12.79646368</v>
       </c>
       <c r="G53" t="n">
-        <v>68089.16666666667</v>
+        <v>68056.66666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67500</v>
+        <v>67600</v>
       </c>
       <c r="C54" t="n">
-        <v>67700</v>
+        <v>67550</v>
       </c>
       <c r="D54" t="n">
-        <v>67700</v>
+        <v>67600</v>
       </c>
       <c r="E54" t="n">
-        <v>67300</v>
+        <v>67550</v>
       </c>
       <c r="F54" t="n">
-        <v>5.8438</v>
+        <v>15.2753</v>
       </c>
       <c r="G54" t="n">
-        <v>68124.16666666667</v>
+        <v>68089.16666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>67700</v>
+        <v>67500</v>
       </c>
       <c r="C55" t="n">
         <v>67700</v>
@@ -2297,23 +2297,29 @@
         <v>67700</v>
       </c>
       <c r="E55" t="n">
-        <v>67700</v>
+        <v>67300</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8</v>
+        <v>5.8438</v>
       </c>
       <c r="G55" t="n">
-        <v>68159.16666666667</v>
+        <v>68124.16666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>67550</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2329,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68200</v>
+        <v>67700</v>
       </c>
       <c r="C56" t="n">
-        <v>68200</v>
+        <v>67700</v>
       </c>
       <c r="D56" t="n">
-        <v>68200</v>
+        <v>67700</v>
       </c>
       <c r="E56" t="n">
-        <v>68200</v>
+        <v>67700</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G56" t="n">
-        <v>68195.83333333333</v>
+        <v>68159.16666666667</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2349,10 +2355,12 @@
       <c r="J56" t="n">
         <v>67700</v>
       </c>
-      <c r="K56" t="n">
-        <v>67700</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2370,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="C57" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="D57" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="E57" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="F57" t="n">
-        <v>2.1257</v>
+        <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>68230.83333333333</v>
+        <v>68195.83333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2386,12 +2394,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>67700</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2403,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="C58" t="n">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="D58" t="n">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="E58" t="n">
-        <v>68000</v>
+        <v>68100</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>2.1257</v>
       </c>
       <c r="G58" t="n">
-        <v>68264.16666666667</v>
+        <v>68230.83333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2427,12 +2433,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>67700</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2447,19 +2451,19 @@
         <v>68000</v>
       </c>
       <c r="C59" t="n">
-        <v>68050</v>
+        <v>68000</v>
       </c>
       <c r="D59" t="n">
-        <v>68050</v>
+        <v>68000</v>
       </c>
       <c r="E59" t="n">
         <v>68000</v>
       </c>
       <c r="F59" t="n">
-        <v>14.0155</v>
+        <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>68297.5</v>
+        <v>68264.16666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2469,7 +2473,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2479,10 +2487,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C60" t="n">
         <v>68050</v>
-      </c>
-      <c r="C60" t="n">
-        <v>68000</v>
       </c>
       <c r="D60" t="n">
         <v>68050</v>
@@ -2491,10 +2499,10 @@
         <v>68000</v>
       </c>
       <c r="F60" t="n">
-        <v>16.9798</v>
+        <v>14.0155</v>
       </c>
       <c r="G60" t="n">
-        <v>68330</v>
+        <v>68297.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2504,7 +2512,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2514,22 +2526,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="C61" t="n">
-        <v>68200</v>
+        <v>68000</v>
       </c>
       <c r="D61" t="n">
-        <v>68200</v>
+        <v>68050</v>
       </c>
       <c r="E61" t="n">
-        <v>68200</v>
+        <v>68000</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06950000000000001</v>
+        <v>16.9798</v>
       </c>
       <c r="G61" t="n">
-        <v>68360</v>
+        <v>68330</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2539,7 +2551,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2549,36 +2565,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68250</v>
+        <v>68200</v>
       </c>
       <c r="C62" t="n">
-        <v>68250</v>
+        <v>68200</v>
       </c>
       <c r="D62" t="n">
-        <v>68250</v>
+        <v>68200</v>
       </c>
       <c r="E62" t="n">
-        <v>68250</v>
+        <v>68200</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>68390.83333333333</v>
+        <v>68360</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>68200</v>
-      </c>
-      <c r="K62" t="n">
-        <v>68200</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2604,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="C63" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="D63" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="E63" t="n">
-        <v>68400</v>
+        <v>68250</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="G63" t="n">
-        <v>68417.5</v>
+        <v>68390.83333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2612,12 +2628,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>68200</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2629,22 +2643,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="C64" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="D64" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="E64" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="F64" t="n">
-        <v>13.1618</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>68446.66666666667</v>
+        <v>68417.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2653,12 +2667,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>68200</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2682,10 +2694,10 @@
         <v>68550</v>
       </c>
       <c r="F65" t="n">
-        <v>43.6584</v>
+        <v>13.1618</v>
       </c>
       <c r="G65" t="n">
-        <v>68470.83333333333</v>
+        <v>68446.66666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2695,7 +2707,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2705,22 +2721,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68600</v>
+        <v>68550</v>
       </c>
       <c r="C66" t="n">
-        <v>68500</v>
+        <v>68550</v>
       </c>
       <c r="D66" t="n">
-        <v>68600</v>
+        <v>68550</v>
       </c>
       <c r="E66" t="n">
-        <v>68500</v>
+        <v>68550</v>
       </c>
       <c r="F66" t="n">
-        <v>82.69199999999999</v>
+        <v>43.6584</v>
       </c>
       <c r="G66" t="n">
-        <v>68494.16666666667</v>
+        <v>68470.83333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2730,7 +2746,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2740,22 +2760,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68150</v>
+        <v>68600</v>
       </c>
       <c r="C67" t="n">
-        <v>68150</v>
+        <v>68500</v>
       </c>
       <c r="D67" t="n">
-        <v>68150</v>
+        <v>68600</v>
       </c>
       <c r="E67" t="n">
-        <v>68150</v>
+        <v>68500</v>
       </c>
       <c r="F67" t="n">
-        <v>2.8435</v>
+        <v>82.69199999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>68510</v>
+        <v>68494.16666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2765,7 +2785,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2775,22 +2799,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68250</v>
+        <v>68150</v>
       </c>
       <c r="C68" t="n">
-        <v>68800</v>
+        <v>68150</v>
       </c>
       <c r="D68" t="n">
-        <v>68800</v>
+        <v>68150</v>
       </c>
       <c r="E68" t="n">
-        <v>68250</v>
+        <v>68150</v>
       </c>
       <c r="F68" t="n">
-        <v>0.60364883</v>
+        <v>2.8435</v>
       </c>
       <c r="G68" t="n">
-        <v>68536.66666666667</v>
+        <v>68510</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2800,7 +2824,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2810,7 +2838,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="C69" t="n">
         <v>68800</v>
@@ -2819,27 +2847,27 @@
         <v>68800</v>
       </c>
       <c r="E69" t="n">
-        <v>68800</v>
+        <v>68250</v>
       </c>
       <c r="F69" t="n">
-        <v>14.3161</v>
+        <v>0.60364883</v>
       </c>
       <c r="G69" t="n">
-        <v>68562.5</v>
+        <v>68536.66666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>68800</v>
-      </c>
-      <c r="K69" t="n">
-        <v>68800</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2849,22 +2877,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68150</v>
+        <v>68800</v>
       </c>
       <c r="C70" t="n">
-        <v>68150</v>
+        <v>68800</v>
       </c>
       <c r="D70" t="n">
-        <v>68150</v>
+        <v>68800</v>
       </c>
       <c r="E70" t="n">
-        <v>68150</v>
+        <v>68800</v>
       </c>
       <c r="F70" t="n">
-        <v>2.6786</v>
+        <v>14.3161</v>
       </c>
       <c r="G70" t="n">
-        <v>68577.5</v>
+        <v>68562.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2873,12 +2901,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2890,38 +2916,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68200</v>
+        <v>68150</v>
       </c>
       <c r="C71" t="n">
-        <v>68100</v>
+        <v>68150</v>
       </c>
       <c r="D71" t="n">
-        <v>68200</v>
+        <v>68150</v>
       </c>
       <c r="E71" t="n">
-        <v>68100</v>
+        <v>68150</v>
       </c>
       <c r="F71" t="n">
-        <v>100.6006</v>
+        <v>2.6786</v>
       </c>
       <c r="G71" t="n">
-        <v>68582.5</v>
+        <v>68577.5</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>68150</v>
-      </c>
-      <c r="K71" t="n">
-        <v>68800</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2933,22 +2955,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="C72" t="n">
         <v>68100</v>
       </c>
       <c r="D72" t="n">
-        <v>68100</v>
+        <v>68200</v>
       </c>
       <c r="E72" t="n">
         <v>68100</v>
       </c>
       <c r="F72" t="n">
-        <v>30.671</v>
+        <v>100.6006</v>
       </c>
       <c r="G72" t="n">
-        <v>68581.66666666667</v>
+        <v>68582.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2957,9 +2979,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,10 +3006,10 @@
         <v>68100</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>30.671</v>
       </c>
       <c r="G73" t="n">
-        <v>68575.83333333333</v>
+        <v>68581.66666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2998,9 +3018,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,19 +3036,19 @@
         <v>68100</v>
       </c>
       <c r="C74" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="D74" t="n">
-        <v>68150</v>
+        <v>68100</v>
       </c>
       <c r="E74" t="n">
-        <v>67450</v>
+        <v>68100</v>
       </c>
       <c r="F74" t="n">
-        <v>20.3789</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>68570</v>
+        <v>68575.83333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3039,9 +3057,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,22 +3072,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>67550</v>
+        <v>68100</v>
       </c>
       <c r="C75" t="n">
-        <v>67550</v>
+        <v>68150</v>
       </c>
       <c r="D75" t="n">
-        <v>67550</v>
+        <v>68150</v>
       </c>
       <c r="E75" t="n">
-        <v>67550</v>
+        <v>67450</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03</v>
+        <v>20.3789</v>
       </c>
       <c r="G75" t="n">
-        <v>68551.66666666667</v>
+        <v>68570</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3080,9 +3096,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,22 +3111,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="C76" t="n">
-        <v>67300</v>
+        <v>67550</v>
       </c>
       <c r="D76" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="E76" t="n">
-        <v>67300</v>
+        <v>67550</v>
       </c>
       <c r="F76" t="n">
-        <v>3.1388</v>
+        <v>0.03</v>
       </c>
       <c r="G76" t="n">
-        <v>68537.5</v>
+        <v>68551.66666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3121,9 +3135,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,22 +3150,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="C77" t="n">
         <v>67300</v>
       </c>
       <c r="D77" t="n">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="E77" t="n">
         <v>67300</v>
       </c>
       <c r="F77" t="n">
-        <v>12.7198</v>
+        <v>3.1388</v>
       </c>
       <c r="G77" t="n">
-        <v>68514.16666666667</v>
+        <v>68537.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3162,9 +3174,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,22 +3189,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67550</v>
+        <v>67300</v>
       </c>
       <c r="C78" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="D78" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="E78" t="n">
-        <v>67550</v>
+        <v>67300</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0414</v>
+        <v>12.7198</v>
       </c>
       <c r="G78" t="n">
-        <v>68505</v>
+        <v>68514.16666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3203,9 +3213,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,22 +3228,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67900</v>
+        <v>67550</v>
       </c>
       <c r="C79" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="D79" t="n">
-        <v>68050</v>
+        <v>67600</v>
       </c>
       <c r="E79" t="n">
-        <v>67900</v>
+        <v>67550</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08168449</v>
+        <v>0.0414</v>
       </c>
       <c r="G79" t="n">
-        <v>68490.83333333333</v>
+        <v>68505</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3244,9 +3252,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,22 +3267,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>67350</v>
+        <v>67900</v>
       </c>
       <c r="C80" t="n">
-        <v>67350</v>
+        <v>68050</v>
       </c>
       <c r="D80" t="n">
-        <v>67350</v>
+        <v>68050</v>
       </c>
       <c r="E80" t="n">
-        <v>67350</v>
+        <v>67900</v>
       </c>
       <c r="F80" t="n">
-        <v>1.9</v>
+        <v>0.08168449</v>
       </c>
       <c r="G80" t="n">
-        <v>68460</v>
+        <v>68490.83333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3285,9 +3291,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,10 +3318,10 @@
         <v>67350</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4465</v>
+        <v>1.9</v>
       </c>
       <c r="G81" t="n">
-        <v>68425</v>
+        <v>68460</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3326,9 +3330,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,22 +3345,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="C82" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="D82" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="E82" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="F82" t="n">
-        <v>4.5518</v>
+        <v>0.4465</v>
       </c>
       <c r="G82" t="n">
-        <v>68388.33333333333</v>
+        <v>68425</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3367,9 +3369,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,10 +3396,10 @@
         <v>67300</v>
       </c>
       <c r="F83" t="n">
-        <v>18.3234</v>
+        <v>4.5518</v>
       </c>
       <c r="G83" t="n">
-        <v>68343.33333333333</v>
+        <v>68388.33333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,9 +3408,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,22 +3423,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="C84" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="D84" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="E84" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="F84" t="n">
-        <v>0.22</v>
+        <v>18.3234</v>
       </c>
       <c r="G84" t="n">
-        <v>68311.66666666667</v>
+        <v>68343.33333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3449,9 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,19 +3465,19 @@
         <v>67600</v>
       </c>
       <c r="C85" t="n">
-        <v>67100</v>
+        <v>67600</v>
       </c>
       <c r="D85" t="n">
         <v>67600</v>
       </c>
       <c r="E85" t="n">
-        <v>67100</v>
+        <v>67600</v>
       </c>
       <c r="F85" t="n">
-        <v>3.5702</v>
+        <v>0.22</v>
       </c>
       <c r="G85" t="n">
-        <v>68265</v>
+        <v>68311.66666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3490,9 +3486,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,22 +3501,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="C86" t="n">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="D86" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E86" t="n">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="F86" t="n">
-        <v>0.63</v>
+        <v>3.5702</v>
       </c>
       <c r="G86" t="n">
-        <v>68220</v>
+        <v>68265</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3531,9 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,22 +3540,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="C87" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="D87" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="E87" t="n">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="G87" t="n">
-        <v>68170</v>
+        <v>68220</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3572,9 +3564,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,22 +3579,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="C88" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="D88" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="E88" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="F88" t="n">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>68120.83333333333</v>
+        <v>68170</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3613,9 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,22 +3618,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67100</v>
+        <v>67050</v>
       </c>
       <c r="C89" t="n">
-        <v>67100</v>
+        <v>67050</v>
       </c>
       <c r="D89" t="n">
-        <v>67100</v>
+        <v>67050</v>
       </c>
       <c r="E89" t="n">
-        <v>67100</v>
+        <v>67050</v>
       </c>
       <c r="F89" t="n">
-        <v>1.4893</v>
+        <v>0.79</v>
       </c>
       <c r="G89" t="n">
-        <v>68088.33333333333</v>
+        <v>68120.83333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3654,9 +3642,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3671,22 +3657,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="C90" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="D90" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="E90" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="F90" t="n">
-        <v>1.111</v>
+        <v>1.4893</v>
       </c>
       <c r="G90" t="n">
-        <v>68058.33333333333</v>
+        <v>68088.33333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3695,9 +3681,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,10 +3708,10 @@
         <v>66750</v>
       </c>
       <c r="F91" t="n">
-        <v>1.7716</v>
+        <v>1.111</v>
       </c>
       <c r="G91" t="n">
-        <v>68009.16666666667</v>
+        <v>68058.33333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3736,9 +3720,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,10 +3747,10 @@
         <v>66750</v>
       </c>
       <c r="F92" t="n">
-        <v>6.8981</v>
+        <v>1.7716</v>
       </c>
       <c r="G92" t="n">
-        <v>67986.66666666667</v>
+        <v>68009.16666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3777,9 +3759,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,22 +3774,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="C93" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D93" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="E93" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="F93" t="n">
-        <v>1.24</v>
+        <v>6.8981</v>
       </c>
       <c r="G93" t="n">
-        <v>67968.33333333333</v>
+        <v>67986.66666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3818,9 +3798,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,22 +3813,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66250</v>
+        <v>66500</v>
       </c>
       <c r="C94" t="n">
-        <v>66250</v>
+        <v>66500</v>
       </c>
       <c r="D94" t="n">
-        <v>66250</v>
+        <v>66500</v>
       </c>
       <c r="E94" t="n">
-        <v>66250</v>
+        <v>66500</v>
       </c>
       <c r="F94" t="n">
-        <v>2.9964</v>
+        <v>1.24</v>
       </c>
       <c r="G94" t="n">
-        <v>67940.83333333333</v>
+        <v>67968.33333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3859,9 +3837,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,22 +3852,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66350</v>
+        <v>66250</v>
       </c>
       <c r="C95" t="n">
-        <v>66550</v>
+        <v>66250</v>
       </c>
       <c r="D95" t="n">
-        <v>66550</v>
+        <v>66250</v>
       </c>
       <c r="E95" t="n">
-        <v>66200</v>
+        <v>66250</v>
       </c>
       <c r="F95" t="n">
-        <v>33.4695</v>
+        <v>2.9964</v>
       </c>
       <c r="G95" t="n">
-        <v>67910.83333333333</v>
+        <v>67940.83333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3900,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,35 +3891,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66400</v>
+        <v>66350</v>
       </c>
       <c r="C96" t="n">
-        <v>66450</v>
+        <v>66550</v>
       </c>
       <c r="D96" t="n">
-        <v>66450</v>
+        <v>66550</v>
       </c>
       <c r="E96" t="n">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="F96" t="n">
-        <v>5.9</v>
+        <v>33.4695</v>
       </c>
       <c r="G96" t="n">
-        <v>67874.16666666667</v>
+        <v>67910.83333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K96" t="n">
-        <v>68800</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,7 +3930,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66450</v>
+        <v>66400</v>
       </c>
       <c r="C97" t="n">
         <v>66450</v>
@@ -3969,26 +3939,22 @@
         <v>66450</v>
       </c>
       <c r="E97" t="n">
-        <v>66450</v>
+        <v>66400</v>
       </c>
       <c r="F97" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="G97" t="n">
-        <v>67848.33333333333</v>
+        <v>67874.16666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>66450</v>
-      </c>
-      <c r="K97" t="n">
-        <v>68800</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,22 +3969,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66200</v>
+        <v>66450</v>
       </c>
       <c r="C98" t="n">
-        <v>66200</v>
+        <v>66450</v>
       </c>
       <c r="D98" t="n">
-        <v>66200</v>
+        <v>66450</v>
       </c>
       <c r="E98" t="n">
-        <v>66200</v>
+        <v>66450</v>
       </c>
       <c r="F98" t="n">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="G98" t="n">
-        <v>67815.83333333333</v>
+        <v>67848.33333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4027,9 +3993,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4044,22 +4008,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66250</v>
+        <v>66200</v>
       </c>
       <c r="C99" t="n">
         <v>66200</v>
       </c>
       <c r="D99" t="n">
-        <v>66250</v>
+        <v>66200</v>
       </c>
       <c r="E99" t="n">
         <v>66200</v>
       </c>
       <c r="F99" t="n">
-        <v>14.3161</v>
+        <v>1.55</v>
       </c>
       <c r="G99" t="n">
-        <v>67775.83333333333</v>
+        <v>67815.83333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4068,9 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,22 +4047,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66350</v>
+        <v>66250</v>
       </c>
       <c r="C100" t="n">
-        <v>66300</v>
+        <v>66200</v>
       </c>
       <c r="D100" t="n">
-        <v>66350</v>
+        <v>66250</v>
       </c>
       <c r="E100" t="n">
-        <v>66300</v>
+        <v>66200</v>
       </c>
       <c r="F100" t="n">
-        <v>14.1049</v>
+        <v>14.3161</v>
       </c>
       <c r="G100" t="n">
-        <v>67737.5</v>
+        <v>67775.83333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4109,9 +4071,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4126,22 +4086,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66700</v>
+        <v>66350</v>
       </c>
       <c r="C101" t="n">
-        <v>66700</v>
+        <v>66300</v>
       </c>
       <c r="D101" t="n">
-        <v>66700</v>
+        <v>66350</v>
       </c>
       <c r="E101" t="n">
-        <v>66700</v>
+        <v>66300</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0651</v>
+        <v>14.1049</v>
       </c>
       <c r="G101" t="n">
-        <v>67705.83333333333</v>
+        <v>67737.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4150,9 +4110,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,19 +4128,19 @@
         <v>66700</v>
       </c>
       <c r="C102" t="n">
-        <v>66750</v>
+        <v>66700</v>
       </c>
       <c r="D102" t="n">
-        <v>66750</v>
+        <v>66700</v>
       </c>
       <c r="E102" t="n">
         <v>66700</v>
       </c>
       <c r="F102" t="n">
-        <v>10.7779</v>
+        <v>1.0651</v>
       </c>
       <c r="G102" t="n">
-        <v>67675</v>
+        <v>67705.83333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4191,9 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,35 +4164,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66500</v>
+        <v>66700</v>
       </c>
       <c r="C103" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="D103" t="n">
-        <v>66500</v>
+        <v>66750</v>
       </c>
       <c r="E103" t="n">
-        <v>66500</v>
+        <v>66700</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1098</v>
+        <v>10.7779</v>
       </c>
       <c r="G103" t="n">
-        <v>67640</v>
+        <v>67675</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>66750</v>
-      </c>
-      <c r="K103" t="n">
-        <v>68800</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,22 +4203,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66950</v>
+        <v>66500</v>
       </c>
       <c r="C104" t="n">
-        <v>67700</v>
+        <v>66500</v>
       </c>
       <c r="D104" t="n">
-        <v>67700</v>
+        <v>66500</v>
       </c>
       <c r="E104" t="n">
-        <v>66950</v>
+        <v>66500</v>
       </c>
       <c r="F104" t="n">
-        <v>5.5486</v>
+        <v>0.1098</v>
       </c>
       <c r="G104" t="n">
-        <v>67625</v>
+        <v>67640</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4275,9 +4227,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4292,22 +4242,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67600</v>
+        <v>66950</v>
       </c>
       <c r="C105" t="n">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="D105" t="n">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="E105" t="n">
-        <v>67500</v>
+        <v>66950</v>
       </c>
       <c r="F105" t="n">
-        <v>6.8853</v>
+        <v>5.5486</v>
       </c>
       <c r="G105" t="n">
-        <v>67606.66666666667</v>
+        <v>67625</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4316,9 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,22 +4281,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67450</v>
+        <v>67600</v>
       </c>
       <c r="C106" t="n">
-        <v>67450</v>
+        <v>67500</v>
       </c>
       <c r="D106" t="n">
-        <v>67900</v>
+        <v>67600</v>
       </c>
       <c r="E106" t="n">
-        <v>67450</v>
+        <v>67500</v>
       </c>
       <c r="F106" t="n">
-        <v>68.59220000000001</v>
+        <v>6.8853</v>
       </c>
       <c r="G106" t="n">
-        <v>67587.5</v>
+        <v>67606.66666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4357,9 +4305,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,22 +4320,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67550</v>
+        <v>67450</v>
       </c>
       <c r="C107" t="n">
-        <v>67850</v>
+        <v>67450</v>
       </c>
       <c r="D107" t="n">
-        <v>67850</v>
+        <v>67900</v>
       </c>
       <c r="E107" t="n">
-        <v>67550</v>
+        <v>67450</v>
       </c>
       <c r="F107" t="n">
-        <v>41.657</v>
+        <v>68.59220000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>67575</v>
+        <v>67587.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4398,9 +4344,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,22 +4359,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67050</v>
+        <v>67550</v>
       </c>
       <c r="C108" t="n">
-        <v>67050</v>
+        <v>67850</v>
       </c>
       <c r="D108" t="n">
-        <v>67050</v>
+        <v>67850</v>
       </c>
       <c r="E108" t="n">
-        <v>67050</v>
+        <v>67550</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0179</v>
+        <v>41.657</v>
       </c>
       <c r="G108" t="n">
-        <v>67549.16666666667</v>
+        <v>67575</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4439,9 +4383,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,22 +4398,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67200</v>
+        <v>67050</v>
       </c>
       <c r="C109" t="n">
-        <v>67200</v>
+        <v>67050</v>
       </c>
       <c r="D109" t="n">
-        <v>67200</v>
+        <v>67050</v>
       </c>
       <c r="E109" t="n">
-        <v>67200</v>
+        <v>67050</v>
       </c>
       <c r="F109" t="n">
-        <v>8.8024</v>
+        <v>0.0179</v>
       </c>
       <c r="G109" t="n">
-        <v>67525.83333333333</v>
+        <v>67549.16666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4480,9 +4422,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,22 +4437,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67350</v>
+        <v>67200</v>
       </c>
       <c r="C110" t="n">
-        <v>67350</v>
+        <v>67200</v>
       </c>
       <c r="D110" t="n">
-        <v>67350</v>
+        <v>67200</v>
       </c>
       <c r="E110" t="n">
-        <v>67350</v>
+        <v>67200</v>
       </c>
       <c r="F110" t="n">
-        <v>6.9161</v>
+        <v>8.8024</v>
       </c>
       <c r="G110" t="n">
-        <v>67505</v>
+        <v>67525.83333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4521,9 +4461,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,22 +4476,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67200</v>
+        <v>67350</v>
       </c>
       <c r="C111" t="n">
-        <v>67100</v>
+        <v>67350</v>
       </c>
       <c r="D111" t="n">
-        <v>67200</v>
+        <v>67350</v>
       </c>
       <c r="E111" t="n">
-        <v>67100</v>
+        <v>67350</v>
       </c>
       <c r="F111" t="n">
-        <v>26.3898</v>
+        <v>6.9161</v>
       </c>
       <c r="G111" t="n">
-        <v>67480</v>
+        <v>67505</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4562,9 +4500,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,22 +4515,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>67300</v>
+        <v>67200</v>
       </c>
       <c r="C112" t="n">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="D112" t="n">
-        <v>67300</v>
+        <v>67200</v>
       </c>
       <c r="E112" t="n">
-        <v>67300</v>
+        <v>67100</v>
       </c>
       <c r="F112" t="n">
-        <v>1.42046062</v>
+        <v>26.3898</v>
       </c>
       <c r="G112" t="n">
-        <v>67465.83333333333</v>
+        <v>67480</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4603,9 +4539,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,22 +4554,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67150</v>
+        <v>67300</v>
       </c>
       <c r="C113" t="n">
-        <v>67150</v>
+        <v>67300</v>
       </c>
       <c r="D113" t="n">
-        <v>67150</v>
+        <v>67300</v>
       </c>
       <c r="E113" t="n">
-        <v>67150</v>
+        <v>67300</v>
       </c>
       <c r="F113" t="n">
-        <v>1.4205</v>
+        <v>1.42046062</v>
       </c>
       <c r="G113" t="n">
-        <v>67459.16666666667</v>
+        <v>67465.83333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4644,9 +4578,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,22 +4593,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67450</v>
+        <v>67150</v>
       </c>
       <c r="C114" t="n">
-        <v>67450</v>
+        <v>67150</v>
       </c>
       <c r="D114" t="n">
-        <v>67450</v>
+        <v>67150</v>
       </c>
       <c r="E114" t="n">
-        <v>67450</v>
+        <v>67150</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2587</v>
+        <v>1.4205</v>
       </c>
       <c r="G114" t="n">
-        <v>67455</v>
+        <v>67459.16666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4685,9 +4617,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,22 +4632,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67850</v>
+        <v>67450</v>
       </c>
       <c r="C115" t="n">
-        <v>67600</v>
+        <v>67450</v>
       </c>
       <c r="D115" t="n">
-        <v>67850</v>
+        <v>67450</v>
       </c>
       <c r="E115" t="n">
-        <v>67500</v>
+        <v>67450</v>
       </c>
       <c r="F115" t="n">
-        <v>7.6809</v>
+        <v>0.2587</v>
       </c>
       <c r="G115" t="n">
-        <v>67453.33333333333</v>
+        <v>67455</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4726,9 +4656,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,22 +4671,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67500</v>
+        <v>67850</v>
       </c>
       <c r="C116" t="n">
-        <v>67500</v>
+        <v>67600</v>
       </c>
       <c r="D116" t="n">
-        <v>67500</v>
+        <v>67850</v>
       </c>
       <c r="E116" t="n">
         <v>67500</v>
       </c>
       <c r="F116" t="n">
-        <v>6.4364</v>
+        <v>7.6809</v>
       </c>
       <c r="G116" t="n">
-        <v>67441.66666666667</v>
+        <v>67453.33333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4767,9 +4695,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,22 +4710,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67550</v>
+        <v>67500</v>
       </c>
       <c r="C117" t="n">
-        <v>67550</v>
+        <v>67500</v>
       </c>
       <c r="D117" t="n">
-        <v>67550</v>
+        <v>67500</v>
       </c>
       <c r="E117" t="n">
-        <v>67550</v>
+        <v>67500</v>
       </c>
       <c r="F117" t="n">
-        <v>1.6143</v>
+        <v>6.4364</v>
       </c>
       <c r="G117" t="n">
-        <v>67432.5</v>
+        <v>67441.66666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4808,9 +4734,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,10 +4761,10 @@
         <v>67550</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4975</v>
+        <v>1.6143</v>
       </c>
       <c r="G118" t="n">
-        <v>67425</v>
+        <v>67432.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4849,9 +4773,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4866,22 +4788,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67050</v>
+        <v>67550</v>
       </c>
       <c r="C119" t="n">
-        <v>67000</v>
+        <v>67550</v>
       </c>
       <c r="D119" t="n">
-        <v>67050</v>
+        <v>67550</v>
       </c>
       <c r="E119" t="n">
-        <v>66950</v>
+        <v>67550</v>
       </c>
       <c r="F119" t="n">
-        <v>16.0032</v>
+        <v>0.4975</v>
       </c>
       <c r="G119" t="n">
-        <v>67407.5</v>
+        <v>67425</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4890,9 +4812,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,22 +4827,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="C120" t="n">
         <v>67000</v>
       </c>
       <c r="D120" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="E120" t="n">
-        <v>67000</v>
+        <v>66950</v>
       </c>
       <c r="F120" t="n">
-        <v>4.1075</v>
+        <v>16.0032</v>
       </c>
       <c r="G120" t="n">
-        <v>67390.83333333333</v>
+        <v>67407.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4931,9 +4851,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,22 +4866,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="C121" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="D121" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="E121" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="F121" t="n">
-        <v>35.8367</v>
+        <v>4.1075</v>
       </c>
       <c r="G121" t="n">
-        <v>67370</v>
+        <v>67390.83333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4972,9 +4890,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4989,22 +4905,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67050</v>
+        <v>66950</v>
       </c>
       <c r="C122" t="n">
-        <v>67050</v>
+        <v>66950</v>
       </c>
       <c r="D122" t="n">
-        <v>67050</v>
+        <v>66950</v>
       </c>
       <c r="E122" t="n">
-        <v>67050</v>
+        <v>66950</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>35.8367</v>
       </c>
       <c r="G122" t="n">
-        <v>67350</v>
+        <v>67370</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5013,9 +4929,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,22 +4944,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66850</v>
+        <v>67050</v>
       </c>
       <c r="C123" t="n">
-        <v>66850</v>
+        <v>67050</v>
       </c>
       <c r="D123" t="n">
-        <v>66850</v>
+        <v>67050</v>
       </c>
       <c r="E123" t="n">
-        <v>66850</v>
+        <v>67050</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0396</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>67324.16666666667</v>
+        <v>67350</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5054,9 +4968,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,22 +4983,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67300</v>
+        <v>66850</v>
       </c>
       <c r="C124" t="n">
-        <v>67300</v>
+        <v>66850</v>
       </c>
       <c r="D124" t="n">
-        <v>67300</v>
+        <v>66850</v>
       </c>
       <c r="E124" t="n">
-        <v>67300</v>
+        <v>66850</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5</v>
+        <v>0.0396</v>
       </c>
       <c r="G124" t="n">
-        <v>67303.33333333333</v>
+        <v>67324.16666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5095,9 +5007,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,22 +5022,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="C125" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="D125" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="E125" t="n">
-        <v>67600</v>
+        <v>67300</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02958579</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="n">
-        <v>67287.5</v>
+        <v>67303.33333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5136,9 +5046,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,22 +5061,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67350</v>
+        <v>67600</v>
       </c>
       <c r="C126" t="n">
-        <v>67350</v>
+        <v>67600</v>
       </c>
       <c r="D126" t="n">
-        <v>67350</v>
+        <v>67600</v>
       </c>
       <c r="E126" t="n">
-        <v>67350</v>
+        <v>67600</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.02958579</v>
       </c>
       <c r="G126" t="n">
-        <v>67268.33333333333</v>
+        <v>67287.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5177,9 +5085,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,22 +5100,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66900</v>
+        <v>67350</v>
       </c>
       <c r="C127" t="n">
-        <v>66900</v>
+        <v>67350</v>
       </c>
       <c r="D127" t="n">
-        <v>66900</v>
+        <v>67350</v>
       </c>
       <c r="E127" t="n">
-        <v>66900</v>
+        <v>67350</v>
       </c>
       <c r="F127" t="n">
-        <v>4.11</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>67247.5</v>
+        <v>67268.33333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5218,9 +5124,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5235,22 +5139,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67050</v>
+        <v>66900</v>
       </c>
       <c r="C128" t="n">
-        <v>67050</v>
+        <v>66900</v>
       </c>
       <c r="D128" t="n">
-        <v>67050</v>
+        <v>66900</v>
       </c>
       <c r="E128" t="n">
-        <v>67050</v>
+        <v>66900</v>
       </c>
       <c r="F128" t="n">
-        <v>3.9756</v>
+        <v>4.11</v>
       </c>
       <c r="G128" t="n">
-        <v>67218.33333333333</v>
+        <v>67247.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5259,9 +5163,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5276,22 +5178,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="C129" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="D129" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="E129" t="n">
-        <v>67000</v>
+        <v>67050</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7475000000000001</v>
+        <v>3.9756</v>
       </c>
       <c r="G129" t="n">
-        <v>67188.33333333333</v>
+        <v>67218.33333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5300,9 +5202,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,22 +5217,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>67100</v>
+        <v>67000</v>
       </c>
       <c r="C130" t="n">
-        <v>67100</v>
+        <v>67000</v>
       </c>
       <c r="D130" t="n">
-        <v>67100</v>
+        <v>67000</v>
       </c>
       <c r="E130" t="n">
-        <v>67100</v>
+        <v>67000</v>
       </c>
       <c r="F130" t="n">
-        <v>5.6376</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>67170.83333333333</v>
+        <v>67188.33333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5341,9 +5241,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,10 +5268,10 @@
         <v>67100</v>
       </c>
       <c r="F131" t="n">
-        <v>4.7974</v>
+        <v>5.6376</v>
       </c>
       <c r="G131" t="n">
-        <v>67154.16666666667</v>
+        <v>67170.83333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5382,9 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,10 +5307,10 @@
         <v>67100</v>
       </c>
       <c r="F132" t="n">
-        <v>1.5072</v>
+        <v>4.7974</v>
       </c>
       <c r="G132" t="n">
-        <v>67137.5</v>
+        <v>67154.16666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5423,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,10 +5346,10 @@
         <v>67100</v>
       </c>
       <c r="F133" t="n">
-        <v>1.0781</v>
+        <v>1.5072</v>
       </c>
       <c r="G133" t="n">
-        <v>67120.83333333333</v>
+        <v>67137.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5464,9 +5358,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,10 +5385,10 @@
         <v>67100</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9478</v>
+        <v>1.0781</v>
       </c>
       <c r="G134" t="n">
-        <v>67103.33333333333</v>
+        <v>67120.83333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5505,9 +5397,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5534,10 +5424,10 @@
         <v>67100</v>
       </c>
       <c r="F135" t="n">
-        <v>1.5571</v>
+        <v>0.9478</v>
       </c>
       <c r="G135" t="n">
-        <v>67095.83333333333</v>
+        <v>67103.33333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5546,9 +5436,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,10 +5463,10 @@
         <v>67100</v>
       </c>
       <c r="F136" t="n">
-        <v>4.6291</v>
+        <v>1.5571</v>
       </c>
       <c r="G136" t="n">
-        <v>67092.5</v>
+        <v>67095.83333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5587,9 +5475,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,22 +5490,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>67350</v>
+        <v>67100</v>
       </c>
       <c r="C137" t="n">
-        <v>67350</v>
+        <v>67100</v>
       </c>
       <c r="D137" t="n">
-        <v>67350</v>
+        <v>67100</v>
       </c>
       <c r="E137" t="n">
-        <v>67350</v>
+        <v>67100</v>
       </c>
       <c r="F137" t="n">
-        <v>2.3983</v>
+        <v>4.6291</v>
       </c>
       <c r="G137" t="n">
-        <v>67093.33333333333</v>
+        <v>67092.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5628,9 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,22 +5529,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="C138" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="D138" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="E138" t="n">
-        <v>67550</v>
+        <v>67350</v>
       </c>
       <c r="F138" t="n">
-        <v>20.8165</v>
+        <v>2.3983</v>
       </c>
       <c r="G138" t="n">
-        <v>67092.5</v>
+        <v>67093.33333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5669,9 +5553,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,22 +5568,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>67450</v>
+        <v>67550</v>
       </c>
       <c r="C139" t="n">
-        <v>67450</v>
+        <v>67550</v>
       </c>
       <c r="D139" t="n">
-        <v>67450</v>
+        <v>67550</v>
       </c>
       <c r="E139" t="n">
-        <v>67450</v>
+        <v>67550</v>
       </c>
       <c r="F139" t="n">
-        <v>1.9999</v>
+        <v>20.8165</v>
       </c>
       <c r="G139" t="n">
-        <v>67082.5</v>
+        <v>67092.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5710,9 +5592,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,22 +5607,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="C140" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="D140" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="E140" t="n">
-        <v>67400</v>
+        <v>67450</v>
       </c>
       <c r="F140" t="n">
-        <v>5.025</v>
+        <v>1.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>67083.33333333333</v>
+        <v>67082.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5751,9 +5631,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5768,22 +5646,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>67550</v>
+        <v>67400</v>
       </c>
       <c r="C141" t="n">
-        <v>67550</v>
+        <v>67400</v>
       </c>
       <c r="D141" t="n">
-        <v>67550</v>
+        <v>67400</v>
       </c>
       <c r="E141" t="n">
-        <v>67550</v>
+        <v>67400</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4632</v>
+        <v>5.025</v>
       </c>
       <c r="G141" t="n">
-        <v>67086.66666666667</v>
+        <v>67083.33333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5792,9 +5670,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,19 +5688,19 @@
         <v>67550</v>
       </c>
       <c r="C142" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="D142" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="E142" t="n">
         <v>67550</v>
       </c>
       <c r="F142" t="n">
-        <v>20.0358</v>
+        <v>0.4632</v>
       </c>
       <c r="G142" t="n">
-        <v>67091.66666666667</v>
+        <v>67086.66666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5833,9 +5709,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,7 +5724,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="C143" t="n">
         <v>67600</v>
@@ -5859,13 +5733,13 @@
         <v>67600</v>
       </c>
       <c r="E143" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="F143" t="n">
-        <v>10.3622</v>
+        <v>20.0358</v>
       </c>
       <c r="G143" t="n">
-        <v>67096.66666666667</v>
+        <v>67091.66666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5874,9 +5748,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5903,7 +5775,7 @@
         <v>67600</v>
       </c>
       <c r="F144" t="n">
-        <v>7.6193</v>
+        <v>10.3622</v>
       </c>
       <c r="G144" t="n">
         <v>67096.66666666667</v>
@@ -5915,9 +5787,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,22 +5802,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>67550</v>
+        <v>67600</v>
       </c>
       <c r="C145" t="n">
-        <v>67550</v>
+        <v>67600</v>
       </c>
       <c r="D145" t="n">
-        <v>67550</v>
+        <v>67600</v>
       </c>
       <c r="E145" t="n">
-        <v>67550</v>
+        <v>67600</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0171</v>
+        <v>7.6193</v>
       </c>
       <c r="G145" t="n">
-        <v>67104.16666666667</v>
+        <v>67096.66666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5956,9 +5826,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,22 +5841,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>67350</v>
+        <v>67550</v>
       </c>
       <c r="C146" t="n">
-        <v>67350</v>
+        <v>67550</v>
       </c>
       <c r="D146" t="n">
-        <v>67350</v>
+        <v>67550</v>
       </c>
       <c r="E146" t="n">
-        <v>67350</v>
+        <v>67550</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8082</v>
+        <v>0.0171</v>
       </c>
       <c r="G146" t="n">
-        <v>67105</v>
+        <v>67104.16666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5997,9 +5865,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,10 +5892,10 @@
         <v>67350</v>
       </c>
       <c r="F147" t="n">
-        <v>1.639</v>
+        <v>0.8082</v>
       </c>
       <c r="G147" t="n">
-        <v>67110.83333333333</v>
+        <v>67105</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6038,9 +5904,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,10 +5931,10 @@
         <v>67350</v>
       </c>
       <c r="F148" t="n">
-        <v>1.0002</v>
+        <v>1.639</v>
       </c>
       <c r="G148" t="n">
-        <v>67115.83333333333</v>
+        <v>67110.83333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6079,9 +5943,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6096,22 +5958,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="C149" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="D149" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="E149" t="n">
-        <v>67300</v>
+        <v>67350</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0149</v>
+        <v>1.0002</v>
       </c>
       <c r="G149" t="n">
-        <v>67119.16666666667</v>
+        <v>67115.83333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6120,9 +5982,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,22 +5997,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>67050</v>
+        <v>67300</v>
       </c>
       <c r="C150" t="n">
-        <v>67050</v>
+        <v>67300</v>
       </c>
       <c r="D150" t="n">
-        <v>67050</v>
+        <v>67300</v>
       </c>
       <c r="E150" t="n">
-        <v>67050</v>
+        <v>67300</v>
       </c>
       <c r="F150" t="n">
-        <v>4.11</v>
+        <v>0.0149</v>
       </c>
       <c r="G150" t="n">
-        <v>67124.16666666667</v>
+        <v>67119.16666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6161,9 +6021,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,22 +6036,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>66700</v>
+        <v>67050</v>
       </c>
       <c r="C151" t="n">
-        <v>66250</v>
+        <v>67050</v>
       </c>
       <c r="D151" t="n">
-        <v>66700</v>
+        <v>67050</v>
       </c>
       <c r="E151" t="n">
-        <v>66250</v>
+        <v>67050</v>
       </c>
       <c r="F151" t="n">
-        <v>68.59220000000001</v>
+        <v>4.11</v>
       </c>
       <c r="G151" t="n">
-        <v>67115.83333333333</v>
+        <v>67124.16666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6202,9 +6060,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,19 +6075,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>66750</v>
+        <v>66700</v>
       </c>
       <c r="C152" t="n">
-        <v>66750</v>
+        <v>66250</v>
       </c>
       <c r="D152" t="n">
-        <v>66750</v>
+        <v>66700</v>
       </c>
       <c r="E152" t="n">
-        <v>66750</v>
+        <v>66250</v>
       </c>
       <c r="F152" t="n">
-        <v>0.021</v>
+        <v>68.59220000000001</v>
       </c>
       <c r="G152" t="n">
         <v>67115.83333333333</v>
@@ -6243,9 +6099,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,22 +6114,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>66400</v>
+        <v>66750</v>
       </c>
       <c r="C153" t="n">
-        <v>66400</v>
+        <v>66750</v>
       </c>
       <c r="D153" t="n">
-        <v>66400</v>
+        <v>66750</v>
       </c>
       <c r="E153" t="n">
-        <v>66400</v>
+        <v>66750</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0226</v>
+        <v>0.021</v>
       </c>
       <c r="G153" t="n">
-        <v>67114.16666666667</v>
+        <v>67115.83333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6284,9 +6138,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,22 +6153,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>66300</v>
+        <v>66400</v>
       </c>
       <c r="C154" t="n">
-        <v>66200</v>
+        <v>66400</v>
       </c>
       <c r="D154" t="n">
-        <v>66300</v>
+        <v>66400</v>
       </c>
       <c r="E154" t="n">
-        <v>66200</v>
+        <v>66400</v>
       </c>
       <c r="F154" t="n">
-        <v>6.2362</v>
+        <v>0.0226</v>
       </c>
       <c r="G154" t="n">
-        <v>67113.33333333333</v>
+        <v>67114.16666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6325,9 +6177,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,19 +6195,19 @@
         <v>66300</v>
       </c>
       <c r="C155" t="n">
-        <v>66300</v>
+        <v>66200</v>
       </c>
       <c r="D155" t="n">
         <v>66300</v>
       </c>
       <c r="E155" t="n">
-        <v>66300</v>
+        <v>66200</v>
       </c>
       <c r="F155" t="n">
-        <v>45.9187</v>
+        <v>6.2362</v>
       </c>
       <c r="G155" t="n">
-        <v>67109.16666666667</v>
+        <v>67113.33333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6366,9 +6216,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,10 +6243,10 @@
         <v>66300</v>
       </c>
       <c r="F156" t="n">
-        <v>9.3916</v>
+        <v>45.9187</v>
       </c>
       <c r="G156" t="n">
-        <v>67106.66666666667</v>
+        <v>67109.16666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6407,9 +6255,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,22 +6270,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>66000</v>
+        <v>66300</v>
       </c>
       <c r="C157" t="n">
-        <v>66000</v>
+        <v>66300</v>
       </c>
       <c r="D157" t="n">
-        <v>66000</v>
+        <v>66300</v>
       </c>
       <c r="E157" t="n">
-        <v>66000</v>
+        <v>66300</v>
       </c>
       <c r="F157" t="n">
-        <v>37.3841</v>
+        <v>9.3916</v>
       </c>
       <c r="G157" t="n">
-        <v>67099.16666666667</v>
+        <v>67106.66666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6448,9 +6294,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6465,19 +6309,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>66100</v>
+        <v>66000</v>
       </c>
       <c r="C158" t="n">
-        <v>66200</v>
+        <v>66000</v>
       </c>
       <c r="D158" t="n">
-        <v>66200</v>
+        <v>66000</v>
       </c>
       <c r="E158" t="n">
-        <v>66100</v>
+        <v>66000</v>
       </c>
       <c r="F158" t="n">
-        <v>11.60128398</v>
+        <v>37.3841</v>
       </c>
       <c r="G158" t="n">
         <v>67099.16666666667</v>
@@ -6489,9 +6333,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,22 +6348,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="C159" t="n">
-        <v>66000</v>
+        <v>66200</v>
       </c>
       <c r="D159" t="n">
-        <v>66000</v>
+        <v>66200</v>
       </c>
       <c r="E159" t="n">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="F159" t="n">
-        <v>15.1592</v>
+        <v>11.60128398</v>
       </c>
       <c r="G159" t="n">
-        <v>67095.83333333333</v>
+        <v>67099.16666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6530,9 +6372,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6547,22 +6387,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>66550</v>
+        <v>66000</v>
       </c>
       <c r="C160" t="n">
-        <v>66550</v>
+        <v>66000</v>
       </c>
       <c r="D160" t="n">
-        <v>66550</v>
+        <v>66000</v>
       </c>
       <c r="E160" t="n">
-        <v>66550</v>
+        <v>66000</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0076</v>
+        <v>15.1592</v>
       </c>
       <c r="G160" t="n">
-        <v>67100</v>
+        <v>67095.83333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6571,9 +6411,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,22 +6426,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>67000</v>
+        <v>66550</v>
       </c>
       <c r="C161" t="n">
-        <v>67000</v>
+        <v>66550</v>
       </c>
       <c r="D161" t="n">
-        <v>67000</v>
+        <v>66550</v>
       </c>
       <c r="E161" t="n">
-        <v>67000</v>
+        <v>66550</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1</v>
+        <v>0.0076</v>
       </c>
       <c r="G161" t="n">
-        <v>67105</v>
+        <v>67100</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6612,9 +6450,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,22 +6465,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>67200</v>
+        <v>67000</v>
       </c>
       <c r="C162" t="n">
-        <v>67200</v>
+        <v>67000</v>
       </c>
       <c r="D162" t="n">
-        <v>67200</v>
+        <v>67000</v>
       </c>
       <c r="E162" t="n">
-        <v>67200</v>
+        <v>67000</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8504</v>
+        <v>0.1</v>
       </c>
       <c r="G162" t="n">
-        <v>67112.5</v>
+        <v>67105</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6653,9 +6489,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,22 +6504,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>66950</v>
+        <v>67200</v>
       </c>
       <c r="C163" t="n">
-        <v>66900</v>
+        <v>67200</v>
       </c>
       <c r="D163" t="n">
-        <v>66950</v>
+        <v>67200</v>
       </c>
       <c r="E163" t="n">
-        <v>66900</v>
+        <v>67200</v>
       </c>
       <c r="F163" t="n">
-        <v>3.442</v>
+        <v>0.8504</v>
       </c>
       <c r="G163" t="n">
-        <v>67119.16666666667</v>
+        <v>67112.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6694,9 +6528,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,22 +6543,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>67150</v>
+        <v>66950</v>
       </c>
       <c r="C164" t="n">
-        <v>67200</v>
+        <v>66900</v>
       </c>
       <c r="D164" t="n">
-        <v>67200</v>
+        <v>66950</v>
       </c>
       <c r="E164" t="n">
-        <v>67150</v>
+        <v>66900</v>
       </c>
       <c r="F164" t="n">
-        <v>7.2</v>
+        <v>3.442</v>
       </c>
       <c r="G164" t="n">
-        <v>67110.83333333333</v>
+        <v>67119.16666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6735,9 +6567,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,22 +6582,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>67250</v>
+        <v>67150</v>
       </c>
       <c r="C165" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="D165" t="n">
-        <v>67250</v>
+        <v>67200</v>
       </c>
       <c r="E165" t="n">
-        <v>67250</v>
+        <v>67150</v>
       </c>
       <c r="F165" t="n">
-        <v>3.8316</v>
+        <v>7.2</v>
       </c>
       <c r="G165" t="n">
-        <v>67106.66666666667</v>
+        <v>67110.83333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6776,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,10 +6633,10 @@
         <v>67250</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0179</v>
+        <v>3.8316</v>
       </c>
       <c r="G166" t="n">
-        <v>67103.33333333333</v>
+        <v>67106.66666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6817,9 +6645,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,22 +6660,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>67550</v>
+        <v>67250</v>
       </c>
       <c r="C167" t="n">
-        <v>67550</v>
+        <v>67250</v>
       </c>
       <c r="D167" t="n">
-        <v>67550</v>
+        <v>67250</v>
       </c>
       <c r="E167" t="n">
-        <v>67550</v>
+        <v>67250</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.0179</v>
       </c>
       <c r="G167" t="n">
-        <v>67098.33333333333</v>
+        <v>67103.33333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6858,9 +6684,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6875,22 +6699,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>67650</v>
+        <v>67550</v>
       </c>
       <c r="C168" t="n">
-        <v>67650</v>
+        <v>67550</v>
       </c>
       <c r="D168" t="n">
-        <v>67650</v>
+        <v>67550</v>
       </c>
       <c r="E168" t="n">
-        <v>67650</v>
+        <v>67550</v>
       </c>
       <c r="F168" t="n">
-        <v>16.4853</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>67108.33333333333</v>
+        <v>67098.33333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6899,9 +6723,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,22 +6738,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>67900</v>
+        <v>67650</v>
       </c>
       <c r="C169" t="n">
-        <v>68000</v>
+        <v>67650</v>
       </c>
       <c r="D169" t="n">
-        <v>68000</v>
+        <v>67650</v>
       </c>
       <c r="E169" t="n">
-        <v>67900</v>
+        <v>67650</v>
       </c>
       <c r="F169" t="n">
-        <v>1.4</v>
+        <v>16.4853</v>
       </c>
       <c r="G169" t="n">
-        <v>67121.66666666667</v>
+        <v>67108.33333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6940,9 +6762,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6960,19 +6780,19 @@
         <v>67900</v>
       </c>
       <c r="C170" t="n">
-        <v>67900</v>
+        <v>68000</v>
       </c>
       <c r="D170" t="n">
-        <v>67900</v>
+        <v>68000</v>
       </c>
       <c r="E170" t="n">
         <v>67900</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0185</v>
+        <v>1.4</v>
       </c>
       <c r="G170" t="n">
-        <v>67130.83333333333</v>
+        <v>67121.66666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6981,9 +6801,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6998,22 +6816,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>68100</v>
+        <v>67900</v>
       </c>
       <c r="C171" t="n">
-        <v>68350</v>
+        <v>67900</v>
       </c>
       <c r="D171" t="n">
-        <v>68350</v>
+        <v>67900</v>
       </c>
       <c r="E171" t="n">
-        <v>68100</v>
+        <v>67900</v>
       </c>
       <c r="F171" t="n">
-        <v>14.4</v>
+        <v>0.0185</v>
       </c>
       <c r="G171" t="n">
-        <v>67151.66666666667</v>
+        <v>67130.83333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7022,9 +6840,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,22 +6855,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C172" t="n">
         <v>68350</v>
       </c>
-      <c r="C172" t="n">
-        <v>68500</v>
-      </c>
       <c r="D172" t="n">
-        <v>68500</v>
+        <v>68350</v>
       </c>
       <c r="E172" t="n">
-        <v>68350</v>
+        <v>68100</v>
       </c>
       <c r="F172" t="n">
-        <v>21</v>
+        <v>14.4</v>
       </c>
       <c r="G172" t="n">
-        <v>67171.66666666667</v>
+        <v>67151.66666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7063,9 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,22 +6894,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>68400</v>
+        <v>68350</v>
       </c>
       <c r="C173" t="n">
-        <v>68400</v>
+        <v>68500</v>
       </c>
       <c r="D173" t="n">
-        <v>68400</v>
+        <v>68500</v>
       </c>
       <c r="E173" t="n">
-        <v>68400</v>
+        <v>68350</v>
       </c>
       <c r="F173" t="n">
-        <v>9.699999999999999</v>
+        <v>21</v>
       </c>
       <c r="G173" t="n">
-        <v>67192.5</v>
+        <v>67171.66666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7104,9 +6918,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,22 +6933,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="C174" t="n">
-        <v>68650</v>
+        <v>68400</v>
       </c>
       <c r="D174" t="n">
-        <v>68650</v>
+        <v>68400</v>
       </c>
       <c r="E174" t="n">
-        <v>68550</v>
+        <v>68400</v>
       </c>
       <c r="F174" t="n">
-        <v>7.0825</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G174" t="n">
-        <v>67212.5</v>
+        <v>67192.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7145,9 +6957,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7162,22 +6972,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>68600</v>
+        <v>68550</v>
       </c>
       <c r="C175" t="n">
-        <v>68600</v>
+        <v>68650</v>
       </c>
       <c r="D175" t="n">
-        <v>68600</v>
+        <v>68650</v>
       </c>
       <c r="E175" t="n">
-        <v>68600</v>
+        <v>68550</v>
       </c>
       <c r="F175" t="n">
-        <v>4.5882</v>
+        <v>7.0825</v>
       </c>
       <c r="G175" t="n">
-        <v>67229.16666666667</v>
+        <v>67212.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7186,9 +6996,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7203,22 +7011,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>68450</v>
+        <v>68600</v>
       </c>
       <c r="C176" t="n">
-        <v>68450</v>
+        <v>68600</v>
       </c>
       <c r="D176" t="n">
-        <v>68450</v>
+        <v>68600</v>
       </c>
       <c r="E176" t="n">
-        <v>68450</v>
+        <v>68600</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0183</v>
+        <v>4.5882</v>
       </c>
       <c r="G176" t="n">
-        <v>67245</v>
+        <v>67229.16666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7227,9 +7035,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,22 +7050,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>68800</v>
+        <v>68450</v>
       </c>
       <c r="C177" t="n">
-        <v>69350</v>
+        <v>68450</v>
       </c>
       <c r="D177" t="n">
-        <v>69400</v>
+        <v>68450</v>
       </c>
       <c r="E177" t="n">
-        <v>68800</v>
+        <v>68450</v>
       </c>
       <c r="F177" t="n">
-        <v>134.7647</v>
+        <v>0.0183</v>
       </c>
       <c r="G177" t="n">
-        <v>67275</v>
+        <v>67245</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7268,9 +7074,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7285,22 +7089,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>69450</v>
+        <v>68800</v>
       </c>
       <c r="C178" t="n">
-        <v>69050</v>
+        <v>69350</v>
       </c>
       <c r="D178" t="n">
-        <v>69500</v>
+        <v>69400</v>
       </c>
       <c r="E178" t="n">
-        <v>69050</v>
+        <v>68800</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6996</v>
+        <v>134.7647</v>
       </c>
       <c r="G178" t="n">
-        <v>67300</v>
+        <v>67275</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7309,9 +7113,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,22 +7128,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>69150</v>
+        <v>69450</v>
       </c>
       <c r="C179" t="n">
-        <v>69500</v>
+        <v>69050</v>
       </c>
       <c r="D179" t="n">
         <v>69500</v>
       </c>
       <c r="E179" t="n">
-        <v>69150</v>
+        <v>69050</v>
       </c>
       <c r="F179" t="n">
-        <v>10.5362</v>
+        <v>0.6996</v>
       </c>
       <c r="G179" t="n">
-        <v>67341.66666666667</v>
+        <v>67300</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7350,9 +7152,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,7 +7167,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>69500</v>
+        <v>69150</v>
       </c>
       <c r="C180" t="n">
         <v>69500</v>
@@ -7376,13 +7176,13 @@
         <v>69500</v>
       </c>
       <c r="E180" t="n">
-        <v>69500</v>
+        <v>69150</v>
       </c>
       <c r="F180" t="n">
-        <v>10.4508</v>
+        <v>10.5362</v>
       </c>
       <c r="G180" t="n">
-        <v>67383.33333333333</v>
+        <v>67341.66666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7391,9 +7191,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7420,10 +7218,10 @@
         <v>69500</v>
       </c>
       <c r="F181" t="n">
-        <v>1.0323</v>
+        <v>10.4508</v>
       </c>
       <c r="G181" t="n">
-        <v>67425.83333333333</v>
+        <v>67383.33333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7432,9 +7230,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7449,22 +7245,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="C182" t="n">
-        <v>69700</v>
+        <v>69500</v>
       </c>
       <c r="D182" t="n">
-        <v>69700</v>
+        <v>69500</v>
       </c>
       <c r="E182" t="n">
-        <v>69600</v>
+        <v>69500</v>
       </c>
       <c r="F182" t="n">
-        <v>1.4684</v>
+        <v>1.0323</v>
       </c>
       <c r="G182" t="n">
-        <v>67470</v>
+        <v>67425.83333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7473,9 +7269,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7490,22 +7284,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>69800</v>
+        <v>69600</v>
       </c>
       <c r="C183" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="D183" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="E183" t="n">
-        <v>69800</v>
+        <v>69600</v>
       </c>
       <c r="F183" t="n">
-        <v>32.65141358</v>
+        <v>1.4684</v>
       </c>
       <c r="G183" t="n">
-        <v>67521.66666666667</v>
+        <v>67470</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7514,9 +7308,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,7 +7323,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>69700</v>
+        <v>69800</v>
       </c>
       <c r="C184" t="n">
         <v>69950</v>
@@ -7540,13 +7332,13 @@
         <v>69950</v>
       </c>
       <c r="E184" t="n">
-        <v>69700</v>
+        <v>69800</v>
       </c>
       <c r="F184" t="n">
-        <v>4.3398</v>
+        <v>32.65141358</v>
       </c>
       <c r="G184" t="n">
-        <v>67565.83333333333</v>
+        <v>67521.66666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7555,9 +7347,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,22 +7362,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>69700</v>
+      </c>
+      <c r="C185" t="n">
         <v>69950</v>
       </c>
-      <c r="C185" t="n">
-        <v>70000</v>
-      </c>
       <c r="D185" t="n">
-        <v>70000</v>
+        <v>69950</v>
       </c>
       <c r="E185" t="n">
-        <v>69950</v>
+        <v>69700</v>
       </c>
       <c r="F185" t="n">
-        <v>19.4572</v>
+        <v>4.3398</v>
       </c>
       <c r="G185" t="n">
-        <v>67605.83333333333</v>
+        <v>67565.83333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7596,9 +7386,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,7 +7401,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>70000</v>
+        <v>69950</v>
       </c>
       <c r="C186" t="n">
         <v>70000</v>
@@ -7622,13 +7410,13 @@
         <v>70000</v>
       </c>
       <c r="E186" t="n">
-        <v>70000</v>
+        <v>69950</v>
       </c>
       <c r="F186" t="n">
-        <v>63.51388314</v>
+        <v>19.4572</v>
       </c>
       <c r="G186" t="n">
-        <v>67650</v>
+        <v>67605.83333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7637,9 +7425,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,22 +7440,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>70050</v>
+        <v>70000</v>
       </c>
       <c r="C187" t="n">
-        <v>70500</v>
+        <v>70000</v>
       </c>
       <c r="D187" t="n">
-        <v>70500</v>
+        <v>70000</v>
       </c>
       <c r="E187" t="n">
-        <v>70050</v>
+        <v>70000</v>
       </c>
       <c r="F187" t="n">
-        <v>43.1198</v>
+        <v>63.51388314</v>
       </c>
       <c r="G187" t="n">
-        <v>67710</v>
+        <v>67650</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7678,9 +7464,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,22 +7479,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>70050</v>
+      </c>
+      <c r="C188" t="n">
         <v>70500</v>
       </c>
-      <c r="C188" t="n">
-        <v>71000</v>
-      </c>
       <c r="D188" t="n">
-        <v>71000</v>
+        <v>70500</v>
       </c>
       <c r="E188" t="n">
-        <v>70200</v>
+        <v>70050</v>
       </c>
       <c r="F188" t="n">
-        <v>39.25744206</v>
+        <v>43.1198</v>
       </c>
       <c r="G188" t="n">
-        <v>67775.83333333333</v>
+        <v>67710</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7719,9 +7503,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,22 +7518,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>71050</v>
+        <v>70500</v>
       </c>
       <c r="C189" t="n">
-        <v>71100</v>
+        <v>71000</v>
       </c>
       <c r="D189" t="n">
-        <v>71100</v>
+        <v>71000</v>
       </c>
       <c r="E189" t="n">
-        <v>70600</v>
+        <v>70200</v>
       </c>
       <c r="F189" t="n">
-        <v>64.1341</v>
+        <v>39.25744206</v>
       </c>
       <c r="G189" t="n">
-        <v>67844.16666666667</v>
+        <v>67775.83333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7760,9 +7542,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7777,7 +7557,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>71100</v>
+        <v>71050</v>
       </c>
       <c r="C190" t="n">
         <v>71100</v>
@@ -7786,13 +7566,13 @@
         <v>71100</v>
       </c>
       <c r="E190" t="n">
-        <v>71100</v>
+        <v>70600</v>
       </c>
       <c r="F190" t="n">
-        <v>14.0135</v>
+        <v>64.1341</v>
       </c>
       <c r="G190" t="n">
-        <v>67910.83333333333</v>
+        <v>67844.16666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7801,9 +7581,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,22 +7596,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>71150</v>
+        <v>71100</v>
       </c>
       <c r="C191" t="n">
-        <v>71600</v>
+        <v>71100</v>
       </c>
       <c r="D191" t="n">
-        <v>71600</v>
+        <v>71100</v>
       </c>
       <c r="E191" t="n">
-        <v>71050</v>
+        <v>71100</v>
       </c>
       <c r="F191" t="n">
-        <v>53.16</v>
+        <v>14.0135</v>
       </c>
       <c r="G191" t="n">
-        <v>67985.83333333333</v>
+        <v>67910.83333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7842,9 +7620,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,22 +7635,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>71500</v>
+        <v>71150</v>
       </c>
       <c r="C192" t="n">
-        <v>71500</v>
+        <v>71600</v>
       </c>
       <c r="D192" t="n">
-        <v>71500</v>
+        <v>71600</v>
       </c>
       <c r="E192" t="n">
-        <v>71500</v>
+        <v>71050</v>
       </c>
       <c r="F192" t="n">
-        <v>0.02</v>
+        <v>53.16</v>
       </c>
       <c r="G192" t="n">
-        <v>68059.16666666667</v>
+        <v>67985.83333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7883,9 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,7 +7674,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>71450</v>
+        <v>71500</v>
       </c>
       <c r="C193" t="n">
         <v>71500</v>
@@ -7909,13 +7683,13 @@
         <v>71500</v>
       </c>
       <c r="E193" t="n">
-        <v>71450</v>
+        <v>71500</v>
       </c>
       <c r="F193" t="n">
-        <v>5.9965</v>
+        <v>0.02</v>
       </c>
       <c r="G193" t="n">
-        <v>68132.5</v>
+        <v>68059.16666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7924,9 +7698,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,22 +7713,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>71450</v>
+      </c>
+      <c r="C194" t="n">
         <v>71500</v>
       </c>
-      <c r="C194" t="n">
-        <v>71250</v>
-      </c>
       <c r="D194" t="n">
-        <v>71650</v>
+        <v>71500</v>
       </c>
       <c r="E194" t="n">
-        <v>71250</v>
+        <v>71450</v>
       </c>
       <c r="F194" t="n">
-        <v>31.1302</v>
+        <v>5.9965</v>
       </c>
       <c r="G194" t="n">
-        <v>68201.66666666667</v>
+        <v>68132.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7965,9 +7737,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7982,22 +7752,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>71400</v>
+        <v>71500</v>
       </c>
       <c r="C195" t="n">
-        <v>71100</v>
+        <v>71250</v>
       </c>
       <c r="D195" t="n">
-        <v>71400</v>
+        <v>71650</v>
       </c>
       <c r="E195" t="n">
-        <v>70750</v>
+        <v>71250</v>
       </c>
       <c r="F195" t="n">
-        <v>16.8372</v>
+        <v>31.1302</v>
       </c>
       <c r="G195" t="n">
-        <v>68268.33333333333</v>
+        <v>68201.66666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8006,9 +7776,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8023,22 +7791,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>71400</v>
+      </c>
+      <c r="C196" t="n">
         <v>71100</v>
       </c>
-      <c r="C196" t="n">
-        <v>71050</v>
-      </c>
       <c r="D196" t="n">
-        <v>71100</v>
+        <v>71400</v>
       </c>
       <c r="E196" t="n">
-        <v>71000</v>
+        <v>70750</v>
       </c>
       <c r="F196" t="n">
-        <v>20.4407</v>
+        <v>16.8372</v>
       </c>
       <c r="G196" t="n">
-        <v>68334.16666666667</v>
+        <v>68268.33333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8047,9 +7815,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8064,22 +7830,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>71050</v>
+        <v>71100</v>
       </c>
       <c r="C197" t="n">
         <v>71050</v>
       </c>
       <c r="D197" t="n">
-        <v>71050</v>
+        <v>71100</v>
       </c>
       <c r="E197" t="n">
-        <v>71050</v>
+        <v>71000</v>
       </c>
       <c r="F197" t="n">
-        <v>1.5583</v>
+        <v>20.4407</v>
       </c>
       <c r="G197" t="n">
-        <v>68395.83333333333</v>
+        <v>68334.16666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8088,9 +7854,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>68800</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,39 +7869,76 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>71050</v>
+      </c>
+      <c r="C198" t="n">
+        <v>71050</v>
+      </c>
+      <c r="D198" t="n">
+        <v>71050</v>
+      </c>
+      <c r="E198" t="n">
+        <v>71050</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.5583</v>
+      </c>
+      <c r="G198" t="n">
+        <v>68395.83333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>71000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C199" t="n">
         <v>71000</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D199" t="n">
         <v>71000</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E199" t="n">
         <v>71000</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F199" t="n">
         <v>2.2686</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G199" t="n">
         <v>68453.33333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>68800</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10.5344</v>
       </c>
       <c r="G2" t="n">
+        <v>65780</v>
+      </c>
+      <c r="H2" t="n">
         <v>64240</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>7.7384</v>
       </c>
       <c r="G3" t="n">
+        <v>65833.33333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>64315.83333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>4.6204</v>
       </c>
       <c r="G4" t="n">
+        <v>65913.33333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>64394.16666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
+        <v>65996.66666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>64465</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,27 @@
         <v>14</v>
       </c>
       <c r="G6" t="n">
+        <v>66103.33333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>64532.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,27 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>66206.66666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>64600.83333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,27 @@
         <v>6.9</v>
       </c>
       <c r="G8" t="n">
+        <v>66313.33333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>64671.66666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +753,27 @@
         <v>7.7344</v>
       </c>
       <c r="G9" t="n">
+        <v>66420</v>
+      </c>
+      <c r="H9" t="n">
         <v>64744.16666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,27 @@
         <v>16.7993</v>
       </c>
       <c r="G10" t="n">
+        <v>66530</v>
+      </c>
+      <c r="H10" t="n">
         <v>64817.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +841,27 @@
         <v>92.0534</v>
       </c>
       <c r="G11" t="n">
+        <v>66640</v>
+      </c>
+      <c r="H11" t="n">
         <v>64888.33333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +885,27 @@
         <v>49.1991</v>
       </c>
       <c r="G12" t="n">
+        <v>66760</v>
+      </c>
+      <c r="H12" t="n">
         <v>64968.33333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +929,27 @@
         <v>39.1959</v>
       </c>
       <c r="G13" t="n">
+        <v>66903.33333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>65054.16666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +973,27 @@
         <v>7.28746311</v>
       </c>
       <c r="G14" t="n">
+        <v>67066.66666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>65143.33333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1017,27 @@
         <v>55.435</v>
       </c>
       <c r="G15" t="n">
+        <v>67230</v>
+      </c>
+      <c r="H15" t="n">
         <v>65236.66666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1061,27 @@
         <v>19.4897</v>
       </c>
       <c r="G16" t="n">
+        <v>67403.33333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>65330.83333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1105,27 @@
         <v>6.5952</v>
       </c>
       <c r="G17" t="n">
+        <v>67520</v>
+      </c>
+      <c r="H17" t="n">
         <v>65415.83333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1149,27 @@
         <v>5.56113842</v>
       </c>
       <c r="G18" t="n">
+        <v>67673.33333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>65506.66666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1193,27 @@
         <v>20.006</v>
       </c>
       <c r="G19" t="n">
+        <v>67763.33333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>65590</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1237,27 @@
         <v>7.7035</v>
       </c>
       <c r="G20" t="n">
+        <v>67903.33333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>65683.33333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1281,27 @@
         <v>22.9224</v>
       </c>
       <c r="G21" t="n">
+        <v>68043.33333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>65781.66666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1325,27 @@
         <v>89.1669</v>
       </c>
       <c r="G22" t="n">
+        <v>68200</v>
+      </c>
+      <c r="H22" t="n">
         <v>65879.16666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1369,27 @@
         <v>0.1</v>
       </c>
       <c r="G23" t="n">
+        <v>68353.33333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>65980</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1413,27 @@
         <v>56.699814</v>
       </c>
       <c r="G24" t="n">
+        <v>68540</v>
+      </c>
+      <c r="H24" t="n">
         <v>66080.83333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1457,27 @@
         <v>2.9935</v>
       </c>
       <c r="G25" t="n">
+        <v>68690</v>
+      </c>
+      <c r="H25" t="n">
         <v>66172.5</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1501,27 @@
         <v>9.233499999999999</v>
       </c>
       <c r="G26" t="n">
+        <v>68866.66666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>66263.33333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1545,27 @@
         <v>84.19268928</v>
       </c>
       <c r="G27" t="n">
+        <v>69013.33333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>66383.33333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1589,27 @@
         <v>70.9592</v>
       </c>
       <c r="G28" t="n">
+        <v>69136.66666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>66490.83333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1633,27 @@
         <v>49.1937</v>
       </c>
       <c r="G29" t="n">
+        <v>69240</v>
+      </c>
+      <c r="H29" t="n">
         <v>66595.83333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1677,27 @@
         <v>6.7167</v>
       </c>
       <c r="G30" t="n">
+        <v>69276.66666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>66691.66666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1721,27 @@
         <v>39.00815395</v>
       </c>
       <c r="G31" t="n">
+        <v>69270</v>
+      </c>
+      <c r="H31" t="n">
         <v>66789.16666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1765,27 @@
         <v>9.316000000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>69373.33333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>66905</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1809,27 @@
         <v>83.15519999999999</v>
       </c>
       <c r="G33" t="n">
+        <v>69333.33333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>66984.16666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1853,27 @@
         <v>78.36499999999999</v>
       </c>
       <c r="G34" t="n">
+        <v>69296.66666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>67041.66666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1897,27 @@
         <v>3.3714</v>
       </c>
       <c r="G35" t="n">
+        <v>69230</v>
+      </c>
+      <c r="H35" t="n">
         <v>67098.33333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1941,27 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
+        <v>69173.33333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>67162.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1985,27 @@
         <v>6.1</v>
       </c>
       <c r="G37" t="n">
+        <v>69120</v>
+      </c>
+      <c r="H37" t="n">
         <v>67225.83333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2029,27 @@
         <v>12.8307</v>
       </c>
       <c r="G38" t="n">
+        <v>69020</v>
+      </c>
+      <c r="H38" t="n">
         <v>67277.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2073,27 @@
         <v>6.9423</v>
       </c>
       <c r="G39" t="n">
+        <v>68896.66666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>67330.83333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2117,27 @@
         <v>29.6187</v>
       </c>
       <c r="G40" t="n">
+        <v>68836.66666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>67387.5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2161,27 @@
         <v>22.2812</v>
       </c>
       <c r="G41" t="n">
+        <v>68750</v>
+      </c>
+      <c r="H41" t="n">
         <v>67444.16666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2205,27 @@
         <v>98.92919999999999</v>
       </c>
       <c r="G42" t="n">
+        <v>68656.66666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>67497.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2249,27 @@
         <v>120.573</v>
       </c>
       <c r="G43" t="n">
+        <v>68563.33333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>67550</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2293,27 @@
         <v>9.196300000000001</v>
       </c>
       <c r="G44" t="n">
+        <v>68470</v>
+      </c>
+      <c r="H44" t="n">
         <v>67608.33333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2337,27 @@
         <v>8.18</v>
       </c>
       <c r="G45" t="n">
+        <v>68440</v>
+      </c>
+      <c r="H45" t="n">
         <v>67660</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2381,27 @@
         <v>4.446</v>
       </c>
       <c r="G46" t="n">
+        <v>68443.33333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>67710.83333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2425,27 @@
         <v>13.7868</v>
       </c>
       <c r="G47" t="n">
+        <v>68370</v>
+      </c>
+      <c r="H47" t="n">
         <v>67760.83333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2469,27 @@
         <v>27.1004</v>
       </c>
       <c r="G48" t="n">
+        <v>68403.33333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>67810.83333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2513,27 @@
         <v>99.8013</v>
       </c>
       <c r="G49" t="n">
+        <v>68470</v>
+      </c>
+      <c r="H49" t="n">
         <v>67860.83333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2557,27 @@
         <v>17.2747</v>
       </c>
       <c r="G50" t="n">
+        <v>68516.66666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>67911.66666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2601,27 @@
         <v>15.7948</v>
       </c>
       <c r="G51" t="n">
+        <v>68533.33333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>67963.33333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2645,27 @@
         <v>35.5961</v>
       </c>
       <c r="G52" t="n">
+        <v>68530</v>
+      </c>
+      <c r="H52" t="n">
         <v>68014.16666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2689,27 @@
         <v>12.79646368</v>
       </c>
       <c r="G53" t="n">
+        <v>68540</v>
+      </c>
+      <c r="H53" t="n">
         <v>68056.66666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2733,27 @@
         <v>15.2753</v>
       </c>
       <c r="G54" t="n">
+        <v>68500</v>
+      </c>
+      <c r="H54" t="n">
         <v>68089.16666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,24 +2777,27 @@
         <v>5.8438</v>
       </c>
       <c r="G55" t="n">
+        <v>68440</v>
+      </c>
+      <c r="H55" t="n">
         <v>68124.16666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>67550</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,24 +2821,27 @@
         <v>0.8</v>
       </c>
       <c r="G56" t="n">
+        <v>68380</v>
+      </c>
+      <c r="H56" t="n">
         <v>68159.16666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>67700</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,22 +2865,27 @@
         <v>0.1</v>
       </c>
       <c r="G57" t="n">
+        <v>68353.33333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>68195.83333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,22 +2909,27 @@
         <v>2.1257</v>
       </c>
       <c r="G58" t="n">
+        <v>68320</v>
+      </c>
+      <c r="H58" t="n">
         <v>68230.83333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,22 +2953,27 @@
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
+        <v>68280</v>
+      </c>
+      <c r="H59" t="n">
         <v>68264.16666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2502,22 +2997,27 @@
         <v>14.0155</v>
       </c>
       <c r="G60" t="n">
+        <v>68243.33333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>68297.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2541,22 +3041,27 @@
         <v>16.9798</v>
       </c>
       <c r="G61" t="n">
+        <v>68203.33333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>68330</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,22 +3085,27 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="G62" t="n">
+        <v>68176.66666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>68360</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,22 +3129,27 @@
         <v>0.03</v>
       </c>
       <c r="G63" t="n">
+        <v>68153.33333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>68390.83333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,22 +3173,27 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
+        <v>68140</v>
+      </c>
+      <c r="H64" t="n">
         <v>68417.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2697,22 +3217,27 @@
         <v>13.1618</v>
       </c>
       <c r="G65" t="n">
+        <v>68136.66666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>68446.66666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,22 +3261,27 @@
         <v>43.6584</v>
       </c>
       <c r="G66" t="n">
+        <v>68133.33333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>68470.83333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,22 +3305,27 @@
         <v>82.69199999999999</v>
       </c>
       <c r="G67" t="n">
+        <v>68126.66666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>68494.16666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2814,22 +3349,27 @@
         <v>2.8435</v>
       </c>
       <c r="G68" t="n">
+        <v>68126.66666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>68510</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2853,22 +3393,27 @@
         <v>0.60364883</v>
       </c>
       <c r="G69" t="n">
+        <v>68210</v>
+      </c>
+      <c r="H69" t="n">
         <v>68536.66666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,22 +3437,27 @@
         <v>14.3161</v>
       </c>
       <c r="G70" t="n">
+        <v>68283.33333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>68562.5</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2931,22 +3481,27 @@
         <v>2.6786</v>
       </c>
       <c r="G71" t="n">
+        <v>68313.33333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>68577.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2970,22 +3525,27 @@
         <v>100.6006</v>
       </c>
       <c r="G72" t="n">
+        <v>68306.66666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>68582.5</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3009,22 +3569,27 @@
         <v>30.671</v>
       </c>
       <c r="G73" t="n">
+        <v>68306.66666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>68581.66666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,22 +3613,27 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>68313.33333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>68575.83333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3087,22 +3657,27 @@
         <v>20.3789</v>
       </c>
       <c r="G75" t="n">
+        <v>68320</v>
+      </c>
+      <c r="H75" t="n">
         <v>68570</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,22 +3701,27 @@
         <v>0.03</v>
       </c>
       <c r="G76" t="n">
+        <v>68290</v>
+      </c>
+      <c r="H76" t="n">
         <v>68551.66666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3165,22 +3745,27 @@
         <v>3.1388</v>
       </c>
       <c r="G77" t="n">
+        <v>68230</v>
+      </c>
+      <c r="H77" t="n">
         <v>68537.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,22 +3789,27 @@
         <v>12.7198</v>
       </c>
       <c r="G78" t="n">
+        <v>68166.66666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>68514.16666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3243,22 +3833,27 @@
         <v>0.0414</v>
       </c>
       <c r="G79" t="n">
+        <v>68113.33333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>68505</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,22 +3877,27 @@
         <v>0.08168449</v>
       </c>
       <c r="G80" t="n">
+        <v>68080</v>
+      </c>
+      <c r="H80" t="n">
         <v>68490.83333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3321,22 +3921,27 @@
         <v>1.9</v>
       </c>
       <c r="G81" t="n">
+        <v>68000</v>
+      </c>
+      <c r="H81" t="n">
         <v>68460</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,22 +3965,27 @@
         <v>0.4465</v>
       </c>
       <c r="G82" t="n">
+        <v>67923.33333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>68425</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,22 +4009,27 @@
         <v>4.5518</v>
       </c>
       <c r="G83" t="n">
+        <v>67866.66666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>68388.33333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,22 +4053,27 @@
         <v>18.3234</v>
       </c>
       <c r="G84" t="n">
+        <v>67766.66666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>68343.33333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,22 +4097,27 @@
         <v>0.22</v>
       </c>
       <c r="G85" t="n">
+        <v>67686.66666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>68311.66666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,22 +4141,27 @@
         <v>3.5702</v>
       </c>
       <c r="G86" t="n">
+        <v>67616.66666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>68265</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,22 +4185,27 @@
         <v>0.63</v>
       </c>
       <c r="G87" t="n">
+        <v>67563.33333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>68220</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,22 +4229,27 @@
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
+        <v>67490</v>
+      </c>
+      <c r="H88" t="n">
         <v>68170</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,22 +4273,27 @@
         <v>0.79</v>
       </c>
       <c r="G89" t="n">
+        <v>67420</v>
+      </c>
+      <c r="H89" t="n">
         <v>68120.83333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,22 +4317,27 @@
         <v>1.4893</v>
       </c>
       <c r="G90" t="n">
+        <v>67350</v>
+      </c>
+      <c r="H90" t="n">
         <v>68088.33333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,22 +4361,27 @@
         <v>1.111</v>
       </c>
       <c r="G91" t="n">
+        <v>67296.66666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>68058.33333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,22 +4405,27 @@
         <v>1.7716</v>
       </c>
       <c r="G92" t="n">
+        <v>67260</v>
+      </c>
+      <c r="H92" t="n">
         <v>68009.16666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,22 +4449,27 @@
         <v>6.8981</v>
       </c>
       <c r="G93" t="n">
+        <v>67223.33333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>67986.66666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,22 +4493,27 @@
         <v>1.24</v>
       </c>
       <c r="G94" t="n">
+        <v>67150</v>
+      </c>
+      <c r="H94" t="n">
         <v>67968.33333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3867,22 +4537,27 @@
         <v>2.9964</v>
       </c>
       <c r="G95" t="n">
+        <v>67030</v>
+      </c>
+      <c r="H95" t="n">
         <v>67940.83333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,22 +4581,27 @@
         <v>33.4695</v>
       </c>
       <c r="G96" t="n">
+        <v>66976.66666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>67910.83333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3945,22 +4625,27 @@
         <v>5.9</v>
       </c>
       <c r="G97" t="n">
+        <v>66916.66666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>67874.16666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,22 +4669,27 @@
         <v>2.7</v>
       </c>
       <c r="G98" t="n">
+        <v>66860</v>
+      </c>
+      <c r="H98" t="n">
         <v>67848.33333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4023,22 +4713,27 @@
         <v>1.55</v>
       </c>
       <c r="G99" t="n">
+        <v>66786.66666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>67815.83333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,22 +4757,27 @@
         <v>14.3161</v>
       </c>
       <c r="G100" t="n">
+        <v>66693.33333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>67775.83333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4101,22 +4801,27 @@
         <v>14.1049</v>
       </c>
       <c r="G101" t="n">
+        <v>66640</v>
+      </c>
+      <c r="H101" t="n">
         <v>67737.5</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,22 +4845,27 @@
         <v>1.0651</v>
       </c>
       <c r="G102" t="n">
+        <v>66600</v>
+      </c>
+      <c r="H102" t="n">
         <v>67705.83333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4179,22 +4889,27 @@
         <v>10.7779</v>
       </c>
       <c r="G103" t="n">
+        <v>66583.33333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>67675</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,22 +4933,27 @@
         <v>0.1098</v>
       </c>
       <c r="G104" t="n">
+        <v>66546.66666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>67640</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4257,22 +4977,27 @@
         <v>5.5486</v>
       </c>
       <c r="G105" t="n">
+        <v>66586.66666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>67625</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,22 +5021,27 @@
         <v>6.8853</v>
       </c>
       <c r="G106" t="n">
+        <v>66636.66666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>67606.66666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4335,22 +5065,27 @@
         <v>68.59220000000001</v>
       </c>
       <c r="G107" t="n">
+        <v>66683.33333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>67587.5</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,22 +5109,27 @@
         <v>41.657</v>
       </c>
       <c r="G108" t="n">
+        <v>66756.66666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>67575</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,22 +5153,27 @@
         <v>0.0179</v>
       </c>
       <c r="G109" t="n">
+        <v>66793.33333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>67549.16666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,22 +5197,27 @@
         <v>8.8024</v>
       </c>
       <c r="G110" t="n">
+        <v>66856.66666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>67525.83333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,22 +5241,27 @@
         <v>6.9161</v>
       </c>
       <c r="G111" t="n">
+        <v>66910</v>
+      </c>
+      <c r="H111" t="n">
         <v>67505</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,22 +5285,27 @@
         <v>26.3898</v>
       </c>
       <c r="G112" t="n">
+        <v>66953.33333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>67480</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4569,22 +5329,27 @@
         <v>1.42046062</v>
       </c>
       <c r="G113" t="n">
+        <v>67010</v>
+      </c>
+      <c r="H113" t="n">
         <v>67465.83333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4608,22 +5373,27 @@
         <v>1.4205</v>
       </c>
       <c r="G114" t="n">
+        <v>67073.33333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>67459.16666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,22 +5417,27 @@
         <v>0.2587</v>
       </c>
       <c r="G115" t="n">
+        <v>67156.66666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>67455</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,22 +5461,27 @@
         <v>7.6809</v>
       </c>
       <c r="G116" t="n">
+        <v>67243.33333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>67453.33333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,22 +5505,27 @@
         <v>6.4364</v>
       </c>
       <c r="G117" t="n">
+        <v>67296.66666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>67441.66666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4764,22 +5549,27 @@
         <v>1.6143</v>
       </c>
       <c r="G118" t="n">
+        <v>67350</v>
+      </c>
+      <c r="H118" t="n">
         <v>67432.5</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4803,22 +5593,27 @@
         <v>0.4975</v>
       </c>
       <c r="G119" t="n">
+        <v>67420</v>
+      </c>
+      <c r="H119" t="n">
         <v>67425</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,22 +5637,27 @@
         <v>16.0032</v>
       </c>
       <c r="G120" t="n">
+        <v>67373.33333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>67407.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,22 +5681,27 @@
         <v>4.1075</v>
       </c>
       <c r="G121" t="n">
+        <v>67340</v>
+      </c>
+      <c r="H121" t="n">
         <v>67390.83333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,22 +5725,27 @@
         <v>35.8367</v>
       </c>
       <c r="G122" t="n">
+        <v>67306.66666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>67370</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,22 +5769,27 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
+        <v>67253.33333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>67350</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,22 +5813,27 @@
         <v>0.0396</v>
       </c>
       <c r="G124" t="n">
+        <v>67240</v>
+      </c>
+      <c r="H124" t="n">
         <v>67324.16666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,22 +5857,27 @@
         <v>0.5</v>
       </c>
       <c r="G125" t="n">
+        <v>67246.66666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>67303.33333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,22 +5901,27 @@
         <v>0.02958579</v>
       </c>
       <c r="G126" t="n">
+        <v>67263.33333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>67287.5</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5115,22 +5945,27 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
+        <v>67280</v>
+      </c>
+      <c r="H127" t="n">
         <v>67268.33333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,22 +5989,27 @@
         <v>4.11</v>
       </c>
       <c r="G128" t="n">
+        <v>67253.33333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>67247.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,22 +6033,27 @@
         <v>3.9756</v>
       </c>
       <c r="G129" t="n">
+        <v>67246.66666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>67218.33333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5232,22 +6077,27 @@
         <v>0.7475000000000001</v>
       </c>
       <c r="G130" t="n">
+        <v>67216.66666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>67188.33333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5271,22 +6121,27 @@
         <v>5.6376</v>
       </c>
       <c r="G131" t="n">
+        <v>67183.33333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>67170.83333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,22 +6165,27 @@
         <v>4.7974</v>
       </c>
       <c r="G132" t="n">
+        <v>67156.66666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>67154.16666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,22 +6209,27 @@
         <v>1.5072</v>
       </c>
       <c r="G133" t="n">
+        <v>67126.66666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>67137.5</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,22 +6253,27 @@
         <v>1.0781</v>
       </c>
       <c r="G134" t="n">
+        <v>67096.66666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>67120.83333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,19 +6300,24 @@
         <v>67103.33333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>67103.33333333333</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,22 +6341,27 @@
         <v>1.5571</v>
       </c>
       <c r="G136" t="n">
+        <v>67110</v>
+      </c>
+      <c r="H136" t="n">
         <v>67095.83333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,22 +6385,27 @@
         <v>4.6291</v>
       </c>
       <c r="G137" t="n">
+        <v>67120</v>
+      </c>
+      <c r="H137" t="n">
         <v>67092.5</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,22 +6429,27 @@
         <v>2.3983</v>
       </c>
       <c r="G138" t="n">
+        <v>67140</v>
+      </c>
+      <c r="H138" t="n">
         <v>67093.33333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5583,22 +6473,27 @@
         <v>20.8165</v>
       </c>
       <c r="G139" t="n">
+        <v>67186.66666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>67092.5</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,22 +6517,27 @@
         <v>1.9999</v>
       </c>
       <c r="G140" t="n">
+        <v>67196.66666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>67082.5</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5661,22 +6561,27 @@
         <v>5.025</v>
       </c>
       <c r="G141" t="n">
+        <v>67183.33333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>67083.33333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,22 +6605,27 @@
         <v>0.4632</v>
       </c>
       <c r="G142" t="n">
+        <v>67196.66666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>67086.66666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5739,22 +6649,27 @@
         <v>20.0358</v>
       </c>
       <c r="G143" t="n">
+        <v>67243.33333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>67091.66666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5778,22 +6693,27 @@
         <v>10.3622</v>
       </c>
       <c r="G144" t="n">
+        <v>67280</v>
+      </c>
+      <c r="H144" t="n">
         <v>67096.66666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5817,22 +6737,27 @@
         <v>7.6193</v>
       </c>
       <c r="G145" t="n">
+        <v>67320</v>
+      </c>
+      <c r="H145" t="n">
         <v>67096.66666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,22 +6781,27 @@
         <v>0.0171</v>
       </c>
       <c r="G146" t="n">
+        <v>67350</v>
+      </c>
+      <c r="H146" t="n">
         <v>67104.16666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5895,22 +6825,27 @@
         <v>0.8082</v>
       </c>
       <c r="G147" t="n">
+        <v>67366.66666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>67105</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,22 +6869,27 @@
         <v>1.639</v>
       </c>
       <c r="G148" t="n">
+        <v>67383.33333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>67110.83333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5973,22 +6913,27 @@
         <v>1.0002</v>
       </c>
       <c r="G149" t="n">
+        <v>67400</v>
+      </c>
+      <c r="H149" t="n">
         <v>67115.83333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,22 +6957,27 @@
         <v>0.0149</v>
       </c>
       <c r="G150" t="n">
+        <v>67413.33333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>67119.16666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,22 +7001,27 @@
         <v>4.11</v>
       </c>
       <c r="G151" t="n">
+        <v>67410</v>
+      </c>
+      <c r="H151" t="n">
         <v>67124.16666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,22 +7045,27 @@
         <v>68.59220000000001</v>
       </c>
       <c r="G152" t="n">
+        <v>67353.33333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>67115.83333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,22 +7089,29 @@
         <v>0.021</v>
       </c>
       <c r="G153" t="n">
+        <v>67313.33333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>67115.83333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>66250</v>
+      </c>
+      <c r="L153" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,22 +7135,27 @@
         <v>0.0226</v>
       </c>
       <c r="G154" t="n">
+        <v>67236.66666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>67114.16666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,22 +7179,29 @@
         <v>6.2362</v>
       </c>
       <c r="G155" t="n">
+        <v>67153.33333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>67113.33333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>66400</v>
+      </c>
+      <c r="L155" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,22 +7225,29 @@
         <v>45.9187</v>
       </c>
       <c r="G156" t="n">
+        <v>67080</v>
+      </c>
+      <c r="H156" t="n">
         <v>67109.16666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>66200</v>
+      </c>
+      <c r="L156" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6285,22 +7271,29 @@
         <v>9.3916</v>
       </c>
       <c r="G157" t="n">
+        <v>66996.66666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>67106.66666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>66300</v>
+      </c>
+      <c r="L157" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,22 +7317,29 @@
         <v>37.3841</v>
       </c>
       <c r="G158" t="n">
+        <v>66890</v>
+      </c>
+      <c r="H158" t="n">
         <v>67099.16666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>66300</v>
+      </c>
+      <c r="L158" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,22 +7363,29 @@
         <v>11.60128398</v>
       </c>
       <c r="G159" t="n">
+        <v>66796.66666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>67099.16666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>66000</v>
+      </c>
+      <c r="L159" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6402,22 +7409,29 @@
         <v>15.1592</v>
       </c>
       <c r="G160" t="n">
+        <v>66690</v>
+      </c>
+      <c r="H160" t="n">
         <v>67095.83333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>66200</v>
+      </c>
+      <c r="L160" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6441,22 +7455,29 @@
         <v>0.0076</v>
       </c>
       <c r="G161" t="n">
+        <v>66623.33333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>67100</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>66000</v>
+      </c>
+      <c r="L161" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,22 +7501,29 @@
         <v>0.1</v>
       </c>
       <c r="G162" t="n">
+        <v>66600</v>
+      </c>
+      <c r="H162" t="n">
         <v>67105</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>66550</v>
+      </c>
+      <c r="L162" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,22 +7547,29 @@
         <v>0.8504</v>
       </c>
       <c r="G163" t="n">
+        <v>66590</v>
+      </c>
+      <c r="H163" t="n">
         <v>67112.5</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>67000</v>
+      </c>
+      <c r="L163" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,22 +7593,27 @@
         <v>3.442</v>
       </c>
       <c r="G164" t="n">
+        <v>66560</v>
+      </c>
+      <c r="H164" t="n">
         <v>67119.16666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6597,22 +7637,27 @@
         <v>7.2</v>
       </c>
       <c r="G165" t="n">
+        <v>66553.33333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>67110.83333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6636,22 +7681,27 @@
         <v>3.8316</v>
       </c>
       <c r="G166" t="n">
+        <v>66566.66666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>67106.66666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6675,22 +7725,27 @@
         <v>0.0179</v>
       </c>
       <c r="G167" t="n">
+        <v>66633.33333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>67103.33333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,22 +7769,27 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
+        <v>66686.66666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>67098.33333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,22 +7813,27 @@
         <v>16.4853</v>
       </c>
       <c r="G169" t="n">
+        <v>66770</v>
+      </c>
+      <c r="H169" t="n">
         <v>67108.33333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6792,22 +7857,27 @@
         <v>1.4</v>
       </c>
       <c r="G170" t="n">
+        <v>66890</v>
+      </c>
+      <c r="H170" t="n">
         <v>67121.66666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6831,22 +7901,27 @@
         <v>0.0185</v>
       </c>
       <c r="G171" t="n">
+        <v>66996.66666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>67130.83333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,22 +7945,27 @@
         <v>14.4</v>
       </c>
       <c r="G172" t="n">
+        <v>67133.33333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>67151.66666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6909,22 +7989,27 @@
         <v>21</v>
       </c>
       <c r="G173" t="n">
+        <v>67300</v>
+      </c>
+      <c r="H173" t="n">
         <v>67171.66666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6948,22 +8033,27 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G174" t="n">
+        <v>67446.66666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>67192.5</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6987,22 +8077,27 @@
         <v>7.0825</v>
       </c>
       <c r="G175" t="n">
+        <v>67623.33333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>67212.5</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7026,22 +8121,27 @@
         <v>4.5882</v>
       </c>
       <c r="G176" t="n">
+        <v>67760</v>
+      </c>
+      <c r="H176" t="n">
         <v>67229.16666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7065,22 +8165,27 @@
         <v>0.0183</v>
       </c>
       <c r="G177" t="n">
+        <v>67856.66666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>67245</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7104,22 +8209,27 @@
         <v>134.7647</v>
       </c>
       <c r="G178" t="n">
+        <v>68000</v>
+      </c>
+      <c r="H178" t="n">
         <v>67275</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7143,22 +8253,27 @@
         <v>0.6996</v>
       </c>
       <c r="G179" t="n">
+        <v>68143.33333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>67300</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7182,22 +8297,27 @@
         <v>10.5362</v>
       </c>
       <c r="G180" t="n">
+        <v>68296.66666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>67341.66666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,22 +8341,27 @@
         <v>10.4508</v>
       </c>
       <c r="G181" t="n">
+        <v>68446.66666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>67383.33333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,22 +8385,27 @@
         <v>1.0323</v>
       </c>
       <c r="G182" t="n">
+        <v>68596.66666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>67425.83333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7299,22 +8429,27 @@
         <v>1.4684</v>
       </c>
       <c r="G183" t="n">
+        <v>68740</v>
+      </c>
+      <c r="H183" t="n">
         <v>67470</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7338,22 +8473,27 @@
         <v>32.65141358</v>
       </c>
       <c r="G184" t="n">
+        <v>68893.33333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>67521.66666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,22 +8517,27 @@
         <v>4.3398</v>
       </c>
       <c r="G185" t="n">
+        <v>69023.33333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>67565.83333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7416,22 +8561,27 @@
         <v>19.4572</v>
       </c>
       <c r="G186" t="n">
+        <v>69163.33333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>67605.83333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7455,22 +8605,27 @@
         <v>63.51388314</v>
       </c>
       <c r="G187" t="n">
+        <v>69273.33333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>67650</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,22 +8649,27 @@
         <v>43.1198</v>
       </c>
       <c r="G188" t="n">
+        <v>69406.66666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>67710</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,22 +8693,27 @@
         <v>39.25744206</v>
       </c>
       <c r="G189" t="n">
+        <v>69580</v>
+      </c>
+      <c r="H189" t="n">
         <v>67775.83333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7572,22 +8737,27 @@
         <v>64.1341</v>
       </c>
       <c r="G190" t="n">
+        <v>69743.33333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>67844.16666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7611,22 +8781,27 @@
         <v>14.0135</v>
       </c>
       <c r="G191" t="n">
+        <v>69910</v>
+      </c>
+      <c r="H191" t="n">
         <v>67910.83333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7650,22 +8825,27 @@
         <v>53.16</v>
       </c>
       <c r="G192" t="n">
+        <v>70120</v>
+      </c>
+      <c r="H192" t="n">
         <v>67985.83333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7689,23 +8869,28 @@
         <v>0.02</v>
       </c>
       <c r="G193" t="n">
+        <v>70263.33333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>68059.16666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
+      <c r="L193" t="n">
+        <v>66400</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1.071807228915663</v>
       </c>
     </row>
     <row r="194">
@@ -7728,22 +8913,21 @@
         <v>5.9965</v>
       </c>
       <c r="G194" t="n">
+        <v>70426.66666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>68132.5</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7767,22 +8951,21 @@
         <v>31.1302</v>
       </c>
       <c r="G195" t="n">
+        <v>70543.33333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>68201.66666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7806,22 +8989,21 @@
         <v>16.8372</v>
       </c>
       <c r="G196" t="n">
+        <v>70650</v>
+      </c>
+      <c r="H196" t="n">
         <v>68268.33333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7845,22 +9027,21 @@
         <v>20.4407</v>
       </c>
       <c r="G197" t="n">
+        <v>70753.33333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>68334.16666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,22 +9065,21 @@
         <v>1.5583</v>
       </c>
       <c r="G198" t="n">
+        <v>70843.33333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>68395.83333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,22 +9103,401 @@
         <v>2.2686</v>
       </c>
       <c r="G199" t="n">
+        <v>70913.33333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>68453.33333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>70950</v>
+      </c>
+      <c r="F200" t="n">
+        <v>41.1806</v>
+      </c>
+      <c r="G200" t="n">
+        <v>70983.33333333333</v>
+      </c>
+      <c r="H200" t="n">
+        <v>68512.5</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>70900</v>
+      </c>
+      <c r="C201" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F201" t="n">
+        <v>24.5942</v>
+      </c>
+      <c r="G201" t="n">
+        <v>71050</v>
+      </c>
+      <c r="H201" t="n">
+        <v>68572.5</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>71050</v>
+      </c>
+      <c r="D202" t="n">
+        <v>71050</v>
+      </c>
+      <c r="E202" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>25.4904</v>
+      </c>
+      <c r="G202" t="n">
+        <v>71120</v>
+      </c>
+      <c r="H202" t="n">
+        <v>68630.83333333333</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>71050</v>
+      </c>
+      <c r="C203" t="n">
+        <v>71050</v>
+      </c>
+      <c r="D203" t="n">
+        <v>71050</v>
+      </c>
+      <c r="E203" t="n">
+        <v>71050</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G203" t="n">
+        <v>71156.66666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>68688.33333333333</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C204" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D204" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E204" t="n">
+        <v>70750</v>
+      </c>
+      <c r="F204" t="n">
+        <v>16.1778</v>
+      </c>
+      <c r="G204" t="n">
+        <v>71140</v>
+      </c>
+      <c r="H204" t="n">
+        <v>68740.83333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C205" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D205" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E205" t="n">
+        <v>70300</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.0287</v>
+      </c>
+      <c r="G205" t="n">
+        <v>71086.66666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>68785.83333333333</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C206" t="n">
+        <v>70100</v>
+      </c>
+      <c r="D206" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E206" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F206" t="n">
+        <v>13.4727</v>
+      </c>
+      <c r="G206" t="n">
+        <v>71020</v>
+      </c>
+      <c r="H206" t="n">
+        <v>68828.33333333333</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>70250</v>
+      </c>
+      <c r="C207" t="n">
+        <v>71050</v>
+      </c>
+      <c r="D207" t="n">
+        <v>71050</v>
+      </c>
+      <c r="E207" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15.1859</v>
+      </c>
+      <c r="G207" t="n">
+        <v>70983.33333333333</v>
+      </c>
+      <c r="H207" t="n">
+        <v>68890</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C208" t="n">
+        <v>71750</v>
+      </c>
+      <c r="D208" t="n">
+        <v>71750</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.6767</v>
+      </c>
+      <c r="G208" t="n">
+        <v>71000</v>
+      </c>
+      <c r="H208" t="n">
+        <v>68963.33333333333</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C209" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D209" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E209" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6.7813</v>
+      </c>
+      <c r="G209" t="n">
+        <v>71033.33333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>69040.83333333333</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>63350</v>
+        <v>68500</v>
       </c>
       <c r="C2" t="n">
-        <v>63350</v>
+        <v>68500</v>
       </c>
       <c r="D2" t="n">
-        <v>63350</v>
+        <v>68550</v>
       </c>
       <c r="E2" t="n">
-        <v>63350</v>
+        <v>68500</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7254</v>
+        <v>55.435</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.847799999999964</v>
+        <v>372.07586311</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>64150</v>
+        <v>68500</v>
       </c>
       <c r="C3" t="n">
-        <v>64150</v>
+        <v>68650</v>
       </c>
       <c r="D3" t="n">
-        <v>64150</v>
+        <v>68650</v>
       </c>
       <c r="E3" t="n">
-        <v>64150</v>
+        <v>68100</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>19.4897</v>
       </c>
       <c r="G3" t="n">
-        <v>8.152200000000036</v>
+        <v>391.56556311</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>64450</v>
+        <v>68150</v>
       </c>
       <c r="C4" t="n">
-        <v>64500</v>
+        <v>68150</v>
       </c>
       <c r="D4" t="n">
-        <v>64500</v>
+        <v>68150</v>
       </c>
       <c r="E4" t="n">
-        <v>64450</v>
+        <v>68150</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>6.5952</v>
       </c>
       <c r="G4" t="n">
-        <v>22.15220000000004</v>
+        <v>384.97036311</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64500</v>
+        <v>68600</v>
       </c>
       <c r="C5" t="n">
-        <v>64500</v>
+        <v>68700</v>
       </c>
       <c r="D5" t="n">
-        <v>64500</v>
+        <v>68700</v>
       </c>
       <c r="E5" t="n">
-        <v>64500</v>
+        <v>68600</v>
       </c>
       <c r="F5" t="n">
-        <v>65.3613</v>
+        <v>5.56113842</v>
       </c>
       <c r="G5" t="n">
-        <v>22.15220000000004</v>
+        <v>390.53150153</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64650</v>
+        <v>68150</v>
       </c>
       <c r="C6" t="n">
-        <v>64850</v>
+        <v>68150</v>
       </c>
       <c r="D6" t="n">
-        <v>64900</v>
+        <v>68800</v>
       </c>
       <c r="E6" t="n">
-        <v>64650</v>
+        <v>68100</v>
       </c>
       <c r="F6" t="n">
-        <v>27.9647</v>
+        <v>20.006</v>
       </c>
       <c r="G6" t="n">
-        <v>50.11690000000004</v>
+        <v>370.52550153</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64600</v>
+        <v>68850</v>
       </c>
       <c r="C7" t="n">
-        <v>64900</v>
+        <v>68900</v>
       </c>
       <c r="D7" t="n">
-        <v>64900</v>
+        <v>68900</v>
       </c>
       <c r="E7" t="n">
-        <v>64600</v>
+        <v>68850</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>7.7035</v>
       </c>
       <c r="G7" t="n">
-        <v>52.31690000000004</v>
+        <v>378.2290015300001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64900</v>
+        <v>68950</v>
       </c>
       <c r="C8" t="n">
-        <v>64950</v>
+        <v>69200</v>
       </c>
       <c r="D8" t="n">
-        <v>64950</v>
+        <v>69200</v>
       </c>
       <c r="E8" t="n">
-        <v>64900</v>
+        <v>68950</v>
       </c>
       <c r="F8" t="n">
-        <v>4.3197</v>
+        <v>22.9224</v>
       </c>
       <c r="G8" t="n">
-        <v>56.63660000000004</v>
+        <v>401.15140153</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64950</v>
+        <v>69300</v>
       </c>
       <c r="C9" t="n">
-        <v>65200</v>
+        <v>69450</v>
       </c>
       <c r="D9" t="n">
-        <v>65200</v>
+        <v>69450</v>
       </c>
       <c r="E9" t="n">
-        <v>64950</v>
+        <v>69300</v>
       </c>
       <c r="F9" t="n">
-        <v>9.591200000000001</v>
+        <v>89.1669</v>
       </c>
       <c r="G9" t="n">
-        <v>66.22780000000003</v>
+        <v>490.31830153</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>65200</v>
+        <v>69500</v>
       </c>
       <c r="C10" t="n">
-        <v>65200</v>
+        <v>69500</v>
       </c>
       <c r="D10" t="n">
-        <v>65200</v>
+        <v>69500</v>
       </c>
       <c r="E10" t="n">
-        <v>65200</v>
+        <v>69500</v>
       </c>
       <c r="F10" t="n">
-        <v>2.51</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>66.22780000000003</v>
+        <v>490.4183015300001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>65400</v>
+        <v>69500</v>
       </c>
       <c r="C11" t="n">
-        <v>65400</v>
+        <v>70000</v>
       </c>
       <c r="D11" t="n">
-        <v>65400</v>
+        <v>70000</v>
       </c>
       <c r="E11" t="n">
-        <v>65400</v>
+        <v>69500</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>56.699814</v>
       </c>
       <c r="G11" t="n">
-        <v>67.22780000000003</v>
+        <v>547.1181155300001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>65450</v>
+        <v>69900</v>
       </c>
       <c r="C12" t="n">
-        <v>65450</v>
+        <v>69500</v>
       </c>
       <c r="D12" t="n">
-        <v>65450</v>
+        <v>69900</v>
       </c>
       <c r="E12" t="n">
-        <v>65450</v>
+        <v>69500</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01</v>
+        <v>2.9935</v>
       </c>
       <c r="G12" t="n">
-        <v>67.23780000000004</v>
+        <v>544.12461553</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="C13" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="D13" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="E13" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9601</v>
+        <v>9.233499999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>64.27770000000004</v>
+        <v>553.3581155300001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="C14" t="n">
-        <v>65500</v>
+        <v>70000</v>
       </c>
       <c r="D14" t="n">
-        <v>65500</v>
+        <v>70000</v>
       </c>
       <c r="E14" t="n">
-        <v>65100</v>
+        <v>69900</v>
       </c>
       <c r="F14" t="n">
-        <v>13.5628</v>
+        <v>84.19268928</v>
       </c>
       <c r="G14" t="n">
-        <v>77.84050000000003</v>
+        <v>637.55080481</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="C15" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="D15" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="E15" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="F15" t="n">
-        <v>3.5988</v>
+        <v>70.9592</v>
       </c>
       <c r="G15" t="n">
-        <v>81.43930000000003</v>
+        <v>637.55080481</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="C16" t="n">
-        <v>65600</v>
+        <v>70000</v>
       </c>
       <c r="D16" t="n">
-        <v>65600</v>
+        <v>70000</v>
       </c>
       <c r="E16" t="n">
-        <v>65550</v>
+        <v>70000</v>
       </c>
       <c r="F16" t="n">
-        <v>6.1122</v>
+        <v>49.1937</v>
       </c>
       <c r="G16" t="n">
-        <v>87.55150000000003</v>
+        <v>637.55080481</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>65600</v>
+        <v>69500</v>
       </c>
       <c r="C17" t="n">
-        <v>65600</v>
+        <v>69050</v>
       </c>
       <c r="D17" t="n">
-        <v>65600</v>
+        <v>69500</v>
       </c>
       <c r="E17" t="n">
-        <v>65600</v>
+        <v>69050</v>
       </c>
       <c r="F17" t="n">
-        <v>9.5</v>
+        <v>6.7167</v>
       </c>
       <c r="G17" t="n">
-        <v>87.55150000000003</v>
+        <v>630.8341048100001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>65600</v>
+        <v>69050</v>
       </c>
       <c r="C18" t="n">
-        <v>65600</v>
+        <v>68550</v>
       </c>
       <c r="D18" t="n">
-        <v>65600</v>
+        <v>69650</v>
       </c>
       <c r="E18" t="n">
-        <v>65600</v>
+        <v>68550</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8156</v>
+        <v>39.00815395</v>
       </c>
       <c r="G18" t="n">
-        <v>87.55150000000003</v>
+        <v>591.8259508600001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>65550</v>
+        <v>69700</v>
       </c>
       <c r="C19" t="n">
-        <v>65550</v>
+        <v>69700</v>
       </c>
       <c r="D19" t="n">
-        <v>65550</v>
+        <v>69700</v>
       </c>
       <c r="E19" t="n">
-        <v>65550</v>
+        <v>69700</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>77.55150000000003</v>
+        <v>601.1419508600002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>65500</v>
+        <v>68400</v>
       </c>
       <c r="C20" t="n">
-        <v>65500</v>
+        <v>68100</v>
       </c>
       <c r="D20" t="n">
-        <v>65500</v>
+        <v>68400</v>
       </c>
       <c r="E20" t="n">
-        <v>65500</v>
+        <v>68100</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>83.15519999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>67.55150000000003</v>
+        <v>517.9867508600001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>65550</v>
+        <v>68150</v>
       </c>
       <c r="C21" t="n">
-        <v>65550</v>
+        <v>67600</v>
       </c>
       <c r="D21" t="n">
-        <v>65550</v>
+        <v>68150</v>
       </c>
       <c r="E21" t="n">
-        <v>65550</v>
+        <v>67600</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>78.36499999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>79.55150000000003</v>
+        <v>439.6217508600001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>65600</v>
+        <v>67650</v>
       </c>
       <c r="C22" t="n">
-        <v>65600</v>
+        <v>67900</v>
       </c>
       <c r="D22" t="n">
-        <v>65600</v>
+        <v>67900</v>
       </c>
       <c r="E22" t="n">
-        <v>65600</v>
+        <v>67650</v>
       </c>
       <c r="F22" t="n">
-        <v>4.8133</v>
+        <v>3.3714</v>
       </c>
       <c r="G22" t="n">
-        <v>84.36480000000003</v>
+        <v>442.9931508600001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="C23" t="n">
-        <v>65600</v>
+        <v>68350</v>
       </c>
       <c r="D23" t="n">
-        <v>65600</v>
+        <v>68350</v>
       </c>
       <c r="E23" t="n">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="F23" t="n">
-        <v>3.2252</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>84.36480000000003</v>
+        <v>453.9931508600001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>65600</v>
+        <v>68600</v>
       </c>
       <c r="C24" t="n">
-        <v>65600</v>
+        <v>68650</v>
       </c>
       <c r="D24" t="n">
-        <v>65600</v>
+        <v>68650</v>
       </c>
       <c r="E24" t="n">
-        <v>65600</v>
+        <v>68600</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7094</v>
+        <v>6.1</v>
       </c>
       <c r="G24" t="n">
-        <v>84.36480000000003</v>
+        <v>460.0931508600002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65600</v>
+        <v>67850</v>
       </c>
       <c r="C25" t="n">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="D25" t="n">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="E25" t="n">
-        <v>65600</v>
+        <v>67850</v>
       </c>
       <c r="F25" t="n">
-        <v>41.2814</v>
+        <v>12.8307</v>
       </c>
       <c r="G25" t="n">
-        <v>84.36480000000003</v>
+        <v>447.2624508600002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65600</v>
+        <v>68150</v>
       </c>
       <c r="C26" t="n">
-        <v>66000</v>
+        <v>68150</v>
       </c>
       <c r="D26" t="n">
-        <v>66000</v>
+        <v>68150</v>
       </c>
       <c r="E26" t="n">
-        <v>65600</v>
+        <v>68150</v>
       </c>
       <c r="F26" t="n">
-        <v>76.1135</v>
+        <v>6.9423</v>
       </c>
       <c r="G26" t="n">
-        <v>160.4783</v>
+        <v>454.2047508600002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="C27" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="D27" t="n">
-        <v>66000</v>
+        <v>68750</v>
       </c>
       <c r="E27" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="F27" t="n">
-        <v>3.1337</v>
+        <v>29.6187</v>
       </c>
       <c r="G27" t="n">
-        <v>160.4783</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="C28" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="D28" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="E28" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="F28" t="n">
-        <v>3.1337</v>
+        <v>22.2812</v>
       </c>
       <c r="G28" t="n">
-        <v>160.4783</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66000</v>
+        <v>68600</v>
       </c>
       <c r="C29" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="D29" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="E29" t="n">
-        <v>65650</v>
+        <v>68600</v>
       </c>
       <c r="F29" t="n">
-        <v>7.626</v>
+        <v>98.92919999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>168.1043000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="C30" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="D30" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="E30" t="n">
-        <v>66050</v>
+        <v>68600</v>
       </c>
       <c r="F30" t="n">
-        <v>2.9464</v>
+        <v>120.573</v>
       </c>
       <c r="G30" t="n">
-        <v>168.1043000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66200</v>
+        <v>68600</v>
       </c>
       <c r="C31" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="D31" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="E31" t="n">
-        <v>66200</v>
+        <v>68600</v>
       </c>
       <c r="F31" t="n">
-        <v>10.5344</v>
+        <v>9.196300000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>178.6387000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="C32" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="D32" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="E32" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="F32" t="n">
-        <v>7.7384</v>
+        <v>8.18</v>
       </c>
       <c r="G32" t="n">
-        <v>178.6387000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="C33" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="D33" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="E33" t="n">
-        <v>66400</v>
+        <v>68600</v>
       </c>
       <c r="F33" t="n">
-        <v>4.6204</v>
+        <v>4.446</v>
       </c>
       <c r="G33" t="n">
-        <v>183.2591</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="C34" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="D34" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="E34" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03</v>
+        <v>13.7868</v>
       </c>
       <c r="G34" t="n">
-        <v>183.2591</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66800</v>
+        <v>68600</v>
       </c>
       <c r="C35" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="D35" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="E35" t="n">
-        <v>66750</v>
+        <v>68600</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>27.1004</v>
       </c>
       <c r="G35" t="n">
-        <v>197.2591</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="C36" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="D36" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="E36" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>99.8013</v>
       </c>
       <c r="G36" t="n">
-        <v>197.2591</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="C37" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="D37" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="E37" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="F37" t="n">
-        <v>6.9</v>
+        <v>17.2747</v>
       </c>
       <c r="G37" t="n">
-        <v>204.1591000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>67200</v>
+        <v>68700</v>
       </c>
       <c r="C38" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="D38" t="n">
-        <v>67200</v>
+        <v>68700</v>
       </c>
       <c r="E38" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="F38" t="n">
-        <v>7.7344</v>
+        <v>15.7948</v>
       </c>
       <c r="G38" t="n">
-        <v>204.1591000000001</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="C39" t="n">
-        <v>67250</v>
+        <v>68600</v>
       </c>
       <c r="D39" t="n">
-        <v>67250</v>
+        <v>68600</v>
       </c>
       <c r="E39" t="n">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="F39" t="n">
-        <v>16.7993</v>
+        <v>35.5961</v>
       </c>
       <c r="G39" t="n">
-        <v>220.9584</v>
+        <v>483.8234508600002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67250</v>
+        <v>67800</v>
       </c>
       <c r="C40" t="n">
-        <v>67250</v>
+        <v>68150</v>
       </c>
       <c r="D40" t="n">
-        <v>67250</v>
+        <v>68150</v>
       </c>
       <c r="E40" t="n">
-        <v>67250</v>
+        <v>67800</v>
       </c>
       <c r="F40" t="n">
-        <v>92.0534</v>
+        <v>12.79646368</v>
       </c>
       <c r="G40" t="n">
-        <v>220.9584</v>
+        <v>471.0269871800002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67250</v>
+        <v>67600</v>
       </c>
       <c r="C41" t="n">
-        <v>67800</v>
+        <v>67550</v>
       </c>
       <c r="D41" t="n">
-        <v>67800</v>
+        <v>67600</v>
       </c>
       <c r="E41" t="n">
-        <v>67250</v>
+        <v>67550</v>
       </c>
       <c r="F41" t="n">
-        <v>49.1991</v>
+        <v>15.2753</v>
       </c>
       <c r="G41" t="n">
-        <v>270.1575</v>
+        <v>455.7516871800001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67950</v>
+        <v>67500</v>
       </c>
       <c r="C42" t="n">
-        <v>68150</v>
+        <v>67700</v>
       </c>
       <c r="D42" t="n">
-        <v>68150</v>
+        <v>67700</v>
       </c>
       <c r="E42" t="n">
-        <v>67950</v>
+        <v>67300</v>
       </c>
       <c r="F42" t="n">
-        <v>39.1959</v>
+        <v>5.8438</v>
       </c>
       <c r="G42" t="n">
-        <v>309.3534</v>
+        <v>461.5954871800001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68250</v>
+        <v>67700</v>
       </c>
       <c r="C43" t="n">
-        <v>68450</v>
+        <v>67700</v>
       </c>
       <c r="D43" t="n">
-        <v>68450</v>
+        <v>67700</v>
       </c>
       <c r="E43" t="n">
-        <v>68250</v>
+        <v>67700</v>
       </c>
       <c r="F43" t="n">
-        <v>7.28746311</v>
+        <v>0.8</v>
       </c>
       <c r="G43" t="n">
-        <v>316.64086311</v>
+        <v>461.5954871800001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>68500</v>
+        <v>68200</v>
       </c>
       <c r="C44" t="n">
-        <v>68500</v>
+        <v>68200</v>
       </c>
       <c r="D44" t="n">
-        <v>68550</v>
+        <v>68200</v>
       </c>
       <c r="E44" t="n">
-        <v>68500</v>
+        <v>68200</v>
       </c>
       <c r="F44" t="n">
-        <v>55.435</v>
+        <v>0.1</v>
       </c>
       <c r="G44" t="n">
-        <v>372.07586311</v>
+        <v>461.6954871800002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>68500</v>
+        <v>68100</v>
       </c>
       <c r="C45" t="n">
-        <v>68650</v>
+        <v>68100</v>
       </c>
       <c r="D45" t="n">
-        <v>68650</v>
+        <v>68100</v>
       </c>
       <c r="E45" t="n">
         <v>68100</v>
       </c>
       <c r="F45" t="n">
-        <v>19.4897</v>
+        <v>2.1257</v>
       </c>
       <c r="G45" t="n">
-        <v>391.56556311</v>
+        <v>459.5697871800002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="C46" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="D46" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="E46" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="F46" t="n">
-        <v>6.5952</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>384.97036311</v>
+        <v>459.4697871800001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="C47" t="n">
-        <v>68700</v>
+        <v>68050</v>
       </c>
       <c r="D47" t="n">
-        <v>68700</v>
+        <v>68050</v>
       </c>
       <c r="E47" t="n">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="F47" t="n">
-        <v>5.56113842</v>
+        <v>14.0155</v>
       </c>
       <c r="G47" t="n">
-        <v>390.53150153</v>
+        <v>473.4852871800001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>68150</v>
+        <v>68050</v>
       </c>
       <c r="C48" t="n">
-        <v>68150</v>
+        <v>68000</v>
       </c>
       <c r="D48" t="n">
-        <v>68800</v>
+        <v>68050</v>
       </c>
       <c r="E48" t="n">
-        <v>68100</v>
+        <v>68000</v>
       </c>
       <c r="F48" t="n">
-        <v>20.006</v>
+        <v>16.9798</v>
       </c>
       <c r="G48" t="n">
-        <v>370.52550153</v>
+        <v>456.5054871800001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>68850</v>
+        <v>68200</v>
       </c>
       <c r="C49" t="n">
-        <v>68900</v>
+        <v>68200</v>
       </c>
       <c r="D49" t="n">
-        <v>68900</v>
+        <v>68200</v>
       </c>
       <c r="E49" t="n">
-        <v>68850</v>
+        <v>68200</v>
       </c>
       <c r="F49" t="n">
-        <v>7.7035</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>378.2290015300001</v>
+        <v>456.5749871800001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>68950</v>
+        <v>68250</v>
       </c>
       <c r="C50" t="n">
-        <v>69200</v>
+        <v>68250</v>
       </c>
       <c r="D50" t="n">
-        <v>69200</v>
+        <v>68250</v>
       </c>
       <c r="E50" t="n">
-        <v>68950</v>
+        <v>68250</v>
       </c>
       <c r="F50" t="n">
-        <v>22.9224</v>
+        <v>0.03</v>
       </c>
       <c r="G50" t="n">
-        <v>401.15140153</v>
+        <v>456.6049871800001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="C51" t="n">
-        <v>69450</v>
+        <v>68400</v>
       </c>
       <c r="D51" t="n">
-        <v>69450</v>
+        <v>68400</v>
       </c>
       <c r="E51" t="n">
-        <v>69300</v>
+        <v>68400</v>
       </c>
       <c r="F51" t="n">
-        <v>89.1669</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>490.31830153</v>
+        <v>457.6049871800001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="C52" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="D52" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="E52" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>13.1618</v>
       </c>
       <c r="G52" t="n">
-        <v>490.4183015300001</v>
+        <v>470.7667871800001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="C53" t="n">
-        <v>70000</v>
+        <v>68550</v>
       </c>
       <c r="D53" t="n">
-        <v>70000</v>
+        <v>68550</v>
       </c>
       <c r="E53" t="n">
-        <v>69500</v>
+        <v>68550</v>
       </c>
       <c r="F53" t="n">
-        <v>56.699814</v>
+        <v>43.6584</v>
       </c>
       <c r="G53" t="n">
-        <v>547.1181155300001</v>
+        <v>470.7667871800001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69900</v>
+        <v>68600</v>
       </c>
       <c r="C54" t="n">
-        <v>69500</v>
+        <v>68500</v>
       </c>
       <c r="D54" t="n">
-        <v>69900</v>
+        <v>68600</v>
       </c>
       <c r="E54" t="n">
-        <v>69500</v>
+        <v>68500</v>
       </c>
       <c r="F54" t="n">
-        <v>2.9935</v>
+        <v>82.69199999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>544.12461553</v>
+        <v>388.07478718</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69900</v>
+        <v>68150</v>
       </c>
       <c r="C55" t="n">
-        <v>69900</v>
+        <v>68150</v>
       </c>
       <c r="D55" t="n">
-        <v>69900</v>
+        <v>68150</v>
       </c>
       <c r="E55" t="n">
-        <v>69900</v>
+        <v>68150</v>
       </c>
       <c r="F55" t="n">
-        <v>9.233499999999999</v>
+        <v>2.8435</v>
       </c>
       <c r="G55" t="n">
-        <v>553.3581155300001</v>
+        <v>385.23128718</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69900</v>
+        <v>68250</v>
       </c>
       <c r="C56" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="D56" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="E56" t="n">
-        <v>69900</v>
+        <v>68250</v>
       </c>
       <c r="F56" t="n">
-        <v>84.19268928</v>
+        <v>0.60364883</v>
       </c>
       <c r="G56" t="n">
-        <v>637.55080481</v>
+        <v>385.83493601</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="C57" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="D57" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="E57" t="n">
-        <v>70000</v>
+        <v>68800</v>
       </c>
       <c r="F57" t="n">
-        <v>70.9592</v>
+        <v>14.3161</v>
       </c>
       <c r="G57" t="n">
-        <v>637.55080481</v>
+        <v>385.83493601</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>70000</v>
+        <v>68150</v>
       </c>
       <c r="C58" t="n">
-        <v>70000</v>
+        <v>68150</v>
       </c>
       <c r="D58" t="n">
-        <v>70000</v>
+        <v>68150</v>
       </c>
       <c r="E58" t="n">
-        <v>70000</v>
+        <v>68150</v>
       </c>
       <c r="F58" t="n">
-        <v>49.1937</v>
+        <v>2.6786</v>
       </c>
       <c r="G58" t="n">
-        <v>637.55080481</v>
+        <v>383.15633601</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>69500</v>
+        <v>68200</v>
       </c>
       <c r="C59" t="n">
-        <v>69050</v>
+        <v>68100</v>
       </c>
       <c r="D59" t="n">
-        <v>69500</v>
+        <v>68200</v>
       </c>
       <c r="E59" t="n">
-        <v>69050</v>
+        <v>68100</v>
       </c>
       <c r="F59" t="n">
-        <v>6.7167</v>
+        <v>100.6006</v>
       </c>
       <c r="G59" t="n">
-        <v>630.8341048100001</v>
+        <v>282.55573601</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>69050</v>
+        <v>68100</v>
       </c>
       <c r="C60" t="n">
-        <v>68550</v>
+        <v>68100</v>
       </c>
       <c r="D60" t="n">
-        <v>69650</v>
+        <v>68100</v>
       </c>
       <c r="E60" t="n">
-        <v>68550</v>
+        <v>68100</v>
       </c>
       <c r="F60" t="n">
-        <v>39.00815395</v>
+        <v>30.671</v>
       </c>
       <c r="G60" t="n">
-        <v>591.8259508600001</v>
+        <v>282.55573601</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="C61" t="n">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="D61" t="n">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="E61" t="n">
-        <v>69700</v>
+        <v>68100</v>
       </c>
       <c r="F61" t="n">
-        <v>9.316000000000001</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>601.1419508600002</v>
+        <v>282.55573601</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68400</v>
+        <v>68100</v>
       </c>
       <c r="C62" t="n">
-        <v>68100</v>
+        <v>68150</v>
       </c>
       <c r="D62" t="n">
-        <v>68400</v>
+        <v>68150</v>
       </c>
       <c r="E62" t="n">
-        <v>68100</v>
+        <v>67450</v>
       </c>
       <c r="F62" t="n">
-        <v>83.15519999999999</v>
+        <v>20.3789</v>
       </c>
       <c r="G62" t="n">
-        <v>517.9867508600001</v>
+        <v>302.93463601</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68150</v>
+        <v>67550</v>
       </c>
       <c r="C63" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="D63" t="n">
-        <v>68150</v>
+        <v>67550</v>
       </c>
       <c r="E63" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="F63" t="n">
-        <v>78.36499999999999</v>
+        <v>0.03</v>
       </c>
       <c r="G63" t="n">
-        <v>439.6217508600001</v>
+        <v>302.90463601</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>67650</v>
+        <v>67500</v>
       </c>
       <c r="C64" t="n">
-        <v>67900</v>
+        <v>67300</v>
       </c>
       <c r="D64" t="n">
-        <v>67900</v>
+        <v>67500</v>
       </c>
       <c r="E64" t="n">
-        <v>67650</v>
+        <v>67300</v>
       </c>
       <c r="F64" t="n">
-        <v>3.3714</v>
+        <v>3.1388</v>
       </c>
       <c r="G64" t="n">
-        <v>442.9931508600001</v>
+        <v>299.76583601</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="C65" t="n">
-        <v>68350</v>
+        <v>67300</v>
       </c>
       <c r="D65" t="n">
-        <v>68350</v>
+        <v>67300</v>
       </c>
       <c r="E65" t="n">
-        <v>68000</v>
+        <v>67300</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>12.7198</v>
       </c>
       <c r="G65" t="n">
-        <v>453.9931508600001</v>
+        <v>299.76583601</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68600</v>
+        <v>67550</v>
       </c>
       <c r="C66" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="D66" t="n">
-        <v>68650</v>
+        <v>67600</v>
       </c>
       <c r="E66" t="n">
-        <v>68600</v>
+        <v>67550</v>
       </c>
       <c r="F66" t="n">
-        <v>6.1</v>
+        <v>0.0414</v>
       </c>
       <c r="G66" t="n">
-        <v>460.0931508600002</v>
+        <v>299.8072360100001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>67850</v>
+        <v>67900</v>
       </c>
       <c r="C67" t="n">
-        <v>68000</v>
+        <v>68050</v>
       </c>
       <c r="D67" t="n">
-        <v>68000</v>
+        <v>68050</v>
       </c>
       <c r="E67" t="n">
-        <v>67850</v>
+        <v>67900</v>
       </c>
       <c r="F67" t="n">
-        <v>12.8307</v>
+        <v>0.08168449</v>
       </c>
       <c r="G67" t="n">
-        <v>447.2624508600002</v>
+        <v>299.8889205</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68150</v>
+        <v>67350</v>
       </c>
       <c r="C68" t="n">
-        <v>68150</v>
+        <v>67350</v>
       </c>
       <c r="D68" t="n">
-        <v>68150</v>
+        <v>67350</v>
       </c>
       <c r="E68" t="n">
-        <v>68150</v>
+        <v>67350</v>
       </c>
       <c r="F68" t="n">
-        <v>6.9423</v>
+        <v>1.9</v>
       </c>
       <c r="G68" t="n">
-        <v>454.2047508600002</v>
+        <v>297.9889205000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68600</v>
+        <v>67350</v>
       </c>
       <c r="C69" t="n">
-        <v>68600</v>
+        <v>67350</v>
       </c>
       <c r="D69" t="n">
-        <v>68750</v>
+        <v>67350</v>
       </c>
       <c r="E69" t="n">
-        <v>68600</v>
+        <v>67350</v>
       </c>
       <c r="F69" t="n">
-        <v>29.6187</v>
+        <v>0.4465</v>
       </c>
       <c r="G69" t="n">
-        <v>483.8234508600002</v>
+        <v>297.9889205000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="C70" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="D70" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="E70" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="F70" t="n">
-        <v>22.2812</v>
+        <v>4.5518</v>
       </c>
       <c r="G70" t="n">
-        <v>483.8234508600002</v>
+        <v>293.4371205</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="C71" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="D71" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="E71" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="F71" t="n">
-        <v>98.92919999999999</v>
+        <v>18.3234</v>
       </c>
       <c r="G71" t="n">
-        <v>483.8234508600002</v>
+        <v>293.4371205</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="C72" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="D72" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="E72" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="F72" t="n">
-        <v>120.573</v>
+        <v>0.22</v>
       </c>
       <c r="G72" t="n">
-        <v>483.8234508600002</v>
+        <v>293.6571205000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="C73" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="D73" t="n">
-        <v>68600</v>
+        <v>67600</v>
       </c>
       <c r="E73" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="F73" t="n">
-        <v>9.196300000000001</v>
+        <v>3.5702</v>
       </c>
       <c r="G73" t="n">
-        <v>483.8234508600002</v>
+        <v>290.0869205000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="C74" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="D74" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="E74" t="n">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="F74" t="n">
-        <v>8.18</v>
+        <v>0.63</v>
       </c>
       <c r="G74" t="n">
-        <v>483.8234508600002</v>
+        <v>290.7169205000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="C75" t="n">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="D75" t="n">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="E75" t="n">
-        <v>68600</v>
+        <v>67000</v>
       </c>
       <c r="F75" t="n">
-        <v>4.446</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>483.8234508600002</v>
+        <v>290.6169205</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="C76" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="D76" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="E76" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="F76" t="n">
-        <v>13.7868</v>
+        <v>0.79</v>
       </c>
       <c r="G76" t="n">
-        <v>483.8234508600002</v>
+        <v>291.4069205000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="C77" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="D77" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="E77" t="n">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="F77" t="n">
-        <v>27.1004</v>
+        <v>1.4893</v>
       </c>
       <c r="G77" t="n">
-        <v>483.8234508600002</v>
+        <v>292.8962205000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="C78" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="D78" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="E78" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="F78" t="n">
-        <v>99.8013</v>
+        <v>1.111</v>
       </c>
       <c r="G78" t="n">
-        <v>483.8234508600002</v>
+        <v>291.7852205000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="C79" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="D79" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="E79" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="F79" t="n">
-        <v>17.2747</v>
+        <v>1.7716</v>
       </c>
       <c r="G79" t="n">
-        <v>483.8234508600002</v>
+        <v>291.7852205000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>68700</v>
+        <v>66750</v>
       </c>
       <c r="C80" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="D80" t="n">
-        <v>68700</v>
+        <v>66750</v>
       </c>
       <c r="E80" t="n">
-        <v>68600</v>
+        <v>66750</v>
       </c>
       <c r="F80" t="n">
-        <v>15.7948</v>
+        <v>6.8981</v>
       </c>
       <c r="G80" t="n">
-        <v>483.8234508600002</v>
+        <v>291.7852205000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="C81" t="n">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="D81" t="n">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="E81" t="n">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="F81" t="n">
-        <v>35.5961</v>
+        <v>1.24</v>
       </c>
       <c r="G81" t="n">
-        <v>483.8234508600002</v>
+        <v>290.5452205000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67800</v>
+        <v>66250</v>
       </c>
       <c r="C82" t="n">
-        <v>68150</v>
+        <v>66250</v>
       </c>
       <c r="D82" t="n">
-        <v>68150</v>
+        <v>66250</v>
       </c>
       <c r="E82" t="n">
-        <v>67800</v>
+        <v>66250</v>
       </c>
       <c r="F82" t="n">
-        <v>12.79646368</v>
+        <v>2.9964</v>
       </c>
       <c r="G82" t="n">
-        <v>471.0269871800002</v>
+        <v>287.5488205000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67600</v>
+        <v>66350</v>
       </c>
       <c r="C83" t="n">
-        <v>67550</v>
+        <v>66550</v>
       </c>
       <c r="D83" t="n">
-        <v>67600</v>
+        <v>66550</v>
       </c>
       <c r="E83" t="n">
-        <v>67550</v>
+        <v>66200</v>
       </c>
       <c r="F83" t="n">
-        <v>15.2753</v>
+        <v>33.4695</v>
       </c>
       <c r="G83" t="n">
-        <v>455.7516871800001</v>
+        <v>321.0183205000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67500</v>
+        <v>66400</v>
       </c>
       <c r="C84" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="D84" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="E84" t="n">
-        <v>67300</v>
+        <v>66400</v>
       </c>
       <c r="F84" t="n">
-        <v>5.8438</v>
+        <v>5.9</v>
       </c>
       <c r="G84" t="n">
-        <v>461.5954871800001</v>
+        <v>315.1183205000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="C85" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="D85" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="E85" t="n">
-        <v>67700</v>
+        <v>66450</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="G85" t="n">
-        <v>461.5954871800001</v>
+        <v>315.1183205000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="C86" t="n">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="D86" t="n">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="E86" t="n">
-        <v>68200</v>
+        <v>66200</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1</v>
+        <v>1.55</v>
       </c>
       <c r="G86" t="n">
-        <v>461.6954871800002</v>
+        <v>313.5683205000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>68100</v>
+        <v>66250</v>
       </c>
       <c r="C87" t="n">
-        <v>68100</v>
+        <v>66200</v>
       </c>
       <c r="D87" t="n">
-        <v>68100</v>
+        <v>66250</v>
       </c>
       <c r="E87" t="n">
-        <v>68100</v>
+        <v>66200</v>
       </c>
       <c r="F87" t="n">
-        <v>2.1257</v>
+        <v>14.3161</v>
       </c>
       <c r="G87" t="n">
-        <v>459.5697871800002</v>
+        <v>313.5683205000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68000</v>
+        <v>66350</v>
       </c>
       <c r="C88" t="n">
-        <v>68000</v>
+        <v>66300</v>
       </c>
       <c r="D88" t="n">
-        <v>68000</v>
+        <v>66350</v>
       </c>
       <c r="E88" t="n">
-        <v>68000</v>
+        <v>66300</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1</v>
+        <v>14.1049</v>
       </c>
       <c r="G88" t="n">
-        <v>459.4697871800001</v>
+        <v>327.6732205000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>68000</v>
+        <v>66700</v>
       </c>
       <c r="C89" t="n">
-        <v>68050</v>
+        <v>66700</v>
       </c>
       <c r="D89" t="n">
-        <v>68050</v>
+        <v>66700</v>
       </c>
       <c r="E89" t="n">
-        <v>68000</v>
+        <v>66700</v>
       </c>
       <c r="F89" t="n">
-        <v>14.0155</v>
+        <v>1.0651</v>
       </c>
       <c r="G89" t="n">
-        <v>473.4852871800001</v>
+        <v>328.7383205</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>68050</v>
+        <v>66700</v>
       </c>
       <c r="C90" t="n">
-        <v>68000</v>
+        <v>66750</v>
       </c>
       <c r="D90" t="n">
-        <v>68050</v>
+        <v>66750</v>
       </c>
       <c r="E90" t="n">
-        <v>68000</v>
+        <v>66700</v>
       </c>
       <c r="F90" t="n">
-        <v>16.9798</v>
+        <v>10.7779</v>
       </c>
       <c r="G90" t="n">
-        <v>456.5054871800001</v>
+        <v>339.5162205</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>68200</v>
+        <v>66500</v>
       </c>
       <c r="C91" t="n">
-        <v>68200</v>
+        <v>66500</v>
       </c>
       <c r="D91" t="n">
-        <v>68200</v>
+        <v>66500</v>
       </c>
       <c r="E91" t="n">
-        <v>68200</v>
+        <v>66500</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.1098</v>
       </c>
       <c r="G91" t="n">
-        <v>456.5749871800001</v>
+        <v>339.4064205</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>68250</v>
+        <v>66950</v>
       </c>
       <c r="C92" t="n">
-        <v>68250</v>
+        <v>67700</v>
       </c>
       <c r="D92" t="n">
-        <v>68250</v>
+        <v>67700</v>
       </c>
       <c r="E92" t="n">
-        <v>68250</v>
+        <v>66950</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03</v>
+        <v>5.5486</v>
       </c>
       <c r="G92" t="n">
-        <v>456.6049871800001</v>
+        <v>344.9550205</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>68400</v>
+        <v>67600</v>
       </c>
       <c r="C93" t="n">
-        <v>68400</v>
+        <v>67500</v>
       </c>
       <c r="D93" t="n">
-        <v>68400</v>
+        <v>67600</v>
       </c>
       <c r="E93" t="n">
-        <v>68400</v>
+        <v>67500</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>6.8853</v>
       </c>
       <c r="G93" t="n">
-        <v>457.6049871800001</v>
+        <v>338.0697205000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>68550</v>
+        <v>67450</v>
       </c>
       <c r="C94" t="n">
-        <v>68550</v>
+        <v>67450</v>
       </c>
       <c r="D94" t="n">
-        <v>68550</v>
+        <v>67900</v>
       </c>
       <c r="E94" t="n">
-        <v>68550</v>
+        <v>67450</v>
       </c>
       <c r="F94" t="n">
-        <v>13.1618</v>
+        <v>68.59220000000001</v>
       </c>
       <c r="G94" t="n">
-        <v>470.7667871800001</v>
+        <v>269.4775205000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>68550</v>
+        <v>67550</v>
       </c>
       <c r="C95" t="n">
-        <v>68550</v>
+        <v>67850</v>
       </c>
       <c r="D95" t="n">
-        <v>68550</v>
+        <v>67850</v>
       </c>
       <c r="E95" t="n">
-        <v>68550</v>
+        <v>67550</v>
       </c>
       <c r="F95" t="n">
-        <v>43.6584</v>
+        <v>41.657</v>
       </c>
       <c r="G95" t="n">
-        <v>470.7667871800001</v>
+        <v>311.1345205000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="C96" t="n">
-        <v>68500</v>
+        <v>67050</v>
       </c>
       <c r="D96" t="n">
-        <v>68600</v>
+        <v>67050</v>
       </c>
       <c r="E96" t="n">
-        <v>68500</v>
+        <v>67050</v>
       </c>
       <c r="F96" t="n">
-        <v>82.69199999999999</v>
+        <v>0.0179</v>
       </c>
       <c r="G96" t="n">
-        <v>388.07478718</v>
+        <v>311.1166205000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>68150</v>
+        <v>67200</v>
       </c>
       <c r="C97" t="n">
-        <v>68150</v>
+        <v>67200</v>
       </c>
       <c r="D97" t="n">
-        <v>68150</v>
+        <v>67200</v>
       </c>
       <c r="E97" t="n">
-        <v>68150</v>
+        <v>67200</v>
       </c>
       <c r="F97" t="n">
-        <v>2.8435</v>
+        <v>8.8024</v>
       </c>
       <c r="G97" t="n">
-        <v>385.23128718</v>
+        <v>319.9190205</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>68250</v>
+        <v>67350</v>
       </c>
       <c r="C98" t="n">
-        <v>68800</v>
+        <v>67350</v>
       </c>
       <c r="D98" t="n">
-        <v>68800</v>
+        <v>67350</v>
       </c>
       <c r="E98" t="n">
-        <v>68250</v>
+        <v>67350</v>
       </c>
       <c r="F98" t="n">
-        <v>0.60364883</v>
+        <v>6.9161</v>
       </c>
       <c r="G98" t="n">
-        <v>385.83493601</v>
+        <v>326.8351205</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>68800</v>
+        <v>67200</v>
       </c>
       <c r="C99" t="n">
-        <v>68800</v>
+        <v>67100</v>
       </c>
       <c r="D99" t="n">
-        <v>68800</v>
+        <v>67200</v>
       </c>
       <c r="E99" t="n">
-        <v>68800</v>
+        <v>67100</v>
       </c>
       <c r="F99" t="n">
-        <v>14.3161</v>
+        <v>26.3898</v>
       </c>
       <c r="G99" t="n">
-        <v>385.83493601</v>
+        <v>300.4453205</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>68150</v>
+        <v>67300</v>
       </c>
       <c r="C100" t="n">
-        <v>68150</v>
+        <v>67300</v>
       </c>
       <c r="D100" t="n">
-        <v>68150</v>
+        <v>67300</v>
       </c>
       <c r="E100" t="n">
-        <v>68150</v>
+        <v>67300</v>
       </c>
       <c r="F100" t="n">
-        <v>2.6786</v>
+        <v>1.42046062</v>
       </c>
       <c r="G100" t="n">
-        <v>383.15633601</v>
+        <v>301.8657811200001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>68200</v>
+        <v>67150</v>
       </c>
       <c r="C101" t="n">
-        <v>68100</v>
+        <v>67150</v>
       </c>
       <c r="D101" t="n">
-        <v>68200</v>
+        <v>67150</v>
       </c>
       <c r="E101" t="n">
-        <v>68100</v>
+        <v>67150</v>
       </c>
       <c r="F101" t="n">
-        <v>100.6006</v>
+        <v>1.4205</v>
       </c>
       <c r="G101" t="n">
-        <v>282.55573601</v>
+        <v>300.4452811200001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>68100</v>
+        <v>67450</v>
       </c>
       <c r="C102" t="n">
-        <v>68100</v>
+        <v>67450</v>
       </c>
       <c r="D102" t="n">
-        <v>68100</v>
+        <v>67450</v>
       </c>
       <c r="E102" t="n">
-        <v>68100</v>
+        <v>67450</v>
       </c>
       <c r="F102" t="n">
-        <v>30.671</v>
+        <v>0.2587</v>
       </c>
       <c r="G102" t="n">
-        <v>282.55573601</v>
+        <v>300.70398112</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>68100</v>
+        <v>67850</v>
       </c>
       <c r="C103" t="n">
-        <v>68100</v>
+        <v>67600</v>
       </c>
       <c r="D103" t="n">
-        <v>68100</v>
+        <v>67850</v>
       </c>
       <c r="E103" t="n">
-        <v>68100</v>
+        <v>67500</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>7.6809</v>
       </c>
       <c r="G103" t="n">
-        <v>282.55573601</v>
+        <v>308.38488112</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>68100</v>
+        <v>67500</v>
       </c>
       <c r="C104" t="n">
-        <v>68150</v>
+        <v>67500</v>
       </c>
       <c r="D104" t="n">
-        <v>68150</v>
+        <v>67500</v>
       </c>
       <c r="E104" t="n">
-        <v>67450</v>
+        <v>67500</v>
       </c>
       <c r="F104" t="n">
-        <v>20.3789</v>
+        <v>6.4364</v>
       </c>
       <c r="G104" t="n">
-        <v>302.93463601</v>
+        <v>301.9484811200001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4050,10 +4158,10 @@
         <v>67550</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03</v>
+        <v>1.6143</v>
       </c>
       <c r="G105" t="n">
-        <v>302.90463601</v>
+        <v>303.5627811200001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="C106" t="n">
-        <v>67300</v>
+        <v>67550</v>
       </c>
       <c r="D106" t="n">
-        <v>67500</v>
+        <v>67550</v>
       </c>
       <c r="E106" t="n">
-        <v>67300</v>
+        <v>67550</v>
       </c>
       <c r="F106" t="n">
-        <v>3.1388</v>
+        <v>0.4975</v>
       </c>
       <c r="G106" t="n">
-        <v>299.76583601</v>
+        <v>303.5627811200001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="C107" t="n">
-        <v>67300</v>
+        <v>67000</v>
       </c>
       <c r="D107" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="E107" t="n">
-        <v>67300</v>
+        <v>66950</v>
       </c>
       <c r="F107" t="n">
-        <v>12.7198</v>
+        <v>16.0032</v>
       </c>
       <c r="G107" t="n">
-        <v>299.76583601</v>
+        <v>287.5595811200001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67550</v>
+        <v>67000</v>
       </c>
       <c r="C108" t="n">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="D108" t="n">
-        <v>67600</v>
+        <v>67000</v>
       </c>
       <c r="E108" t="n">
-        <v>67550</v>
+        <v>67000</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0414</v>
+        <v>4.1075</v>
       </c>
       <c r="G108" t="n">
-        <v>299.8072360100001</v>
+        <v>287.5595811200001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67900</v>
+        <v>66950</v>
       </c>
       <c r="C109" t="n">
-        <v>68050</v>
+        <v>66950</v>
       </c>
       <c r="D109" t="n">
-        <v>68050</v>
+        <v>66950</v>
       </c>
       <c r="E109" t="n">
-        <v>67900</v>
+        <v>66950</v>
       </c>
       <c r="F109" t="n">
-        <v>0.08168449</v>
+        <v>35.8367</v>
       </c>
       <c r="G109" t="n">
-        <v>299.8889205</v>
+        <v>251.7228811200001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67350</v>
+        <v>67050</v>
       </c>
       <c r="C110" t="n">
-        <v>67350</v>
+        <v>67050</v>
       </c>
       <c r="D110" t="n">
-        <v>67350</v>
+        <v>67050</v>
       </c>
       <c r="E110" t="n">
-        <v>67350</v>
+        <v>67050</v>
       </c>
       <c r="F110" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>297.9889205000001</v>
+        <v>252.7228811200001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67350</v>
+        <v>66850</v>
       </c>
       <c r="C111" t="n">
-        <v>67350</v>
+        <v>66850</v>
       </c>
       <c r="D111" t="n">
-        <v>67350</v>
+        <v>66850</v>
       </c>
       <c r="E111" t="n">
-        <v>67350</v>
+        <v>66850</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4465</v>
+        <v>0.0396</v>
       </c>
       <c r="G111" t="n">
-        <v>297.9889205000001</v>
+        <v>252.6832811200001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4295,10 +4410,10 @@
         <v>67300</v>
       </c>
       <c r="F112" t="n">
-        <v>4.5518</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="n">
-        <v>293.4371205</v>
+        <v>253.1832811200001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="C113" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="D113" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E113" t="n">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="F113" t="n">
-        <v>18.3234</v>
+        <v>0.02958579</v>
       </c>
       <c r="G113" t="n">
-        <v>293.4371205</v>
+        <v>253.2128669100001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="C114" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="D114" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="E114" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="F114" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>293.6571205000001</v>
+        <v>252.2128669100001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="C115" t="n">
-        <v>67100</v>
+        <v>66900</v>
       </c>
       <c r="D115" t="n">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="E115" t="n">
-        <v>67100</v>
+        <v>66900</v>
       </c>
       <c r="F115" t="n">
-        <v>3.5702</v>
+        <v>4.11</v>
       </c>
       <c r="G115" t="n">
-        <v>290.0869205000001</v>
+        <v>248.10286691</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="C116" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="D116" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="E116" t="n">
-        <v>67300</v>
+        <v>67050</v>
       </c>
       <c r="F116" t="n">
-        <v>0.63</v>
+        <v>3.9756</v>
       </c>
       <c r="G116" t="n">
-        <v>290.7169205000001</v>
+        <v>252.07846691</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4470,10 +4590,10 @@
         <v>67000</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>290.6169205</v>
+        <v>251.33096691</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67050</v>
+        <v>67100</v>
       </c>
       <c r="C118" t="n">
-        <v>67050</v>
+        <v>67100</v>
       </c>
       <c r="D118" t="n">
-        <v>67050</v>
+        <v>67100</v>
       </c>
       <c r="E118" t="n">
-        <v>67050</v>
+        <v>67100</v>
       </c>
       <c r="F118" t="n">
-        <v>0.79</v>
+        <v>5.6376</v>
       </c>
       <c r="G118" t="n">
-        <v>291.4069205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4540,10 +4662,10 @@
         <v>67100</v>
       </c>
       <c r="F119" t="n">
-        <v>1.4893</v>
+        <v>4.7974</v>
       </c>
       <c r="G119" t="n">
-        <v>292.8962205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="C120" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="D120" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="E120" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="F120" t="n">
-        <v>1.111</v>
+        <v>1.5072</v>
       </c>
       <c r="G120" t="n">
-        <v>291.7852205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="C121" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="D121" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="E121" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="F121" t="n">
-        <v>1.7716</v>
+        <v>1.0781</v>
       </c>
       <c r="G121" t="n">
-        <v>291.7852205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="C122" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="D122" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="E122" t="n">
-        <v>66750</v>
+        <v>67100</v>
       </c>
       <c r="F122" t="n">
-        <v>6.8981</v>
+        <v>0.9478</v>
       </c>
       <c r="G122" t="n">
-        <v>291.7852205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66500</v>
+        <v>67100</v>
       </c>
       <c r="C123" t="n">
-        <v>66500</v>
+        <v>67100</v>
       </c>
       <c r="D123" t="n">
-        <v>66500</v>
+        <v>67100</v>
       </c>
       <c r="E123" t="n">
-        <v>66500</v>
+        <v>67100</v>
       </c>
       <c r="F123" t="n">
-        <v>1.24</v>
+        <v>1.5571</v>
       </c>
       <c r="G123" t="n">
-        <v>290.5452205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>66250</v>
+        <v>67100</v>
       </c>
       <c r="C124" t="n">
-        <v>66250</v>
+        <v>67100</v>
       </c>
       <c r="D124" t="n">
-        <v>66250</v>
+        <v>67100</v>
       </c>
       <c r="E124" t="n">
-        <v>66250</v>
+        <v>67100</v>
       </c>
       <c r="F124" t="n">
-        <v>2.9964</v>
+        <v>4.6291</v>
       </c>
       <c r="G124" t="n">
-        <v>287.5488205000001</v>
+        <v>256.96856691</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66350</v>
+        <v>67350</v>
       </c>
       <c r="C125" t="n">
-        <v>66550</v>
+        <v>67350</v>
       </c>
       <c r="D125" t="n">
-        <v>66550</v>
+        <v>67350</v>
       </c>
       <c r="E125" t="n">
-        <v>66200</v>
+        <v>67350</v>
       </c>
       <c r="F125" t="n">
-        <v>33.4695</v>
+        <v>2.3983</v>
       </c>
       <c r="G125" t="n">
-        <v>321.0183205000001</v>
+        <v>259.3668669100001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66400</v>
+        <v>67550</v>
       </c>
       <c r="C126" t="n">
-        <v>66450</v>
+        <v>67550</v>
       </c>
       <c r="D126" t="n">
-        <v>66450</v>
+        <v>67550</v>
       </c>
       <c r="E126" t="n">
-        <v>66400</v>
+        <v>67550</v>
       </c>
       <c r="F126" t="n">
-        <v>5.9</v>
+        <v>20.8165</v>
       </c>
       <c r="G126" t="n">
-        <v>315.1183205000001</v>
+        <v>280.1833669100001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,63 +4931,69 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66450</v>
+        <v>67450</v>
       </c>
       <c r="C127" t="n">
-        <v>66450</v>
+        <v>67450</v>
       </c>
       <c r="D127" t="n">
-        <v>66450</v>
+        <v>67450</v>
       </c>
       <c r="E127" t="n">
-        <v>66450</v>
+        <v>67450</v>
       </c>
       <c r="F127" t="n">
-        <v>2.7</v>
+        <v>1.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>315.1183205000001</v>
+        <v>278.18346691</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>67550</v>
+      </c>
+      <c r="K127" t="n">
+        <v>67550</v>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="C128" t="n">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="D128" t="n">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="E128" t="n">
-        <v>66200</v>
+        <v>67400</v>
       </c>
       <c r="F128" t="n">
-        <v>1.55</v>
+        <v>5.025</v>
       </c>
       <c r="G128" t="n">
-        <v>313.5683205000001</v>
+        <v>273.1584669100001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5002,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>67550</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66250</v>
+        <v>67550</v>
       </c>
       <c r="C129" t="n">
-        <v>66200</v>
+        <v>67550</v>
       </c>
       <c r="D129" t="n">
-        <v>66250</v>
+        <v>67550</v>
       </c>
       <c r="E129" t="n">
-        <v>66200</v>
+        <v>67550</v>
       </c>
       <c r="F129" t="n">
-        <v>14.3161</v>
+        <v>0.4632</v>
       </c>
       <c r="G129" t="n">
-        <v>313.5683205000001</v>
+        <v>273.62166691</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5044,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>67550</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>66350</v>
+        <v>67550</v>
       </c>
       <c r="C130" t="n">
-        <v>66300</v>
+        <v>67600</v>
       </c>
       <c r="D130" t="n">
-        <v>66350</v>
+        <v>67600</v>
       </c>
       <c r="E130" t="n">
-        <v>66300</v>
+        <v>67550</v>
       </c>
       <c r="F130" t="n">
-        <v>14.1049</v>
+        <v>20.0358</v>
       </c>
       <c r="G130" t="n">
-        <v>327.6732205000001</v>
+        <v>293.65746691</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5091,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="C131" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="D131" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="E131" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="F131" t="n">
-        <v>1.0651</v>
+        <v>10.3622</v>
       </c>
       <c r="G131" t="n">
-        <v>328.7383205</v>
+        <v>293.65746691</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,216 +5127,263 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="C132" t="n">
-        <v>66750</v>
+        <v>67600</v>
       </c>
       <c r="D132" t="n">
-        <v>66750</v>
+        <v>67600</v>
       </c>
       <c r="E132" t="n">
-        <v>66700</v>
+        <v>67600</v>
       </c>
       <c r="F132" t="n">
-        <v>10.7779</v>
+        <v>7.6193</v>
       </c>
       <c r="G132" t="n">
-        <v>339.5162205</v>
+        <v>293.65746691</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K132" t="n">
+        <v>67600</v>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>66500</v>
+        <v>67550</v>
       </c>
       <c r="C133" t="n">
-        <v>66500</v>
+        <v>67550</v>
       </c>
       <c r="D133" t="n">
-        <v>66500</v>
+        <v>67550</v>
       </c>
       <c r="E133" t="n">
-        <v>66500</v>
+        <v>67550</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1098</v>
+        <v>0.0171</v>
       </c>
       <c r="G133" t="n">
-        <v>339.4064205</v>
+        <v>293.64036691</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K133" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66950</v>
+        <v>67350</v>
       </c>
       <c r="C134" t="n">
-        <v>67700</v>
+        <v>67350</v>
       </c>
       <c r="D134" t="n">
-        <v>67700</v>
+        <v>67350</v>
       </c>
       <c r="E134" t="n">
-        <v>66950</v>
+        <v>67350</v>
       </c>
       <c r="F134" t="n">
-        <v>5.5486</v>
+        <v>0.8082</v>
       </c>
       <c r="G134" t="n">
-        <v>344.9550205</v>
+        <v>292.83216691</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>67550</v>
+      </c>
+      <c r="K134" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="C135" t="n">
-        <v>67500</v>
+        <v>67350</v>
       </c>
       <c r="D135" t="n">
-        <v>67600</v>
+        <v>67350</v>
       </c>
       <c r="E135" t="n">
-        <v>67500</v>
+        <v>67350</v>
       </c>
       <c r="F135" t="n">
-        <v>6.8853</v>
+        <v>1.639</v>
       </c>
       <c r="G135" t="n">
-        <v>338.0697205000001</v>
+        <v>292.83216691</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K135" t="n">
+        <v>67350</v>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>67450</v>
+        <v>67350</v>
       </c>
       <c r="C136" t="n">
-        <v>67450</v>
+        <v>67350</v>
       </c>
       <c r="D136" t="n">
-        <v>67900</v>
+        <v>67350</v>
       </c>
       <c r="E136" t="n">
-        <v>67450</v>
+        <v>67350</v>
       </c>
       <c r="F136" t="n">
-        <v>68.59220000000001</v>
+        <v>1.0002</v>
       </c>
       <c r="G136" t="n">
-        <v>269.4775205000001</v>
+        <v>292.83216691</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K136" t="n">
+        <v>67350</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>67550</v>
+        <v>67300</v>
       </c>
       <c r="C137" t="n">
-        <v>67850</v>
+        <v>67300</v>
       </c>
       <c r="D137" t="n">
-        <v>67850</v>
+        <v>67300</v>
       </c>
       <c r="E137" t="n">
-        <v>67550</v>
+        <v>67300</v>
       </c>
       <c r="F137" t="n">
-        <v>41.657</v>
+        <v>0.0149</v>
       </c>
       <c r="G137" t="n">
-        <v>311.1345205000001</v>
+        <v>292.81726691</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>67350</v>
+      </c>
+      <c r="K137" t="n">
+        <v>67350</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5205,443 +5402,556 @@
         <v>67050</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0179</v>
+        <v>4.11</v>
       </c>
       <c r="G138" t="n">
-        <v>311.1166205000001</v>
+        <v>288.70726691</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>67300</v>
+      </c>
+      <c r="K138" t="n">
+        <v>67300</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>67200</v>
+        <v>66700</v>
       </c>
       <c r="C139" t="n">
-        <v>67200</v>
+        <v>66250</v>
       </c>
       <c r="D139" t="n">
-        <v>67200</v>
+        <v>66700</v>
       </c>
       <c r="E139" t="n">
-        <v>67200</v>
+        <v>66250</v>
       </c>
       <c r="F139" t="n">
-        <v>8.8024</v>
+        <v>68.59220000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>319.9190205</v>
+        <v>220.11506691</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>67050</v>
+      </c>
+      <c r="K139" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67350</v>
+        <v>66750</v>
       </c>
       <c r="C140" t="n">
-        <v>67350</v>
+        <v>66750</v>
       </c>
       <c r="D140" t="n">
-        <v>67350</v>
+        <v>66750</v>
       </c>
       <c r="E140" t="n">
-        <v>67350</v>
+        <v>66750</v>
       </c>
       <c r="F140" t="n">
-        <v>6.9161</v>
+        <v>0.021</v>
       </c>
       <c r="G140" t="n">
-        <v>326.8351205</v>
+        <v>220.13606691</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66250</v>
+      </c>
+      <c r="K140" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>67200</v>
+        <v>66400</v>
       </c>
       <c r="C141" t="n">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="D141" t="n">
-        <v>67200</v>
+        <v>66400</v>
       </c>
       <c r="E141" t="n">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="F141" t="n">
-        <v>26.3898</v>
+        <v>0.0226</v>
       </c>
       <c r="G141" t="n">
-        <v>300.4453205</v>
+        <v>220.11346691</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66750</v>
+      </c>
+      <c r="K141" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>66300</v>
+      </c>
+      <c r="C142" t="n">
+        <v>66200</v>
+      </c>
+      <c r="D142" t="n">
+        <v>66300</v>
+      </c>
+      <c r="E142" t="n">
+        <v>66200</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6.2362</v>
+      </c>
+      <c r="G142" t="n">
+        <v>213.87726691</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K142" t="n">
         <v>67300</v>
       </c>
-      <c r="C142" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D142" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E142" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1.42046062</v>
-      </c>
-      <c r="G142" t="n">
-        <v>301.8657811200001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>67150</v>
+        <v>66300</v>
       </c>
       <c r="C143" t="n">
-        <v>67150</v>
+        <v>66300</v>
       </c>
       <c r="D143" t="n">
-        <v>67150</v>
+        <v>66300</v>
       </c>
       <c r="E143" t="n">
-        <v>67150</v>
+        <v>66300</v>
       </c>
       <c r="F143" t="n">
-        <v>1.4205</v>
+        <v>45.9187</v>
       </c>
       <c r="G143" t="n">
-        <v>300.4452811200001</v>
+        <v>259.7959669099999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66200</v>
+      </c>
+      <c r="K143" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>67450</v>
+        <v>66300</v>
       </c>
       <c r="C144" t="n">
-        <v>67450</v>
+        <v>66300</v>
       </c>
       <c r="D144" t="n">
-        <v>67450</v>
+        <v>66300</v>
       </c>
       <c r="E144" t="n">
-        <v>67450</v>
+        <v>66300</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2587</v>
+        <v>9.3916</v>
       </c>
       <c r="G144" t="n">
-        <v>300.70398112</v>
+        <v>259.7959669099999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66300</v>
+      </c>
+      <c r="K144" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>67850</v>
+        <v>66000</v>
       </c>
       <c r="C145" t="n">
-        <v>67600</v>
+        <v>66000</v>
       </c>
       <c r="D145" t="n">
-        <v>67850</v>
+        <v>66000</v>
       </c>
       <c r="E145" t="n">
-        <v>67500</v>
+        <v>66000</v>
       </c>
       <c r="F145" t="n">
-        <v>7.6809</v>
+        <v>37.3841</v>
       </c>
       <c r="G145" t="n">
-        <v>308.38488112</v>
+        <v>222.41186691</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66300</v>
+      </c>
+      <c r="K145" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>67500</v>
+        <v>66100</v>
       </c>
       <c r="C146" t="n">
-        <v>67500</v>
+        <v>66200</v>
       </c>
       <c r="D146" t="n">
-        <v>67500</v>
+        <v>66200</v>
       </c>
       <c r="E146" t="n">
-        <v>67500</v>
+        <v>66100</v>
       </c>
       <c r="F146" t="n">
-        <v>6.4364</v>
+        <v>11.60128398</v>
       </c>
       <c r="G146" t="n">
-        <v>301.9484811200001</v>
+        <v>234.01315089</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66000</v>
+      </c>
+      <c r="K146" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>67550</v>
+        <v>66000</v>
       </c>
       <c r="C147" t="n">
-        <v>67550</v>
+        <v>66000</v>
       </c>
       <c r="D147" t="n">
-        <v>67550</v>
+        <v>66000</v>
       </c>
       <c r="E147" t="n">
-        <v>67550</v>
+        <v>66000</v>
       </c>
       <c r="F147" t="n">
-        <v>1.6143</v>
+        <v>15.1592</v>
       </c>
       <c r="G147" t="n">
-        <v>303.5627811200001</v>
+        <v>218.85395089</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66200</v>
+      </c>
+      <c r="K147" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>67550</v>
+        <v>66550</v>
       </c>
       <c r="C148" t="n">
-        <v>67550</v>
+        <v>66550</v>
       </c>
       <c r="D148" t="n">
-        <v>67550</v>
+        <v>66550</v>
       </c>
       <c r="E148" t="n">
-        <v>67550</v>
+        <v>66550</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4975</v>
+        <v>0.0076</v>
       </c>
       <c r="G148" t="n">
-        <v>303.5627811200001</v>
+        <v>218.86155089</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66000</v>
+      </c>
+      <c r="K148" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="C149" t="n">
         <v>67000</v>
       </c>
       <c r="D149" t="n">
-        <v>67050</v>
+        <v>67000</v>
       </c>
       <c r="E149" t="n">
-        <v>66950</v>
+        <v>67000</v>
       </c>
       <c r="F149" t="n">
-        <v>16.0032</v>
+        <v>0.1</v>
       </c>
       <c r="G149" t="n">
-        <v>287.5595811200001</v>
+        <v>218.96155089</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66550</v>
+      </c>
+      <c r="K149" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67200</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67200</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8504</v>
+      </c>
+      <c r="G150" t="n">
+        <v>219.81195089</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
         <v>67000</v>
       </c>
-      <c r="C150" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>67000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4.1075</v>
-      </c>
-      <c r="G150" t="n">
-        <v>287.5595811200001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5651,404 +5961,503 @@
         <v>66950</v>
       </c>
       <c r="C151" t="n">
-        <v>66950</v>
+        <v>66900</v>
       </c>
       <c r="D151" t="n">
         <v>66950</v>
       </c>
       <c r="E151" t="n">
-        <v>66950</v>
+        <v>66900</v>
       </c>
       <c r="F151" t="n">
-        <v>35.8367</v>
+        <v>3.442</v>
       </c>
       <c r="G151" t="n">
-        <v>251.7228811200001</v>
+        <v>216.36995089</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K151" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>67050</v>
+        <v>67150</v>
       </c>
       <c r="C152" t="n">
-        <v>67050</v>
+        <v>67200</v>
       </c>
       <c r="D152" t="n">
-        <v>67050</v>
+        <v>67200</v>
       </c>
       <c r="E152" t="n">
-        <v>67050</v>
+        <v>67150</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="G152" t="n">
-        <v>252.7228811200001</v>
+        <v>223.5699508899999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66900</v>
+      </c>
+      <c r="K152" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>66850</v>
+        <v>67250</v>
       </c>
       <c r="C153" t="n">
-        <v>66850</v>
+        <v>67250</v>
       </c>
       <c r="D153" t="n">
-        <v>66850</v>
+        <v>67250</v>
       </c>
       <c r="E153" t="n">
-        <v>66850</v>
+        <v>67250</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0396</v>
+        <v>3.8316</v>
       </c>
       <c r="G153" t="n">
-        <v>252.6832811200001</v>
+        <v>227.40155089</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K153" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>67250</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67250</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="G154" t="n">
+        <v>227.40155089</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>67250</v>
+      </c>
+      <c r="K154" t="n">
         <v>67300</v>
       </c>
-      <c r="C154" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D154" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E154" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G154" t="n">
-        <v>253.1832811200001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="C155" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="D155" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="E155" t="n">
-        <v>67600</v>
+        <v>67550</v>
       </c>
       <c r="F155" t="n">
-        <v>0.02958579</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>253.2128669100001</v>
+        <v>228.40155089</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>67250</v>
+      </c>
+      <c r="K155" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="C156" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="D156" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="E156" t="n">
-        <v>67350</v>
+        <v>67650</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>16.4853</v>
       </c>
       <c r="G156" t="n">
-        <v>252.2128669100001</v>
+        <v>244.8868508899999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>67550</v>
+      </c>
+      <c r="K156" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>66900</v>
+        <v>67900</v>
       </c>
       <c r="C157" t="n">
-        <v>66900</v>
+        <v>68000</v>
       </c>
       <c r="D157" t="n">
-        <v>66900</v>
+        <v>68000</v>
       </c>
       <c r="E157" t="n">
-        <v>66900</v>
+        <v>67900</v>
       </c>
       <c r="F157" t="n">
-        <v>4.11</v>
+        <v>1.4</v>
       </c>
       <c r="G157" t="n">
-        <v>248.10286691</v>
+        <v>246.28685089</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>67650</v>
+      </c>
+      <c r="K157" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>67050</v>
+        <v>67900</v>
       </c>
       <c r="C158" t="n">
-        <v>67050</v>
+        <v>67900</v>
       </c>
       <c r="D158" t="n">
-        <v>67050</v>
+        <v>67900</v>
       </c>
       <c r="E158" t="n">
-        <v>67050</v>
+        <v>67900</v>
       </c>
       <c r="F158" t="n">
-        <v>3.9756</v>
+        <v>0.0185</v>
       </c>
       <c r="G158" t="n">
-        <v>252.07846691</v>
+        <v>246.26835089</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>68000</v>
+      </c>
+      <c r="K158" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="C159" t="n">
-        <v>67000</v>
+        <v>68350</v>
       </c>
       <c r="D159" t="n">
-        <v>67000</v>
+        <v>68350</v>
       </c>
       <c r="E159" t="n">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="F159" t="n">
-        <v>0.7475000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="G159" t="n">
-        <v>251.33096691</v>
+        <v>260.6683508899999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>67900</v>
+      </c>
+      <c r="K159" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>67100</v>
+        <v>68350</v>
       </c>
       <c r="C160" t="n">
-        <v>67100</v>
+        <v>68500</v>
       </c>
       <c r="D160" t="n">
-        <v>67100</v>
+        <v>68500</v>
       </c>
       <c r="E160" t="n">
-        <v>67100</v>
+        <v>68350</v>
       </c>
       <c r="F160" t="n">
-        <v>5.6376</v>
+        <v>21</v>
       </c>
       <c r="G160" t="n">
-        <v>256.96856691</v>
+        <v>281.6683508899999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>68350</v>
+      </c>
+      <c r="K160" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="C161" t="n">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="D161" t="n">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="E161" t="n">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="F161" t="n">
-        <v>4.7974</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>256.96856691</v>
+        <v>271.96835089</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>68500</v>
+      </c>
+      <c r="K161" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>67100</v>
+        <v>68550</v>
       </c>
       <c r="C162" t="n">
-        <v>67100</v>
+        <v>68650</v>
       </c>
       <c r="D162" t="n">
-        <v>67100</v>
+        <v>68650</v>
       </c>
       <c r="E162" t="n">
-        <v>67100</v>
+        <v>68550</v>
       </c>
       <c r="F162" t="n">
-        <v>1.5072</v>
+        <v>7.0825</v>
       </c>
       <c r="G162" t="n">
-        <v>256.96856691</v>
+        <v>279.0508508899999</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -6057,121 +6466,128 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="K162" t="n">
-        <v>67100</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="C163" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="D163" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="E163" t="n">
-        <v>67100</v>
+        <v>68600</v>
       </c>
       <c r="F163" t="n">
-        <v>1.0781</v>
+        <v>4.5882</v>
       </c>
       <c r="G163" t="n">
-        <v>256.96856691</v>
+        <v>274.46265089</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>68650</v>
+      </c>
       <c r="K163" t="n">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>67100</v>
+        <v>68450</v>
       </c>
       <c r="C164" t="n">
-        <v>67100</v>
+        <v>68450</v>
       </c>
       <c r="D164" t="n">
-        <v>67100</v>
+        <v>68450</v>
       </c>
       <c r="E164" t="n">
-        <v>67100</v>
+        <v>68450</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9478</v>
+        <v>0.0183</v>
       </c>
       <c r="G164" t="n">
-        <v>256.96856691</v>
+        <v>274.44435089</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>67100</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>67100</v>
+        <v>68800</v>
       </c>
       <c r="C165" t="n">
-        <v>67100</v>
+        <v>69350</v>
       </c>
       <c r="D165" t="n">
-        <v>67100</v>
+        <v>69400</v>
       </c>
       <c r="E165" t="n">
-        <v>67100</v>
+        <v>68800</v>
       </c>
       <c r="F165" t="n">
-        <v>1.5571</v>
+        <v>134.7647</v>
       </c>
       <c r="G165" t="n">
-        <v>256.96856691</v>
+        <v>409.20905089</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -6180,205 +6596,210 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>67100</v>
+        <v>68450</v>
       </c>
       <c r="K165" t="n">
-        <v>67100</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>67100</v>
+        <v>69450</v>
       </c>
       <c r="C166" t="n">
-        <v>67100</v>
+        <v>69050</v>
       </c>
       <c r="D166" t="n">
-        <v>67100</v>
+        <v>69500</v>
       </c>
       <c r="E166" t="n">
-        <v>67100</v>
+        <v>69050</v>
       </c>
       <c r="F166" t="n">
-        <v>4.6291</v>
+        <v>0.6996</v>
       </c>
       <c r="G166" t="n">
-        <v>256.96856691</v>
+        <v>408.50945089</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>67100</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>67350</v>
+        <v>69150</v>
       </c>
       <c r="C167" t="n">
-        <v>67350</v>
+        <v>69500</v>
       </c>
       <c r="D167" t="n">
-        <v>67350</v>
+        <v>69500</v>
       </c>
       <c r="E167" t="n">
-        <v>67350</v>
+        <v>69150</v>
       </c>
       <c r="F167" t="n">
-        <v>2.3983</v>
+        <v>10.5362</v>
       </c>
       <c r="G167" t="n">
-        <v>259.3668669100001</v>
+        <v>419.04565089</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>67100</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>67100</v>
+        <v>67300</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>67550</v>
+        <v>69500</v>
       </c>
       <c r="C168" t="n">
-        <v>67550</v>
+        <v>69500</v>
       </c>
       <c r="D168" t="n">
-        <v>67550</v>
+        <v>69500</v>
       </c>
       <c r="E168" t="n">
-        <v>67550</v>
+        <v>69500</v>
       </c>
       <c r="F168" t="n">
-        <v>20.8165</v>
+        <v>10.4508</v>
       </c>
       <c r="G168" t="n">
-        <v>280.1833669100001</v>
+        <v>419.04565089</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>67350</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>67350</v>
-      </c>
-      <c r="L168" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>67450</v>
+        <v>69500</v>
       </c>
       <c r="C169" t="n">
-        <v>67450</v>
+        <v>69500</v>
       </c>
       <c r="D169" t="n">
-        <v>67450</v>
+        <v>69500</v>
       </c>
       <c r="E169" t="n">
-        <v>67450</v>
+        <v>69500</v>
       </c>
       <c r="F169" t="n">
-        <v>1.9999</v>
+        <v>1.0323</v>
       </c>
       <c r="G169" t="n">
-        <v>278.18346691</v>
+        <v>419.04565089</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>67550</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>67350</v>
+        <v>67300</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="C170" t="n">
-        <v>67400</v>
+        <v>69700</v>
       </c>
       <c r="D170" t="n">
-        <v>67400</v>
+        <v>69700</v>
       </c>
       <c r="E170" t="n">
-        <v>67400</v>
+        <v>69600</v>
       </c>
       <c r="F170" t="n">
-        <v>5.025</v>
+        <v>1.4684</v>
       </c>
       <c r="G170" t="n">
-        <v>273.1584669100001</v>
+        <v>420.51405089</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6388,38 +6809,39 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>67350</v>
+        <v>67300</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>67550</v>
+        <v>69800</v>
       </c>
       <c r="C171" t="n">
-        <v>67550</v>
+        <v>69950</v>
       </c>
       <c r="D171" t="n">
-        <v>67550</v>
+        <v>69950</v>
       </c>
       <c r="E171" t="n">
-        <v>67550</v>
+        <v>69800</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4632</v>
+        <v>32.65141358</v>
       </c>
       <c r="G171" t="n">
-        <v>273.62166691</v>
+        <v>453.16546447</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6428,33 +6850,40 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>67550</v>
+        <v>69700</v>
       </c>
       <c r="C172" t="n">
-        <v>67600</v>
+        <v>69950</v>
       </c>
       <c r="D172" t="n">
-        <v>67600</v>
+        <v>69950</v>
       </c>
       <c r="E172" t="n">
-        <v>67550</v>
+        <v>69700</v>
       </c>
       <c r="F172" t="n">
-        <v>20.0358</v>
+        <v>4.3398</v>
       </c>
       <c r="G172" t="n">
-        <v>293.65746691</v>
+        <v>453.16546447</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6463,33 +6892,40 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>67600</v>
+        <v>69950</v>
       </c>
       <c r="C173" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="D173" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="E173" t="n">
-        <v>67600</v>
+        <v>69950</v>
       </c>
       <c r="F173" t="n">
-        <v>10.3622</v>
+        <v>19.4572</v>
       </c>
       <c r="G173" t="n">
-        <v>293.65746691</v>
+        <v>472.62266447</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6498,33 +6934,40 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="C174" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="D174" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="E174" t="n">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="F174" t="n">
-        <v>7.6193</v>
+        <v>63.51388314</v>
       </c>
       <c r="G174" t="n">
-        <v>293.65746691</v>
+        <v>472.62266447</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6533,33 +6976,40 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>67550</v>
+        <v>70050</v>
       </c>
       <c r="C175" t="n">
-        <v>67550</v>
+        <v>70500</v>
       </c>
       <c r="D175" t="n">
-        <v>67550</v>
+        <v>70500</v>
       </c>
       <c r="E175" t="n">
-        <v>67550</v>
+        <v>70050</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0171</v>
+        <v>43.1198</v>
       </c>
       <c r="G175" t="n">
-        <v>293.64036691</v>
+        <v>515.74246447</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6568,33 +7018,40 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>67350</v>
+        <v>70500</v>
       </c>
       <c r="C176" t="n">
-        <v>67350</v>
+        <v>71000</v>
       </c>
       <c r="D176" t="n">
-        <v>67350</v>
+        <v>71000</v>
       </c>
       <c r="E176" t="n">
-        <v>67350</v>
+        <v>70200</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8082</v>
+        <v>39.25744206</v>
       </c>
       <c r="G176" t="n">
-        <v>292.83216691</v>
+        <v>554.99990653</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6603,72 +7060,82 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>67350</v>
+        <v>71050</v>
       </c>
       <c r="C177" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="D177" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="E177" t="n">
-        <v>67350</v>
+        <v>70600</v>
       </c>
       <c r="F177" t="n">
-        <v>1.639</v>
+        <v>64.1341</v>
       </c>
       <c r="G177" t="n">
-        <v>292.83216691</v>
+        <v>619.13400653</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>67350</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>67350</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="C178" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="D178" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="E178" t="n">
-        <v>67350</v>
+        <v>71100</v>
       </c>
       <c r="F178" t="n">
-        <v>1.0002</v>
+        <v>14.0135</v>
       </c>
       <c r="G178" t="n">
-        <v>292.83216691</v>
+        <v>619.13400653</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6678,81 +7145,81 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>67350</v>
+        <v>67300</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>71150</v>
+      </c>
+      <c r="C179" t="n">
+        <v>71600</v>
+      </c>
+      <c r="D179" t="n">
+        <v>71600</v>
+      </c>
+      <c r="E179" t="n">
+        <v>71050</v>
+      </c>
+      <c r="F179" t="n">
+        <v>53.16</v>
+      </c>
+      <c r="G179" t="n">
+        <v>672.2940065299999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
         <v>67300</v>
-      </c>
-      <c r="C179" t="n">
-        <v>67300</v>
-      </c>
-      <c r="D179" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E179" t="n">
-        <v>67300</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="G179" t="n">
-        <v>292.81726691</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>67350</v>
-      </c>
-      <c r="K179" t="n">
-        <v>67350</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>67050</v>
+        <v>71500</v>
       </c>
       <c r="C180" t="n">
-        <v>67050</v>
+        <v>71500</v>
       </c>
       <c r="D180" t="n">
-        <v>67050</v>
+        <v>71500</v>
       </c>
       <c r="E180" t="n">
-        <v>67050</v>
+        <v>71500</v>
       </c>
       <c r="F180" t="n">
-        <v>4.11</v>
+        <v>0.02</v>
       </c>
       <c r="G180" t="n">
-        <v>288.70726691</v>
+        <v>672.27400653</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6761,33 +7228,40 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>66700</v>
+        <v>71450</v>
       </c>
       <c r="C181" t="n">
-        <v>66250</v>
+        <v>71500</v>
       </c>
       <c r="D181" t="n">
-        <v>66700</v>
+        <v>71500</v>
       </c>
       <c r="E181" t="n">
-        <v>66250</v>
+        <v>71450</v>
       </c>
       <c r="F181" t="n">
-        <v>68.59220000000001</v>
+        <v>5.9965</v>
       </c>
       <c r="G181" t="n">
-        <v>220.11506691</v>
+        <v>672.27400653</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6796,49 +7270,61 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>67300</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>66750</v>
+        <v>71500</v>
       </c>
       <c r="C182" t="n">
-        <v>66750</v>
+        <v>71250</v>
       </c>
       <c r="D182" t="n">
-        <v>66750</v>
+        <v>71650</v>
       </c>
       <c r="E182" t="n">
-        <v>66750</v>
+        <v>71250</v>
       </c>
       <c r="F182" t="n">
-        <v>0.021</v>
+        <v>31.1302</v>
       </c>
       <c r="G182" t="n">
-        <v>220.13606691</v>
+        <v>641.14380653</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>66250</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L182" t="inlineStr"/>
+        <v>67300</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M182" t="n">
-        <v>1</v>
+        <v>1.053692421991085</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.057401812688822</v>
       </c>
     </row>
     <row r="183">
@@ -6846,2246 +7332,504 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>66400</v>
+        <v>71400</v>
       </c>
       <c r="C183" t="n">
-        <v>66400</v>
+        <v>71100</v>
       </c>
       <c r="D183" t="n">
-        <v>66400</v>
+        <v>71400</v>
       </c>
       <c r="E183" t="n">
-        <v>66400</v>
+        <v>70750</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0226</v>
+        <v>16.8372</v>
       </c>
       <c r="G183" t="n">
-        <v>220.11346691</v>
+        <v>624.30660653</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>66750</v>
-      </c>
-      <c r="K183" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>66300</v>
+        <v>71100</v>
       </c>
       <c r="C184" t="n">
-        <v>66200</v>
+        <v>71050</v>
       </c>
       <c r="D184" t="n">
-        <v>66300</v>
+        <v>71100</v>
       </c>
       <c r="E184" t="n">
-        <v>66200</v>
+        <v>71000</v>
       </c>
       <c r="F184" t="n">
-        <v>6.2362</v>
+        <v>20.4407</v>
       </c>
       <c r="G184" t="n">
-        <v>213.87726691</v>
+        <v>603.86590653</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K184" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>66300</v>
+        <v>71050</v>
       </c>
       <c r="C185" t="n">
-        <v>66300</v>
+        <v>71050</v>
       </c>
       <c r="D185" t="n">
-        <v>66300</v>
+        <v>71050</v>
       </c>
       <c r="E185" t="n">
-        <v>66300</v>
+        <v>71050</v>
       </c>
       <c r="F185" t="n">
-        <v>45.9187</v>
+        <v>1.5583</v>
       </c>
       <c r="G185" t="n">
-        <v>259.7959669099999</v>
+        <v>603.86590653</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>66200</v>
-      </c>
-      <c r="K185" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>66300</v>
+        <v>71000</v>
       </c>
       <c r="C186" t="n">
-        <v>66300</v>
+        <v>71000</v>
       </c>
       <c r="D186" t="n">
-        <v>66300</v>
+        <v>71000</v>
       </c>
       <c r="E186" t="n">
-        <v>66300</v>
+        <v>71000</v>
       </c>
       <c r="F186" t="n">
-        <v>9.3916</v>
+        <v>2.2686</v>
       </c>
       <c r="G186" t="n">
-        <v>259.7959669099999</v>
+        <v>601.59730653</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K186" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>66000</v>
+        <v>71000</v>
       </c>
       <c r="C187" t="n">
-        <v>66000</v>
+        <v>71000</v>
       </c>
       <c r="D187" t="n">
-        <v>66000</v>
+        <v>71000</v>
       </c>
       <c r="E187" t="n">
-        <v>66000</v>
+        <v>70950</v>
       </c>
       <c r="F187" t="n">
-        <v>37.3841</v>
+        <v>41.1806</v>
       </c>
       <c r="G187" t="n">
-        <v>222.41186691</v>
+        <v>601.59730653</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K187" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>66100</v>
+        <v>70900</v>
       </c>
       <c r="C188" t="n">
-        <v>66200</v>
+        <v>71000</v>
       </c>
       <c r="D188" t="n">
-        <v>66200</v>
+        <v>71000</v>
       </c>
       <c r="E188" t="n">
-        <v>66100</v>
+        <v>70900</v>
       </c>
       <c r="F188" t="n">
-        <v>11.60128398</v>
+        <v>24.5942</v>
       </c>
       <c r="G188" t="n">
-        <v>234.01315089</v>
+        <v>601.59730653</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>66000</v>
-      </c>
-      <c r="K188" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>66000</v>
+        <v>71000</v>
       </c>
       <c r="C189" t="n">
-        <v>66000</v>
+        <v>71050</v>
       </c>
       <c r="D189" t="n">
-        <v>66000</v>
+        <v>71050</v>
       </c>
       <c r="E189" t="n">
-        <v>66000</v>
+        <v>71000</v>
       </c>
       <c r="F189" t="n">
-        <v>15.1592</v>
+        <v>25.4904</v>
       </c>
       <c r="G189" t="n">
-        <v>218.85395089</v>
+        <v>627.08770653</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>66200</v>
-      </c>
-      <c r="K189" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>66550</v>
+        <v>71050</v>
       </c>
       <c r="C190" t="n">
-        <v>66550</v>
+        <v>71050</v>
       </c>
       <c r="D190" t="n">
-        <v>66550</v>
+        <v>71050</v>
       </c>
       <c r="E190" t="n">
-        <v>66550</v>
+        <v>71050</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0076</v>
+        <v>0.15</v>
       </c>
       <c r="G190" t="n">
-        <v>218.86155089</v>
+        <v>627.08770653</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>66000</v>
-      </c>
-      <c r="K190" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>67000</v>
+        <v>70750</v>
       </c>
       <c r="C191" t="n">
-        <v>67000</v>
+        <v>70750</v>
       </c>
       <c r="D191" t="n">
-        <v>67000</v>
+        <v>70750</v>
       </c>
       <c r="E191" t="n">
-        <v>67000</v>
+        <v>70750</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1</v>
+        <v>16.1778</v>
       </c>
       <c r="G191" t="n">
-        <v>218.96155089</v>
+        <v>610.9099065299999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>66550</v>
-      </c>
-      <c r="K191" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>67200</v>
+        <v>70750</v>
       </c>
       <c r="C192" t="n">
-        <v>67200</v>
+        <v>70300</v>
       </c>
       <c r="D192" t="n">
-        <v>67200</v>
+        <v>70750</v>
       </c>
       <c r="E192" t="n">
-        <v>67200</v>
+        <v>70300</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8504</v>
+        <v>1.0287</v>
       </c>
       <c r="G192" t="n">
-        <v>219.81195089</v>
+        <v>609.88120653</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K192" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>66950</v>
+        <v>70350</v>
       </c>
       <c r="C193" t="n">
-        <v>66900</v>
+        <v>70100</v>
       </c>
       <c r="D193" t="n">
-        <v>66950</v>
+        <v>70350</v>
       </c>
       <c r="E193" t="n">
-        <v>66900</v>
+        <v>70100</v>
       </c>
       <c r="F193" t="n">
-        <v>3.442</v>
+        <v>13.4727</v>
       </c>
       <c r="G193" t="n">
-        <v>216.36995089</v>
+        <v>596.40850653</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>67200</v>
-      </c>
-      <c r="K193" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>67150</v>
+        <v>70250</v>
       </c>
       <c r="C194" t="n">
-        <v>67200</v>
+        <v>71050</v>
       </c>
       <c r="D194" t="n">
-        <v>67200</v>
+        <v>71050</v>
       </c>
       <c r="E194" t="n">
-        <v>67150</v>
+        <v>70100</v>
       </c>
       <c r="F194" t="n">
-        <v>7.2</v>
+        <v>15.1859</v>
       </c>
       <c r="G194" t="n">
-        <v>223.5699508899999</v>
+        <v>611.5944065299999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>66900</v>
-      </c>
-      <c r="K194" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>67250</v>
+        <v>70800</v>
       </c>
       <c r="C195" t="n">
-        <v>67250</v>
+        <v>71750</v>
       </c>
       <c r="D195" t="n">
-        <v>67250</v>
+        <v>71750</v>
       </c>
       <c r="E195" t="n">
-        <v>67250</v>
+        <v>70800</v>
       </c>
       <c r="F195" t="n">
-        <v>3.8316</v>
+        <v>2.6767</v>
       </c>
       <c r="G195" t="n">
-        <v>227.40155089</v>
+        <v>614.2711065299999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>67200</v>
-      </c>
-      <c r="K195" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>67250</v>
+        <v>71950</v>
       </c>
       <c r="C196" t="n">
-        <v>67250</v>
+        <v>72000</v>
       </c>
       <c r="D196" t="n">
-        <v>67250</v>
+        <v>72000</v>
       </c>
       <c r="E196" t="n">
-        <v>67250</v>
+        <v>71950</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0179</v>
+        <v>6.7813</v>
       </c>
       <c r="G196" t="n">
-        <v>227.40155089</v>
+        <v>621.0524065299999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>67250</v>
-      </c>
-      <c r="K196" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C197" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D197" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E197" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" t="n">
-        <v>228.40155089</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>67250</v>
-      </c>
-      <c r="K197" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>67650</v>
-      </c>
-      <c r="C198" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D198" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E198" t="n">
-        <v>67650</v>
-      </c>
-      <c r="F198" t="n">
-        <v>16.4853</v>
-      </c>
-      <c r="G198" t="n">
-        <v>244.8868508899999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>67550</v>
-      </c>
-      <c r="K198" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C199" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D199" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E199" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G199" t="n">
-        <v>246.28685089</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>67650</v>
-      </c>
-      <c r="K199" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C200" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D200" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E200" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="G200" t="n">
-        <v>246.26835089</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>68000</v>
-      </c>
-      <c r="K200" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C201" t="n">
-        <v>68350</v>
-      </c>
-      <c r="D201" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E201" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F201" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G201" t="n">
-        <v>260.6683508899999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>67900</v>
-      </c>
-      <c r="K201" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>68350</v>
-      </c>
-      <c r="C202" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D202" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E202" t="n">
-        <v>68350</v>
-      </c>
-      <c r="F202" t="n">
-        <v>21</v>
-      </c>
-      <c r="G202" t="n">
-        <v>281.6683508899999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>68350</v>
-      </c>
-      <c r="K202" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C203" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D203" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E203" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F203" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G203" t="n">
-        <v>271.96835089</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>68550</v>
-      </c>
-      <c r="C204" t="n">
-        <v>68650</v>
-      </c>
-      <c r="D204" t="n">
-        <v>68650</v>
-      </c>
-      <c r="E204" t="n">
-        <v>68550</v>
-      </c>
-      <c r="F204" t="n">
-        <v>7.0825</v>
-      </c>
-      <c r="G204" t="n">
-        <v>279.0508508899999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>68600</v>
-      </c>
-      <c r="C205" t="n">
-        <v>68600</v>
-      </c>
-      <c r="D205" t="n">
-        <v>68600</v>
-      </c>
-      <c r="E205" t="n">
-        <v>68600</v>
-      </c>
-      <c r="F205" t="n">
-        <v>4.5882</v>
-      </c>
-      <c r="G205" t="n">
-        <v>274.46265089</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C206" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D206" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E206" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="G206" t="n">
-        <v>274.44435089</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>68800</v>
-      </c>
-      <c r="C207" t="n">
-        <v>69350</v>
-      </c>
-      <c r="D207" t="n">
-        <v>69400</v>
-      </c>
-      <c r="E207" t="n">
-        <v>68800</v>
-      </c>
-      <c r="F207" t="n">
-        <v>134.7647</v>
-      </c>
-      <c r="G207" t="n">
-        <v>409.20905089</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>69450</v>
-      </c>
-      <c r="C208" t="n">
-        <v>69050</v>
-      </c>
-      <c r="D208" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E208" t="n">
-        <v>69050</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.6996</v>
-      </c>
-      <c r="G208" t="n">
-        <v>408.50945089</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>69150</v>
-      </c>
-      <c r="C209" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D209" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E209" t="n">
-        <v>69150</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10.5362</v>
-      </c>
-      <c r="G209" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>69500</v>
-      </c>
-      <c r="C210" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D210" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E210" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F210" t="n">
-        <v>10.4508</v>
-      </c>
-      <c r="G210" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>69500</v>
-      </c>
-      <c r="C211" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D211" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E211" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1.0323</v>
-      </c>
-      <c r="G211" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>69600</v>
-      </c>
-      <c r="C212" t="n">
-        <v>69700</v>
-      </c>
-      <c r="D212" t="n">
-        <v>69700</v>
-      </c>
-      <c r="E212" t="n">
-        <v>69600</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1.4684</v>
-      </c>
-      <c r="G212" t="n">
-        <v>420.51405089</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>69800</v>
-      </c>
-      <c r="C213" t="n">
-        <v>69950</v>
-      </c>
-      <c r="D213" t="n">
-        <v>69950</v>
-      </c>
-      <c r="E213" t="n">
-        <v>69800</v>
-      </c>
-      <c r="F213" t="n">
-        <v>32.65141358</v>
-      </c>
-      <c r="G213" t="n">
-        <v>453.16546447</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>69700</v>
-      </c>
-      <c r="C214" t="n">
-        <v>69950</v>
-      </c>
-      <c r="D214" t="n">
-        <v>69950</v>
-      </c>
-      <c r="E214" t="n">
-        <v>69700</v>
-      </c>
-      <c r="F214" t="n">
-        <v>4.3398</v>
-      </c>
-      <c r="G214" t="n">
-        <v>453.16546447</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>69950</v>
-      </c>
-      <c r="C215" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D215" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E215" t="n">
-        <v>69950</v>
-      </c>
-      <c r="F215" t="n">
-        <v>19.4572</v>
-      </c>
-      <c r="G215" t="n">
-        <v>472.62266447</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C216" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D216" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E216" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F216" t="n">
-        <v>63.51388314</v>
-      </c>
-      <c r="G216" t="n">
-        <v>472.62266447</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>70050</v>
-      </c>
-      <c r="C217" t="n">
-        <v>70500</v>
-      </c>
-      <c r="D217" t="n">
-        <v>70500</v>
-      </c>
-      <c r="E217" t="n">
-        <v>70050</v>
-      </c>
-      <c r="F217" t="n">
-        <v>43.1198</v>
-      </c>
-      <c r="G217" t="n">
-        <v>515.74246447</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>70500</v>
-      </c>
-      <c r="C218" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D218" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E218" t="n">
-        <v>70200</v>
-      </c>
-      <c r="F218" t="n">
-        <v>39.25744206</v>
-      </c>
-      <c r="G218" t="n">
-        <v>554.99990653</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>71050</v>
-      </c>
-      <c r="C219" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D219" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E219" t="n">
-        <v>70600</v>
-      </c>
-      <c r="F219" t="n">
-        <v>64.1341</v>
-      </c>
-      <c r="G219" t="n">
-        <v>619.13400653</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C220" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D220" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E220" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F220" t="n">
-        <v>14.0135</v>
-      </c>
-      <c r="G220" t="n">
-        <v>619.13400653</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>71150</v>
-      </c>
-      <c r="C221" t="n">
-        <v>71600</v>
-      </c>
-      <c r="D221" t="n">
-        <v>71600</v>
-      </c>
-      <c r="E221" t="n">
-        <v>71050</v>
-      </c>
-      <c r="F221" t="n">
-        <v>53.16</v>
-      </c>
-      <c r="G221" t="n">
-        <v>672.2940065299999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>71500</v>
-      </c>
-      <c r="C222" t="n">
-        <v>71500</v>
-      </c>
-      <c r="D222" t="n">
-        <v>71500</v>
-      </c>
-      <c r="E222" t="n">
-        <v>71500</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G222" t="n">
-        <v>672.27400653</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>71450</v>
-      </c>
-      <c r="C223" t="n">
-        <v>71500</v>
-      </c>
-      <c r="D223" t="n">
-        <v>71500</v>
-      </c>
-      <c r="E223" t="n">
-        <v>71450</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5.9965</v>
-      </c>
-      <c r="G223" t="n">
-        <v>672.27400653</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>66250</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1.074245283018868</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>71500</v>
-      </c>
-      <c r="C224" t="n">
-        <v>71250</v>
-      </c>
-      <c r="D224" t="n">
-        <v>71650</v>
-      </c>
-      <c r="E224" t="n">
-        <v>71250</v>
-      </c>
-      <c r="F224" t="n">
-        <v>31.1302</v>
-      </c>
-      <c r="G224" t="n">
-        <v>641.14380653</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>71400</v>
-      </c>
-      <c r="C225" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D225" t="n">
-        <v>71400</v>
-      </c>
-      <c r="E225" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F225" t="n">
-        <v>16.8372</v>
-      </c>
-      <c r="G225" t="n">
-        <v>624.30660653</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C226" t="n">
-        <v>71050</v>
-      </c>
-      <c r="D226" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E226" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F226" t="n">
-        <v>20.4407</v>
-      </c>
-      <c r="G226" t="n">
-        <v>603.86590653</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>71050</v>
-      </c>
-      <c r="C227" t="n">
-        <v>71050</v>
-      </c>
-      <c r="D227" t="n">
-        <v>71050</v>
-      </c>
-      <c r="E227" t="n">
-        <v>71050</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1.5583</v>
-      </c>
-      <c r="G227" t="n">
-        <v>603.86590653</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C228" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D228" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E228" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2.2686</v>
-      </c>
-      <c r="G228" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C229" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D229" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E229" t="n">
-        <v>70950</v>
-      </c>
-      <c r="F229" t="n">
-        <v>41.1806</v>
-      </c>
-      <c r="G229" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>70900</v>
-      </c>
-      <c r="C230" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D230" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E230" t="n">
-        <v>70900</v>
-      </c>
-      <c r="F230" t="n">
-        <v>24.5942</v>
-      </c>
-      <c r="G230" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C231" t="n">
-        <v>71050</v>
-      </c>
-      <c r="D231" t="n">
-        <v>71050</v>
-      </c>
-      <c r="E231" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F231" t="n">
-        <v>25.4904</v>
-      </c>
-      <c r="G231" t="n">
-        <v>627.08770653</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>71050</v>
-      </c>
-      <c r="C232" t="n">
-        <v>71050</v>
-      </c>
-      <c r="D232" t="n">
-        <v>71050</v>
-      </c>
-      <c r="E232" t="n">
-        <v>71050</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G232" t="n">
-        <v>627.08770653</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C233" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D233" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E233" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F233" t="n">
-        <v>16.1778</v>
-      </c>
-      <c r="G233" t="n">
-        <v>610.9099065299999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C234" t="n">
-        <v>70300</v>
-      </c>
-      <c r="D234" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E234" t="n">
-        <v>70300</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1.0287</v>
-      </c>
-      <c r="G234" t="n">
-        <v>609.88120653</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>70350</v>
-      </c>
-      <c r="C235" t="n">
-        <v>70100</v>
-      </c>
-      <c r="D235" t="n">
-        <v>70350</v>
-      </c>
-      <c r="E235" t="n">
-        <v>70100</v>
-      </c>
-      <c r="F235" t="n">
-        <v>13.4727</v>
-      </c>
-      <c r="G235" t="n">
-        <v>596.40850653</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>70250</v>
-      </c>
-      <c r="C236" t="n">
-        <v>71050</v>
-      </c>
-      <c r="D236" t="n">
-        <v>71050</v>
-      </c>
-      <c r="E236" t="n">
-        <v>70100</v>
-      </c>
-      <c r="F236" t="n">
-        <v>15.1859</v>
-      </c>
-      <c r="G236" t="n">
-        <v>611.5944065299999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C237" t="n">
-        <v>71750</v>
-      </c>
-      <c r="D237" t="n">
-        <v>71750</v>
-      </c>
-      <c r="E237" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F237" t="n">
-        <v>2.6767</v>
-      </c>
-      <c r="G237" t="n">
-        <v>614.2711065299999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C238" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D238" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E238" t="n">
-        <v>71950</v>
-      </c>
-      <c r="F238" t="n">
-        <v>6.7813</v>
-      </c>
-      <c r="G238" t="n">
-        <v>621.0524065299999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-73.14369999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,22 +682,19 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62850</v>
       </c>
       <c r="J9" t="n">
         <v>62850</v>
       </c>
-      <c r="K9" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,26 +719,21 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K10" t="n">
         <v>62850</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -792,26 +758,21 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K11" t="n">
         <v>62850</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,26 +797,15 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -882,22 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,22 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -966,22 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,22 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1050,22 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,22 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1132,24 +1028,19 @@
         <v>-20.54269999999996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>63300</v>
+      </c>
+      <c r="J19" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,24 +1065,23 @@
         <v>-9.739199999999961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>63300</v>
+      </c>
+      <c r="J20" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,22 +1108,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>63300</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1260,22 +1147,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,22 +1180,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,22 +1213,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,22 +1246,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,22 +1279,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1470,22 +1312,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1512,22 +1345,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1554,22 +1378,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1596,22 +1411,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1638,22 +1444,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,22 +1477,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1722,22 +1510,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,22 +1543,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1806,22 +1576,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1848,22 +1609,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1890,22 +1642,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1932,22 +1675,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1974,22 +1708,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2016,22 +1741,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2058,22 +1774,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2100,22 +1807,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2142,22 +1840,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2184,22 +1873,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2226,22 +1906,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2268,22 +1939,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2310,22 +1972,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2352,22 +2005,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2394,22 +2038,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2436,22 +2071,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2478,22 +2104,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2520,22 +2137,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2562,22 +2170,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2604,22 +2203,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2646,22 +2236,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2688,22 +2269,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2730,22 +2302,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2772,22 +2335,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2814,22 +2368,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2856,22 +2401,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2898,22 +2434,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2940,22 +2467,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2982,22 +2500,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3024,22 +2533,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3066,22 +2566,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3108,22 +2599,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3150,22 +2632,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3192,22 +2665,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3234,22 +2698,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3276,22 +2731,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3318,22 +2764,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3360,22 +2797,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3402,22 +2830,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3444,22 +2863,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3486,22 +2896,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3528,22 +2929,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3570,22 +2962,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3612,22 +2995,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3654,22 +3028,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3696,22 +3061,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3738,22 +3094,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3780,22 +3127,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3822,22 +3160,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3864,22 +3193,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3906,24 +3226,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>62850</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1.10876292760541</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1.019401778496362</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3950,16 +3259,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3984,18 +3290,15 @@
         <v>637.55080481</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4022,16 +3325,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4058,16 +3358,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4094,16 +3391,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4130,16 +3424,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4166,16 +3457,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4202,16 +3490,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4238,16 +3523,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4274,16 +3556,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4308,18 +3587,15 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4346,16 +3622,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4382,16 +3655,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4418,16 +3688,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4454,16 +3721,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4490,16 +3754,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4526,16 +3787,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4562,16 +3820,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4598,16 +3853,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4634,16 +3886,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4670,16 +3919,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4706,16 +3952,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4742,16 +3985,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4778,16 +4018,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4814,16 +4051,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4850,16 +4084,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4886,16 +4117,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4922,16 +4150,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4958,16 +4183,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4994,16 +4216,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5030,16 +4249,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5066,16 +4282,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5102,16 +4315,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5138,16 +4348,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5174,16 +4381,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5210,16 +4414,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5246,16 +4447,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5282,16 +4480,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5318,16 +4513,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5354,16 +4546,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5390,16 +4579,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5426,16 +4612,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5462,16 +4645,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5498,16 +4678,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5534,16 +4711,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5570,16 +4744,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5606,16 +4777,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5642,16 +4810,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5678,16 +4843,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5714,16 +4876,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5750,16 +4909,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5786,16 +4942,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5822,16 +4975,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5858,16 +5008,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5894,16 +5041,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5930,16 +5074,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5966,16 +5107,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6002,16 +5140,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6038,16 +5173,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6074,16 +5206,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6110,16 +5239,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6146,16 +5272,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6182,16 +5305,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6218,16 +5338,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6254,16 +5371,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6290,16 +5404,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6326,16 +5437,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6362,16 +5470,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6398,16 +5503,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6434,16 +5536,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6468,18 +5567,15 @@
         <v>315.1183205000001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6504,18 +5600,15 @@
         <v>313.5683205000001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6540,18 +5633,15 @@
         <v>313.5683205000001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6578,16 +5668,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6612,18 +5699,15 @@
         <v>328.7383205</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6648,18 +5732,15 @@
         <v>339.5162205</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6686,16 +5767,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6722,16 +5800,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6758,16 +5833,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6794,16 +5866,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6830,16 +5899,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6866,16 +5932,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6902,16 +5965,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6938,16 +5998,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6974,16 +6031,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7010,16 +6064,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7046,16 +6097,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7082,16 +6130,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7118,16 +6163,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7154,16 +6196,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7190,16 +6229,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7226,16 +6262,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7262,16 +6295,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7298,16 +6328,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7334,16 +6361,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7370,16 +6394,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7404,18 +6425,15 @@
         <v>252.6832811200001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7442,16 +6460,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7476,18 +6491,15 @@
         <v>253.2128669100001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7514,16 +6526,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7550,16 +6559,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7586,16 +6592,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7622,16 +6625,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7658,16 +6658,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7694,16 +6691,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7730,16 +6724,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7764,18 +6755,15 @@
         <v>256.96856691</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7802,16 +6790,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7836,18 +6821,15 @@
         <v>256.96856691</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7874,16 +6856,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7908,18 +6887,15 @@
         <v>259.3668669100001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7946,16 +6922,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7982,16 +6955,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8018,16 +6988,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8054,16 +7021,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8090,16 +7054,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8126,16 +7087,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8162,16 +7120,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8198,16 +7153,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8234,16 +7186,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8270,16 +7219,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8306,16 +7252,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8342,16 +7285,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8378,16 +7318,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8414,16 +7351,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8450,16 +7384,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8486,16 +7417,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8522,16 +7450,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8558,16 +7483,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8594,16 +7516,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8630,16 +7549,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8666,16 +7582,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8702,16 +7615,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8738,16 +7648,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8774,16 +7681,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8810,16 +7714,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8846,16 +7747,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8882,16 +7780,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8916,18 +7811,15 @@
         <v>227.40155089</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8952,18 +7844,15 @@
         <v>227.40155089</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8988,18 +7877,15 @@
         <v>228.40155089</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9026,16 +7912,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9060,18 +7943,15 @@
         <v>246.28685089</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9098,16 +7978,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9134,16 +8011,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9170,16 +8044,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9206,16 +8077,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9242,16 +8110,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9278,16 +8143,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9314,16 +8176,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9350,16 +8209,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9386,16 +8242,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9422,16 +8275,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9456,18 +8306,15 @@
         <v>419.04565089</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9492,18 +8339,15 @@
         <v>419.04565089</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9528,18 +8372,15 @@
         <v>420.51405089</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9564,18 +8405,15 @@
         <v>453.16546447</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9600,18 +8438,15 @@
         <v>453.16546447</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9636,18 +8471,15 @@
         <v>472.62266447</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9672,18 +8504,15 @@
         <v>472.62266447</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9708,18 +8537,15 @@
         <v>515.74246447</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9744,18 +8570,15 @@
         <v>554.99990653</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9780,18 +8603,15 @@
         <v>619.13400653</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9818,16 +8638,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9852,18 +8669,15 @@
         <v>672.2940065299999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9888,18 +8702,15 @@
         <v>672.27400653</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9924,18 +8735,15 @@
         <v>672.27400653</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9962,16 +8770,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9998,16 +8803,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10032,18 +8834,15 @@
         <v>603.86590653</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10070,16 +8869,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10106,16 +8902,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10140,18 +8933,15 @@
         <v>601.59730653</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10178,16 +8968,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10212,18 +8999,15 @@
         <v>627.08770653</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10250,16 +9034,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10284,18 +9065,15 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10322,16 +9100,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10356,18 +9131,15 @@
         <v>596.40850653</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10394,16 +9166,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10428,18 +9197,15 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10466,18 +9232,15 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>-69.61929999999995</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>63000</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>-72.68529999999996</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62950</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,19 @@
         <v>-72.68529999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62850</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,15 +702,19 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>62850</v>
       </c>
       <c r="J9" t="n">
-        <v>62850</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,15 +743,17 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>63000</v>
+      </c>
       <c r="J10" t="n">
-        <v>62850</v>
+        <v>63000</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -758,15 +784,17 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>63000</v>
+      </c>
       <c r="J11" t="n">
-        <v>62850</v>
+        <v>63000</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -797,11 +825,19 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -833,8 +869,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -866,8 +908,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -899,8 +947,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -929,11 +983,19 @@
         <v>-49.70479999999996</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>63050</v>
+      </c>
+      <c r="J16" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -965,8 +1027,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -995,11 +1063,19 @@
         <v>-20.54269999999996</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>63150</v>
+      </c>
+      <c r="J18" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1028,15 +1104,19 @@
         <v>-20.54269999999996</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>63300</v>
       </c>
       <c r="J19" t="n">
-        <v>63300</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,17 +1145,15 @@
         <v>-9.739199999999961</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1110,11 +1188,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1148,8 +1226,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1181,8 +1265,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1214,8 +1304,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1247,8 +1343,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1280,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1313,8 +1421,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1346,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1379,8 +1499,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,11 +1535,19 @@
         <v>-2.573199999999964</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>62700</v>
+      </c>
+      <c r="J30" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1445,8 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1478,8 +1618,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1511,8 +1657,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1544,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1577,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1610,8 +1774,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1643,8 +1813,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1676,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1709,8 +1891,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1742,8 +1930,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1775,8 +1969,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1808,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1841,8 +2047,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1874,8 +2086,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1907,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1940,8 +2164,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1973,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2006,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2039,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2072,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2105,8 +2359,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2138,8 +2398,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2171,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2204,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2237,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2270,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2593,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2632,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2671,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2402,8 +2710,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2749,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2866,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2905,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2600,8 +2944,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +3022,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +3061,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +3100,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +3139,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +3178,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3295,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2930,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2963,8 +3373,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3412,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3029,8 +3451,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3062,8 +3490,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3529,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3568,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3161,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3760,17 @@
         <v>637.55080481</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3841,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3880,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3919,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +3958,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +3997,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +4036,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +4111,17 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +4153,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4192,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4231,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4309,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3950,15 +4540,23 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>63000</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>1.083888888888889</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.019401778496362</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3983,7 +4581,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4049,7 +4647,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4082,7 +4680,7 @@
         <v>471.0269871800002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4115,7 +4713,7 @@
         <v>455.7516871800001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4148,7 +4746,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4181,7 +4779,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4346,7 +4944,7 @@
         <v>456.5054871800001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4379,7 +4977,7 @@
         <v>456.5749871800001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4412,7 +5010,7 @@
         <v>456.6049871800001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4445,7 +5043,7 @@
         <v>457.6049871800001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4511,7 +5109,7 @@
         <v>470.7667871800001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4577,7 +5175,7 @@
         <v>385.23128718</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4610,7 +5208,7 @@
         <v>385.83493601</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4643,7 +5241,7 @@
         <v>385.83493601</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4676,7 +5274,7 @@
         <v>383.15633601</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5567,7 +6165,7 @@
         <v>315.1183205000001</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5600,7 +6198,7 @@
         <v>313.5683205000001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5633,7 +6231,7 @@
         <v>313.5683205000001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5699,7 +6297,7 @@
         <v>328.7383205</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5732,7 +6330,7 @@
         <v>339.5162205</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6425,7 +7023,7 @@
         <v>252.6832811200001</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6491,7 +7089,7 @@
         <v>253.2128669100001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6755,7 +7353,7 @@
         <v>256.96856691</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6821,7 +7419,7 @@
         <v>256.96856691</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6887,7 +7485,7 @@
         <v>259.3668669100001</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7811,7 +8409,7 @@
         <v>227.40155089</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7844,7 +8442,7 @@
         <v>227.40155089</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7877,7 +8475,7 @@
         <v>228.40155089</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7943,7 +8541,7 @@
         <v>246.28685089</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8306,7 +8904,7 @@
         <v>419.04565089</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8339,7 +8937,7 @@
         <v>419.04565089</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8372,7 +8970,7 @@
         <v>420.51405089</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8405,7 +9003,7 @@
         <v>453.16546447</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8438,7 +9036,7 @@
         <v>453.16546447</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8471,7 +9069,7 @@
         <v>472.62266447</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8504,7 +9102,7 @@
         <v>472.62266447</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8537,7 +9135,7 @@
         <v>515.74246447</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8570,7 +9168,7 @@
         <v>554.99990653</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8603,7 +9201,7 @@
         <v>619.13400653</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8669,7 +9267,7 @@
         <v>672.2940065299999</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8702,7 +9300,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8735,7 +9333,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8834,7 +9432,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8867,7 +9465,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8900,7 +9498,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8933,7 +9531,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8966,7 +9564,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8999,7 +9597,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9032,7 +9630,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9065,7 +9663,7 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9098,7 +9696,7 @@
         <v>609.88120653</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9131,7 +9729,7 @@
         <v>596.40850653</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9164,7 +9762,7 @@
         <v>611.5944065299999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9197,7 +9795,7 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9230,7 +9828,7 @@
         <v>621.0524065299999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9241,6 +9839,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-73.14369999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-72.53669999999995</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62100</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-68.93669999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62550</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62100</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-69.03669999999995</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63050</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62100</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -702,11 +722,9 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>62850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>63000</v>
       </c>
@@ -743,11 +761,9 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>63000</v>
       </c>
@@ -784,11 +800,9 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>63000</v>
       </c>
@@ -825,11 +839,9 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>63000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>63000</v>
       </c>
@@ -905,9 +917,11 @@
         <v>-61.99899999999996</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62900</v>
+      </c>
       <c r="J14" t="n">
         <v>63000</v>
       </c>
@@ -944,9 +958,11 @@
         <v>-60.20939999999996</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>63000</v>
+      </c>
       <c r="J15" t="n">
         <v>63000</v>
       </c>
@@ -1024,9 +1040,11 @@
         <v>-53.89359999999996</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>63250</v>
+      </c>
       <c r="J17" t="n">
         <v>63000</v>
       </c>
@@ -2044,7 +2062,7 @@
         <v>77.84050000000003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2052,11 +2070,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>1.03468253968254</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2086,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +2200,11 @@
         <v>87.55150000000003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2359,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2398,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2512,17 +2464,11 @@
         <v>160.4783</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2551,17 +2497,11 @@
         <v>160.4783</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2530,11 @@
         <v>160.4783</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2629,17 +2563,11 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2596,11 @@
         <v>168.1043000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2629,11 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2746,17 +2662,11 @@
         <v>178.6387000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2785,17 +2695,11 @@
         <v>183.2591</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2728,11 @@
         <v>183.2591</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2863,17 +2761,11 @@
         <v>197.2591</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2794,11 @@
         <v>197.2591</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2827,11 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2860,11 @@
         <v>204.1591000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2893,11 @@
         <v>220.9584</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +2926,11 @@
         <v>220.9584</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +2959,11 @@
         <v>270.1575</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +2992,11 @@
         <v>309.3534</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +3025,11 @@
         <v>316.64086311</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +3058,11 @@
         <v>372.07586311</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +3091,11 @@
         <v>391.56556311</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3292,17 +3124,11 @@
         <v>384.97036311</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +3157,11 @@
         <v>390.53150153</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +3190,11 @@
         <v>370.52550153</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3409,17 +3223,11 @@
         <v>378.2290015300001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +3256,11 @@
         <v>401.15140153</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3289,11 @@
         <v>490.31830153</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3919,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3997,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4036,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4072,17 +3784,11 @@
         <v>460.0931508600002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4111,17 +3817,11 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4150,17 +3850,11 @@
         <v>454.2047508600002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4189,17 +3883,11 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4228,17 +3916,11 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4267,17 +3949,11 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4306,17 +3982,11 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4462,17 +4114,11 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4543,20 +4183,12 @@
         <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.083888888888889</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1.019401778496362</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4614,7 +4246,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4812,7 +4444,7 @@
         <v>461.6954871800002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4845,7 +4477,7 @@
         <v>459.5697871800002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4944,7 +4576,7 @@
         <v>456.5054871800001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4977,7 +4609,7 @@
         <v>456.5749871800001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5010,7 +4642,7 @@
         <v>456.6049871800001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5043,7 +4675,7 @@
         <v>457.6049871800001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5109,7 +4741,7 @@
         <v>470.7667871800001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5175,7 +4807,7 @@
         <v>385.23128718</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5208,7 +4840,7 @@
         <v>385.83493601</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5241,7 +4873,7 @@
         <v>385.83493601</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5274,7 +4906,7 @@
         <v>383.15633601</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7782,7 +7414,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7815,7 +7447,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7848,7 +7480,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7881,7 +7513,7 @@
         <v>292.81726691</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7914,7 +7546,7 @@
         <v>288.70726691</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -9432,7 +9064,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9465,7 +9097,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9498,7 +9130,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9531,7 +9163,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9564,7 +9196,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9597,7 +9229,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9630,7 +9262,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9663,7 +9295,7 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9696,7 +9328,7 @@
         <v>609.88120653</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9729,7 +9361,7 @@
         <v>596.40850653</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9762,7 +9394,7 @@
         <v>611.5944065299999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9795,7 +9427,7 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9828,7 +9460,7 @@
         <v>621.0524065299999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9839,6 +9471,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>-73.14369999999995</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-72.53669999999995</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,97 +517,87 @@
         <v>-68.93669999999996</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62550</v>
-      </c>
-      <c r="J4" t="n">
-        <v>62100</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-69.03669999999995</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>63050</v>
+      </c>
+      <c r="J5" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62950</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62950</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62950</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62950</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-69.61929999999995</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>63000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>63000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-69.03669999999995</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>63050</v>
-      </c>
-      <c r="J5" t="n">
-        <v>62100</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>62950</v>
-      </c>
-      <c r="C6" t="n">
-        <v>62950</v>
-      </c>
-      <c r="D6" t="n">
-        <v>62950</v>
-      </c>
-      <c r="E6" t="n">
-        <v>62950</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5826</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-69.61929999999995</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>63000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>63000</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -646,7 +632,7 @@
         <v>62950</v>
       </c>
       <c r="J7" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -687,7 +673,7 @@
         <v>62850</v>
       </c>
       <c r="J8" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -722,11 +708,13 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62850</v>
+      </c>
       <c r="J9" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -761,11 +749,13 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>63000</v>
+      </c>
       <c r="J10" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -800,11 +790,13 @@
         <v>-65.98529999999995</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>63000</v>
+      </c>
       <c r="J11" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -839,11 +831,13 @@
         <v>-51.98529999999995</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>63000</v>
+      </c>
       <c r="J12" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -878,11 +872,13 @@
         <v>-62.79919999999996</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>63100</v>
+      </c>
       <c r="J13" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -923,7 +919,7 @@
         <v>62900</v>
       </c>
       <c r="J14" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -964,7 +960,7 @@
         <v>63000</v>
       </c>
       <c r="J15" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -999,13 +995,11 @@
         <v>-49.70479999999996</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>63050</v>
-      </c>
-      <c r="J16" t="n">
-        <v>63000</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1046,7 +1040,7 @@
         <v>63250</v>
       </c>
       <c r="J17" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1087,7 +1081,7 @@
         <v>63150</v>
       </c>
       <c r="J18" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1128,7 +1122,7 @@
         <v>63300</v>
       </c>
       <c r="J19" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1167,7 +1161,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1206,7 +1200,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1245,7 +1239,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1284,7 +1278,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1323,7 +1317,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1362,7 +1356,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1401,7 +1395,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1440,7 +1434,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1479,7 +1473,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1518,7 +1512,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1553,13 +1547,11 @@
         <v>-2.573199999999964</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>62700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1598,7 +1590,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1637,7 +1629,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1676,7 +1668,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1715,7 +1707,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1754,7 +1746,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1793,7 +1785,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1832,7 +1824,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1871,7 +1863,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1910,7 +1902,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1949,7 +1941,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1988,7 +1980,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2027,7 +2019,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2062,1473 +2054,1739 @@
         <v>77.84050000000003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>63000</v>
+        <v>63050</v>
       </c>
       <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>65550</v>
+      </c>
+      <c r="C44" t="n">
+        <v>65550</v>
+      </c>
+      <c r="D44" t="n">
+        <v>65550</v>
+      </c>
+      <c r="E44" t="n">
+        <v>65550</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.5988</v>
+      </c>
+      <c r="G44" t="n">
+        <v>81.43930000000003</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>65550</v>
+      </c>
+      <c r="C45" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D45" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E45" t="n">
+        <v>65550</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.1122</v>
+      </c>
+      <c r="G45" t="n">
+        <v>87.55150000000003</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C46" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D46" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E46" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>87.55150000000003</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C47" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D47" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E47" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.8156</v>
+      </c>
+      <c r="G47" t="n">
+        <v>87.55150000000003</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65550</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65550</v>
+      </c>
+      <c r="D48" t="n">
+        <v>65550</v>
+      </c>
+      <c r="E48" t="n">
+        <v>65550</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>77.55150000000003</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>65500</v>
+      </c>
+      <c r="C49" t="n">
+        <v>65500</v>
+      </c>
+      <c r="D49" t="n">
+        <v>65500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>65500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="n">
+        <v>67.55150000000003</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>65550</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65550</v>
+      </c>
+      <c r="D50" t="n">
+        <v>65550</v>
+      </c>
+      <c r="E50" t="n">
+        <v>65550</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12</v>
+      </c>
+      <c r="G50" t="n">
+        <v>79.55150000000003</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D51" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E51" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.8133</v>
+      </c>
+      <c r="G51" t="n">
+        <v>84.36480000000003</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D52" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E52" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.2252</v>
+      </c>
+      <c r="G52" t="n">
+        <v>84.36480000000003</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C53" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D53" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E53" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F53" t="n">
+        <v>51.7094</v>
+      </c>
+      <c r="G53" t="n">
+        <v>84.36480000000003</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65600</v>
+      </c>
+      <c r="D54" t="n">
+        <v>65600</v>
+      </c>
+      <c r="E54" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F54" t="n">
+        <v>41.2814</v>
+      </c>
+      <c r="G54" t="n">
+        <v>84.36480000000003</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>65600</v>
+      </c>
+      <c r="C55" t="n">
+        <v>66000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>65600</v>
+      </c>
+      <c r="F55" t="n">
+        <v>76.1135</v>
+      </c>
+      <c r="G55" t="n">
+        <v>160.4783</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>66000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.1337</v>
+      </c>
+      <c r="G56" t="n">
+        <v>160.4783</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>66000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>66000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.1337</v>
+      </c>
+      <c r="G57" t="n">
+        <v>160.4783</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>66000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66050</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66050</v>
+      </c>
+      <c r="E58" t="n">
+        <v>65650</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.626</v>
+      </c>
+      <c r="G58" t="n">
+        <v>168.1043000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>66050</v>
+      </c>
+      <c r="C59" t="n">
+        <v>66050</v>
+      </c>
+      <c r="D59" t="n">
+        <v>66050</v>
+      </c>
+      <c r="E59" t="n">
+        <v>66050</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.9464</v>
+      </c>
+      <c r="G59" t="n">
+        <v>168.1043000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>66200</v>
+      </c>
+      <c r="C60" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D60" t="n">
+        <v>66400</v>
+      </c>
+      <c r="E60" t="n">
+        <v>66200</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10.5344</v>
+      </c>
+      <c r="G60" t="n">
+        <v>178.6387000000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>66400</v>
+      </c>
+      <c r="C61" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D61" t="n">
+        <v>66400</v>
+      </c>
+      <c r="E61" t="n">
+        <v>66400</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.7384</v>
+      </c>
+      <c r="G61" t="n">
+        <v>178.6387000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66400</v>
+      </c>
+      <c r="C62" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D62" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E62" t="n">
+        <v>66400</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.6204</v>
+      </c>
+      <c r="G62" t="n">
+        <v>183.2591</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C63" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D63" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E63" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G63" t="n">
+        <v>183.2591</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C64" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D64" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>66750</v>
+      </c>
+      <c r="F64" t="n">
+        <v>14</v>
+      </c>
+      <c r="G64" t="n">
+        <v>197.2591</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C65" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D65" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>67100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>197.2591</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C66" t="n">
+        <v>67200</v>
+      </c>
+      <c r="D66" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E66" t="n">
+        <v>67100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>204.1591000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C67" t="n">
+        <v>67200</v>
+      </c>
+      <c r="D67" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E67" t="n">
+        <v>67200</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.7344</v>
+      </c>
+      <c r="G67" t="n">
+        <v>204.1591000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C68" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D68" t="n">
+        <v>67250</v>
+      </c>
+      <c r="E68" t="n">
+        <v>67200</v>
+      </c>
+      <c r="F68" t="n">
+        <v>16.7993</v>
+      </c>
+      <c r="G68" t="n">
+        <v>220.9584</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67250</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67250</v>
+      </c>
+      <c r="D69" t="n">
+        <v>67250</v>
+      </c>
+      <c r="E69" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F69" t="n">
+        <v>92.0534</v>
+      </c>
+      <c r="G69" t="n">
+        <v>220.9584</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>67250</v>
+      </c>
+      <c r="C70" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D70" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E70" t="n">
+        <v>67250</v>
+      </c>
+      <c r="F70" t="n">
+        <v>49.1991</v>
+      </c>
+      <c r="G70" t="n">
+        <v>270.1575</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C71" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D71" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E71" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F71" t="n">
+        <v>39.1959</v>
+      </c>
+      <c r="G71" t="n">
+        <v>309.3534</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C72" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D72" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E72" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.28746311</v>
+      </c>
+      <c r="G72" t="n">
+        <v>316.64086311</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C73" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D73" t="n">
+        <v>68550</v>
+      </c>
+      <c r="E73" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F73" t="n">
+        <v>55.435</v>
+      </c>
+      <c r="G73" t="n">
+        <v>372.07586311</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C74" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D74" t="n">
+        <v>68650</v>
+      </c>
+      <c r="E74" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19.4897</v>
+      </c>
+      <c r="G74" t="n">
+        <v>391.56556311</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>68150</v>
+      </c>
+      <c r="C75" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D75" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E75" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.5952</v>
+      </c>
+      <c r="G75" t="n">
+        <v>384.97036311</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>68600</v>
+      </c>
+      <c r="C76" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D76" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E76" t="n">
+        <v>68600</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5.56113842</v>
+      </c>
+      <c r="G76" t="n">
+        <v>390.53150153</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>68150</v>
+      </c>
+      <c r="C77" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D77" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E77" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.006</v>
+      </c>
+      <c r="G77" t="n">
+        <v>370.52550153</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>68850</v>
+      </c>
+      <c r="C78" t="n">
+        <v>68900</v>
+      </c>
+      <c r="D78" t="n">
+        <v>68900</v>
+      </c>
+      <c r="E78" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7.7035</v>
+      </c>
+      <c r="G78" t="n">
+        <v>378.2290015300001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>68950</v>
+      </c>
+      <c r="C79" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D79" t="n">
+        <v>69200</v>
+      </c>
+      <c r="E79" t="n">
+        <v>68950</v>
+      </c>
+      <c r="F79" t="n">
+        <v>22.9224</v>
+      </c>
+      <c r="G79" t="n">
+        <v>401.15140153</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>69300</v>
+      </c>
+      <c r="C80" t="n">
+        <v>69450</v>
+      </c>
+      <c r="D80" t="n">
+        <v>69450</v>
+      </c>
+      <c r="E80" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F80" t="n">
+        <v>89.1669</v>
+      </c>
+      <c r="G80" t="n">
+        <v>490.31830153</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C81" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D81" t="n">
+        <v>69500</v>
+      </c>
+      <c r="E81" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>490.4183015300001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C82" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F82" t="n">
+        <v>56.699814</v>
+      </c>
+      <c r="G82" t="n">
+        <v>547.1181155300001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C83" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D83" t="n">
+        <v>69900</v>
+      </c>
+      <c r="E83" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.9935</v>
+      </c>
+      <c r="G83" t="n">
+        <v>544.12461553</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C84" t="n">
+        <v>69900</v>
+      </c>
+      <c r="D84" t="n">
+        <v>69900</v>
+      </c>
+      <c r="E84" t="n">
+        <v>69900</v>
+      </c>
+      <c r="F84" t="n">
+        <v>9.233499999999999</v>
+      </c>
+      <c r="G84" t="n">
+        <v>553.3581155300001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>69900</v>
+      </c>
+      <c r="C85" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>69900</v>
+      </c>
+      <c r="F85" t="n">
+        <v>84.19268928</v>
+      </c>
+      <c r="G85" t="n">
+        <v>637.55080481</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>70.9592</v>
+      </c>
+      <c r="G86" t="n">
+        <v>637.55080481</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C87" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>49.1937</v>
+      </c>
+      <c r="G87" t="n">
+        <v>637.55080481</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>63050</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1.03468253968254</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>65550</v>
-      </c>
-      <c r="C44" t="n">
-        <v>65550</v>
-      </c>
-      <c r="D44" t="n">
-        <v>65550</v>
-      </c>
-      <c r="E44" t="n">
-        <v>65550</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3.5988</v>
-      </c>
-      <c r="G44" t="n">
-        <v>81.43930000000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>65550</v>
-      </c>
-      <c r="C45" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D45" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E45" t="n">
-        <v>65550</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6.1122</v>
-      </c>
-      <c r="G45" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C46" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D46" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E46" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G46" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C47" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D47" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E47" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.8156</v>
-      </c>
-      <c r="G47" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>65550</v>
-      </c>
-      <c r="C48" t="n">
-        <v>65550</v>
-      </c>
-      <c r="D48" t="n">
-        <v>65550</v>
-      </c>
-      <c r="E48" t="n">
-        <v>65550</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
-      </c>
-      <c r="G48" t="n">
-        <v>77.55150000000003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>65500</v>
-      </c>
-      <c r="C49" t="n">
-        <v>65500</v>
-      </c>
-      <c r="D49" t="n">
-        <v>65500</v>
-      </c>
-      <c r="E49" t="n">
-        <v>65500</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10</v>
-      </c>
-      <c r="G49" t="n">
-        <v>67.55150000000003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>65550</v>
-      </c>
-      <c r="C50" t="n">
-        <v>65550</v>
-      </c>
-      <c r="D50" t="n">
-        <v>65550</v>
-      </c>
-      <c r="E50" t="n">
-        <v>65550</v>
-      </c>
-      <c r="F50" t="n">
-        <v>12</v>
-      </c>
-      <c r="G50" t="n">
-        <v>79.55150000000003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C51" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D51" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E51" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4.8133</v>
-      </c>
-      <c r="G51" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C52" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D52" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E52" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3.2252</v>
-      </c>
-      <c r="G52" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C53" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D53" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E53" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F53" t="n">
-        <v>51.7094</v>
-      </c>
-      <c r="G53" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C54" t="n">
-        <v>65600</v>
-      </c>
-      <c r="D54" t="n">
-        <v>65600</v>
-      </c>
-      <c r="E54" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F54" t="n">
-        <v>41.2814</v>
-      </c>
-      <c r="G54" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>65600</v>
-      </c>
-      <c r="C55" t="n">
-        <v>66000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>66000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>65600</v>
-      </c>
-      <c r="F55" t="n">
-        <v>76.1135</v>
-      </c>
-      <c r="G55" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>66000</v>
-      </c>
-      <c r="C56" t="n">
-        <v>66000</v>
-      </c>
-      <c r="D56" t="n">
-        <v>66000</v>
-      </c>
-      <c r="E56" t="n">
-        <v>66000</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3.1337</v>
-      </c>
-      <c r="G56" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>66000</v>
-      </c>
-      <c r="C57" t="n">
-        <v>66000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>66000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>66000</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3.1337</v>
-      </c>
-      <c r="G57" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>66000</v>
-      </c>
-      <c r="C58" t="n">
-        <v>66050</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66050</v>
-      </c>
-      <c r="E58" t="n">
-        <v>65650</v>
-      </c>
-      <c r="F58" t="n">
-        <v>7.626</v>
-      </c>
-      <c r="G58" t="n">
-        <v>168.1043000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>66050</v>
-      </c>
-      <c r="C59" t="n">
-        <v>66050</v>
-      </c>
-      <c r="D59" t="n">
-        <v>66050</v>
-      </c>
-      <c r="E59" t="n">
-        <v>66050</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.9464</v>
-      </c>
-      <c r="G59" t="n">
-        <v>168.1043000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>66200</v>
-      </c>
-      <c r="C60" t="n">
-        <v>66400</v>
-      </c>
-      <c r="D60" t="n">
-        <v>66400</v>
-      </c>
-      <c r="E60" t="n">
-        <v>66200</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10.5344</v>
-      </c>
-      <c r="G60" t="n">
-        <v>178.6387000000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>66400</v>
-      </c>
-      <c r="C61" t="n">
-        <v>66400</v>
-      </c>
-      <c r="D61" t="n">
-        <v>66400</v>
-      </c>
-      <c r="E61" t="n">
-        <v>66400</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7.7384</v>
-      </c>
-      <c r="G61" t="n">
-        <v>178.6387000000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>66400</v>
-      </c>
-      <c r="C62" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D62" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E62" t="n">
-        <v>66400</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4.6204</v>
-      </c>
-      <c r="G62" t="n">
-        <v>183.2591</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C63" t="n">
-        <v>66800</v>
-      </c>
-      <c r="D63" t="n">
-        <v>66800</v>
-      </c>
-      <c r="E63" t="n">
-        <v>66800</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G63" t="n">
-        <v>183.2591</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>66800</v>
-      </c>
-      <c r="C64" t="n">
-        <v>67100</v>
-      </c>
-      <c r="D64" t="n">
-        <v>67100</v>
-      </c>
-      <c r="E64" t="n">
-        <v>66750</v>
-      </c>
-      <c r="F64" t="n">
-        <v>14</v>
-      </c>
-      <c r="G64" t="n">
-        <v>197.2591</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>67100</v>
-      </c>
-      <c r="C65" t="n">
-        <v>67100</v>
-      </c>
-      <c r="D65" t="n">
-        <v>67100</v>
-      </c>
-      <c r="E65" t="n">
-        <v>67100</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>197.2591</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>67100</v>
-      </c>
-      <c r="C66" t="n">
-        <v>67200</v>
-      </c>
-      <c r="D66" t="n">
-        <v>67200</v>
-      </c>
-      <c r="E66" t="n">
-        <v>67100</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G66" t="n">
-        <v>204.1591000000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>67200</v>
-      </c>
-      <c r="C67" t="n">
-        <v>67200</v>
-      </c>
-      <c r="D67" t="n">
-        <v>67200</v>
-      </c>
-      <c r="E67" t="n">
-        <v>67200</v>
-      </c>
-      <c r="F67" t="n">
-        <v>7.7344</v>
-      </c>
-      <c r="G67" t="n">
-        <v>204.1591000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>67200</v>
-      </c>
-      <c r="C68" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E68" t="n">
-        <v>67200</v>
-      </c>
-      <c r="F68" t="n">
-        <v>16.7993</v>
-      </c>
-      <c r="G68" t="n">
-        <v>220.9584</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>67250</v>
-      </c>
-      <c r="C69" t="n">
-        <v>67250</v>
-      </c>
-      <c r="D69" t="n">
-        <v>67250</v>
-      </c>
-      <c r="E69" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F69" t="n">
-        <v>92.0534</v>
-      </c>
-      <c r="G69" t="n">
-        <v>220.9584</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>67250</v>
-      </c>
-      <c r="C70" t="n">
-        <v>67800</v>
-      </c>
-      <c r="D70" t="n">
-        <v>67800</v>
-      </c>
-      <c r="E70" t="n">
-        <v>67250</v>
-      </c>
-      <c r="F70" t="n">
-        <v>49.1991</v>
-      </c>
-      <c r="G70" t="n">
-        <v>270.1575</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C71" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D71" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E71" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F71" t="n">
-        <v>39.1959</v>
-      </c>
-      <c r="G71" t="n">
-        <v>309.3534</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C72" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D72" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E72" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7.28746311</v>
-      </c>
-      <c r="G72" t="n">
-        <v>316.64086311</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C73" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D73" t="n">
-        <v>68550</v>
-      </c>
-      <c r="E73" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F73" t="n">
-        <v>55.435</v>
-      </c>
-      <c r="G73" t="n">
-        <v>372.07586311</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C74" t="n">
-        <v>68650</v>
-      </c>
-      <c r="D74" t="n">
-        <v>68650</v>
-      </c>
-      <c r="E74" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19.4897</v>
-      </c>
-      <c r="G74" t="n">
-        <v>391.56556311</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>68150</v>
-      </c>
-      <c r="C75" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D75" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E75" t="n">
-        <v>68150</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6.5952</v>
-      </c>
-      <c r="G75" t="n">
-        <v>384.97036311</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>68600</v>
-      </c>
-      <c r="C76" t="n">
-        <v>68700</v>
-      </c>
-      <c r="D76" t="n">
-        <v>68700</v>
-      </c>
-      <c r="E76" t="n">
-        <v>68600</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5.56113842</v>
-      </c>
-      <c r="G76" t="n">
-        <v>390.53150153</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>68150</v>
-      </c>
-      <c r="C77" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D77" t="n">
-        <v>68800</v>
-      </c>
-      <c r="E77" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F77" t="n">
-        <v>20.006</v>
-      </c>
-      <c r="G77" t="n">
-        <v>370.52550153</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>68850</v>
-      </c>
-      <c r="C78" t="n">
-        <v>68900</v>
-      </c>
-      <c r="D78" t="n">
-        <v>68900</v>
-      </c>
-      <c r="E78" t="n">
-        <v>68850</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.7035</v>
-      </c>
-      <c r="G78" t="n">
-        <v>378.2290015300001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>68950</v>
-      </c>
-      <c r="C79" t="n">
-        <v>69200</v>
-      </c>
-      <c r="D79" t="n">
-        <v>69200</v>
-      </c>
-      <c r="E79" t="n">
-        <v>68950</v>
-      </c>
-      <c r="F79" t="n">
-        <v>22.9224</v>
-      </c>
-      <c r="G79" t="n">
-        <v>401.15140153</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>69300</v>
-      </c>
-      <c r="C80" t="n">
-        <v>69450</v>
-      </c>
-      <c r="D80" t="n">
-        <v>69450</v>
-      </c>
-      <c r="E80" t="n">
-        <v>69300</v>
-      </c>
-      <c r="F80" t="n">
-        <v>89.1669</v>
-      </c>
-      <c r="G80" t="n">
-        <v>490.31830153</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>69500</v>
-      </c>
-      <c r="C81" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D81" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E81" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>490.4183015300001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>69500</v>
-      </c>
-      <c r="C82" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D82" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E82" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F82" t="n">
-        <v>56.699814</v>
-      </c>
-      <c r="G82" t="n">
-        <v>547.1181155300001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>69900</v>
-      </c>
-      <c r="C83" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D83" t="n">
-        <v>69900</v>
-      </c>
-      <c r="E83" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.9935</v>
-      </c>
-      <c r="G83" t="n">
-        <v>544.12461553</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>69900</v>
-      </c>
-      <c r="C84" t="n">
-        <v>69900</v>
-      </c>
-      <c r="D84" t="n">
-        <v>69900</v>
-      </c>
-      <c r="E84" t="n">
-        <v>69900</v>
-      </c>
-      <c r="F84" t="n">
-        <v>9.233499999999999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>553.3581155300001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>69900</v>
-      </c>
-      <c r="C85" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D85" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E85" t="n">
-        <v>69900</v>
-      </c>
-      <c r="F85" t="n">
-        <v>84.19268928</v>
-      </c>
-      <c r="G85" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C86" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D86" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E86" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F86" t="n">
-        <v>70.9592</v>
-      </c>
-      <c r="G86" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C87" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D87" t="n">
-        <v>70000</v>
-      </c>
-      <c r="E87" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F87" t="n">
-        <v>49.1937</v>
-      </c>
-      <c r="G87" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>1.105229976209358</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.019401778496362</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3784,7 +4042,7 @@
         <v>460.0931508600002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3817,7 +4075,7 @@
         <v>447.2624508600002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3850,7 +4108,7 @@
         <v>454.2047508600002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3883,7 +4141,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3916,7 +4174,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3949,7 +4207,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3982,7 +4240,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4114,7 +4372,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4180,7 +4438,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4213,7 +4471,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4246,7 +4504,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4279,7 +4537,7 @@
         <v>483.8234508600002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4312,7 +4570,7 @@
         <v>471.0269871800002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4345,7 +4603,7 @@
         <v>455.7516871800001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4378,7 +4636,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4411,7 +4669,7 @@
         <v>461.5954871800001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4444,7 +4702,7 @@
         <v>461.6954871800002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4477,7 +4735,7 @@
         <v>459.5697871800002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -7414,7 +7672,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7447,7 +7705,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7480,7 +7738,7 @@
         <v>292.83216691</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7513,7 +7771,7 @@
         <v>292.81726691</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7546,7 +7804,7 @@
         <v>288.70726691</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8899,7 +9157,7 @@
         <v>672.2940065299999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8932,7 +9190,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8965,7 +9223,7 @@
         <v>672.27400653</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8998,7 +9256,7 @@
         <v>641.14380653</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9031,7 +9289,7 @@
         <v>624.30660653</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9064,7 +9322,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9097,7 +9355,7 @@
         <v>603.86590653</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9130,7 +9388,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9163,7 +9421,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9196,7 +9454,7 @@
         <v>601.59730653</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9229,7 +9487,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9262,7 +9520,7 @@
         <v>627.08770653</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9295,7 +9553,7 @@
         <v>610.9099065299999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9328,7 +9586,7 @@
         <v>609.88120653</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9361,7 +9619,7 @@
         <v>596.40850653</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9394,7 +9652,7 @@
         <v>611.5944065299999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9427,7 +9685,7 @@
         <v>614.2711065299999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9460,7 +9718,7 @@
         <v>621.0524065299999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest DASH.xlsx
+++ b/BackTest/2020-01-12 BackTest DASH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9.544700000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-73.14369999999995</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>0.607</v>
       </c>
       <c r="G3" t="n">
-        <v>-72.53669999999995</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>62100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62100</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>-68.93669999999996</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>62550</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,22 +545,23 @@
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>-69.03669999999995</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>63050</v>
       </c>
       <c r="I5" t="n">
-        <v>63050</v>
-      </c>
-      <c r="J5" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>62100</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,24 +583,19 @@
         <v>0.5826</v>
       </c>
       <c r="G6" t="n">
-        <v>-69.61929999999995</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,26 +617,23 @@
         <v>3.066</v>
       </c>
       <c r="G7" t="n">
-        <v>-72.68529999999996</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>62950</v>
       </c>
       <c r="I7" t="n">
-        <v>62950</v>
-      </c>
-      <c r="J7" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>63000</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,26 +655,23 @@
         <v>0.3539</v>
       </c>
       <c r="G8" t="n">
-        <v>-72.68529999999996</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>62850</v>
       </c>
       <c r="I8" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J8" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,26 +693,23 @@
         <v>6.7</v>
       </c>
       <c r="G9" t="n">
-        <v>-65.98529999999995</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>62850</v>
       </c>
       <c r="I9" t="n">
-        <v>62850</v>
-      </c>
-      <c r="J9" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,26 +731,23 @@
         <v>2.0958</v>
       </c>
       <c r="G10" t="n">
-        <v>-65.98529999999995</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>63000</v>
       </c>
       <c r="I10" t="n">
         <v>63000</v>
       </c>
-      <c r="J10" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,26 +769,21 @@
         <v>11.635</v>
       </c>
       <c r="G11" t="n">
-        <v>-65.98529999999995</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>63000</v>
       </c>
-      <c r="J11" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,26 +805,21 @@
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>-51.98529999999995</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>63000</v>
       </c>
-      <c r="J12" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,26 +841,21 @@
         <v>10.8139</v>
       </c>
       <c r="G13" t="n">
-        <v>-62.79919999999996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>63100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,26 +877,21 @@
         <v>0.8002</v>
       </c>
       <c r="G14" t="n">
-        <v>-61.99899999999996</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>62900</v>
-      </c>
-      <c r="J14" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,26 +913,21 @@
         <v>1.7896</v>
       </c>
       <c r="G15" t="n">
-        <v>-60.20939999999996</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>63000</v>
       </c>
-      <c r="J15" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +949,21 @@
         <v>10.5046</v>
       </c>
       <c r="G16" t="n">
-        <v>-49.70479999999996</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,26 +985,21 @@
         <v>4.1888</v>
       </c>
       <c r="G17" t="n">
-        <v>-53.89359999999996</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>63250</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,26 +1021,21 @@
         <v>33.3509</v>
       </c>
       <c r="G18" t="n">
-        <v>-20.54269999999996</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>63150</v>
-      </c>
-      <c r="J18" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,26 +1057,21 @@
         <v>108.8912</v>
       </c>
       <c r="G19" t="n">
-        <v>-20.54269999999996</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J19" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>63000</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1154,24 +1093,21 @@
         <v>10.8035</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.739199999999961</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,24 +1129,21 @@
         <v>10.0286</v>
       </c>
       <c r="G21" t="n">
-        <v>-19.76779999999996</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,24 +1165,21 @@
         <v>0.1278</v>
       </c>
       <c r="G22" t="n">
-        <v>-19.63999999999996</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,24 +1201,21 @@
         <v>1.4467</v>
       </c>
       <c r="G23" t="n">
-        <v>-18.19329999999996</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,24 +1237,21 @@
         <v>14.5233</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.669999999999961</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,24 +1273,21 @@
         <v>18.3841</v>
       </c>
       <c r="G25" t="n">
-        <v>-22.05409999999996</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1388,24 +1309,21 @@
         <v>9.8308</v>
       </c>
       <c r="G26" t="n">
-        <v>-12.22329999999996</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1427,24 +1345,21 @@
         <v>7.643</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.580299999999963</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1466,24 +1381,21 @@
         <v>1.995</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.575299999999963</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1505,24 +1417,21 @@
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>-26.57529999999996</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1544,24 +1453,21 @@
         <v>24.0021</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.573199999999964</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1583,24 +1489,21 @@
         <v>0.7254</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.847799999999964</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1622,24 +1525,21 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>8.152200000000036</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,24 +1561,21 @@
         <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>22.15220000000004</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,24 +1597,21 @@
         <v>65.3613</v>
       </c>
       <c r="G34" t="n">
-        <v>22.15220000000004</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1739,24 +1633,21 @@
         <v>27.9647</v>
       </c>
       <c r="G35" t="n">
-        <v>50.11690000000004</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1778,24 +1669,21 @@
         <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>52.31690000000004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1817,24 +1705,21 @@
         <v>4.3197</v>
       </c>
       <c r="G37" t="n">
-        <v>56.63660000000004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1856,24 +1741,21 @@
         <v>9.591200000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>66.22780000000003</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1895,24 +1777,21 @@
         <v>2.51</v>
       </c>
       <c r="G39" t="n">
-        <v>66.22780000000003</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1934,24 +1813,21 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>67.22780000000003</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1973,24 +1849,21 @@
         <v>0.01</v>
       </c>
       <c r="G41" t="n">
-        <v>67.23780000000004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,24 +1885,21 @@
         <v>2.9601</v>
       </c>
       <c r="G42" t="n">
-        <v>64.27770000000004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2051,24 +1921,21 @@
         <v>13.5628</v>
       </c>
       <c r="G43" t="n">
-        <v>77.84050000000003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2090,24 +1957,21 @@
         <v>3.5988</v>
       </c>
       <c r="G44" t="n">
-        <v>81.43930000000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2129,24 +1993,21 @@
         <v>6.1122</v>
       </c>
       <c r="G45" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,24 +2029,21 @@
         <v>9.5</v>
       </c>
       <c r="G46" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2207,24 +2065,21 @@
         <v>1.8156</v>
       </c>
       <c r="G47" t="n">
-        <v>87.55150000000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2246,24 +2101,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>77.55150000000003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2285,24 +2137,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>67.55150000000003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,24 +2173,21 @@
         <v>12</v>
       </c>
       <c r="G50" t="n">
-        <v>79.55150000000003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2363,24 +2209,21 @@
         <v>4.8133</v>
       </c>
       <c r="G51" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2402,24 +2245,21 @@
         <v>3.2252</v>
       </c>
       <c r="G52" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2441,24 +2281,21 @@
         <v>51.7094</v>
       </c>
       <c r="G53" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2480,24 +2317,21 @@
         <v>41.2814</v>
       </c>
       <c r="G54" t="n">
-        <v>84.36480000000003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2519,24 +2353,21 @@
         <v>76.1135</v>
       </c>
       <c r="G55" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2558,24 +2389,21 @@
         <v>3.1337</v>
       </c>
       <c r="G56" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2597,24 +2425,21 @@
         <v>3.1337</v>
       </c>
       <c r="G57" t="n">
-        <v>160.4783</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2636,24 +2461,21 @@
         <v>7.626</v>
       </c>
       <c r="G58" t="n">
-        <v>168.1043000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2675,24 +2497,21 @@
         <v>2.9464</v>
       </c>
       <c r="G59" t="n">
-        <v>168.1043000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2714,24 +2533,21 @@
         <v>10.5344</v>
       </c>
       <c r="G60" t="n">
-        <v>178.6387000000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2753,24 +2569,21 @@
         <v>7.7384</v>
       </c>
       <c r="G61" t="n">
-        <v>178.6387000000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2792,24 +2605,21 @@
         <v>4.6204</v>
       </c>
       <c r="G62" t="n">
-        <v>183.2591</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2831,24 +2641,21 @@
         <v>0.03</v>
       </c>
       <c r="G63" t="n">
-        <v>183.2591</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2870,24 +2677,21 @@
         <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>197.2591</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2909,24 +2713,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>197.2591</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2948,24 +2749,21 @@
         <v>6.9</v>
       </c>
       <c r="G66" t="n">
-        <v>204.1591000000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2987,24 +2785,21 @@
         <v>7.7344</v>
       </c>
       <c r="G67" t="n">
-        <v>204.1591000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3026,24 +2821,21 @@
         <v>16.7993</v>
       </c>
       <c r="G68" t="n">
-        <v>220.9584</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3065,24 +2857,21 @@
         <v>92.0534</v>
       </c>
       <c r="G69" t="n">
-        <v>220.9584</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3104,24 +2893,21 @@
         <v>49.1991</v>
       </c>
       <c r="G70" t="n">
-        <v>270.1575</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3143,24 +2929,21 @@
         <v>39.1959</v>
       </c>
       <c r="G71" t="n">
-        <v>309.3534</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3182,24 +2965,21 @@
         <v>7.28746311</v>
       </c>
       <c r="G72" t="n">
-        <v>316.64086311</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3221,24 +3001,21 @@
         <v>55.435</v>
       </c>
       <c r="G73" t="n">
-        <v>372.07586311</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3260,24 +3037,21 @@
         <v>19.4897</v>
       </c>
       <c r="G74" t="n">
-        <v>391.56556311</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3299,24 +3073,21 @@
         <v>6.5952</v>
       </c>
       <c r="G75" t="n">
-        <v>384.97036311</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3338,24 +3109,21 @@
         <v>5.56113842</v>
       </c>
       <c r="G76" t="n">
-        <v>390.53150153</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3377,24 +3145,21 @@
         <v>20.006</v>
       </c>
       <c r="G77" t="n">
-        <v>370.52550153</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,24 +3181,21 @@
         <v>7.7035</v>
       </c>
       <c r="G78" t="n">
-        <v>378.2290015300001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3455,24 +3217,21 @@
         <v>22.9224</v>
       </c>
       <c r="G79" t="n">
-        <v>401.15140153</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3494,24 +3253,21 @@
         <v>89.1669</v>
       </c>
       <c r="G80" t="n">
-        <v>490.31830153</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3533,24 +3289,21 @@
         <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>490.4183015300001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3572,24 +3325,21 @@
         <v>56.699814</v>
       </c>
       <c r="G82" t="n">
-        <v>547.1181155300001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3611,24 +3361,21 @@
         <v>2.9935</v>
       </c>
       <c r="G83" t="n">
-        <v>544.12461553</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3650,24 +3397,21 @@
         <v>9.233499999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>553.3581155300001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3689,24 +3433,21 @@
         <v>84.19268928</v>
       </c>
       <c r="G85" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,24 +3469,21 @@
         <v>70.9592</v>
       </c>
       <c r="G86" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3767,26 +3505,21 @@
         <v>49.1937</v>
       </c>
       <c r="G87" t="n">
-        <v>637.55080481</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>63050</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1.105229976209358</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1.019401778496362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3808,18 +3541,21 @@
         <v>6.7167</v>
       </c>
       <c r="G88" t="n">
-        <v>630.8341048100001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,18 +3577,21 @@
         <v>39.00815395</v>
       </c>
       <c r="G89" t="n">
-        <v>591.8259508600001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3874,18 +3613,21 @@
         <v>9.316000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>601.1419508600002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3907,18 +3649,21 @@
         <v>83.15519999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>517.9867508600001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,18 +3685,21 @@
         <v>78.36499999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>439.6217508600001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3973,18 +3721,21 @@
         <v>3.3714</v>
       </c>
       <c r="G93" t="n">
-        <v>442.9931508600001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4006,18 +3757,21 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>453.9931508600001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4039,18 +3793,21 @@
         <v>6.1</v>
       </c>
       <c r="G95" t="n">
-        <v>460.0931508600002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4072,18 +3829,21 @@
         <v>12.8307</v>
       </c>
       <c r="G96" t="n">
-        <v>447.2624508600002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4105,18 +3865,21 @@
         <v>6.9423</v>
       </c>
       <c r="G97" t="n">
-        <v>454.2047508600002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4138,18 +3901,21 @@
         <v>29.6187</v>
       </c>
       <c r="G98" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4171,18 +3937,21 @@
         <v>22.2812</v>
       </c>
       <c r="G99" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4204,18 +3973,21 @@
         <v>98.92919999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4237,18 +4009,21 @@
         <v>120.573</v>
       </c>
       <c r="G101" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4270,18 +4045,21 @@
         <v>9.196300000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4303,18 +4081,21 @@
         <v>8.18</v>
       </c>
       <c r="G103" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4336,18 +4117,21 @@
         <v>4.446</v>
       </c>
       <c r="G104" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4369,18 +4153,21 @@
         <v>13.7868</v>
       </c>
       <c r="G105" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4402,18 +4189,21 @@
         <v>27.1004</v>
       </c>
       <c r="G106" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4435,18 +4225,21 @@
         <v>99.8013</v>
       </c>
       <c r="G107" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4468,18 +4261,21 @@
         <v>17.2747</v>
       </c>
       <c r="G108" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4501,18 +4297,21 @@
         <v>15.7948</v>
       </c>
       <c r="G109" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4534,18 +4333,21 @@
         <v>35.5961</v>
       </c>
       <c r="G110" t="n">
-        <v>483.8234508600002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4567,18 +4369,21 @@
         <v>12.79646368</v>
       </c>
       <c r="G111" t="n">
-        <v>471.0269871800002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4600,18 +4405,21 @@
         <v>15.2753</v>
       </c>
       <c r="G112" t="n">
-        <v>455.7516871800001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4633,18 +4441,21 @@
         <v>5.8438</v>
       </c>
       <c r="G113" t="n">
-        <v>461.5954871800001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4666,18 +4477,21 @@
         <v>0.8</v>
       </c>
       <c r="G114" t="n">
-        <v>461.5954871800001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4699,18 +4513,21 @@
         <v>0.1</v>
       </c>
       <c r="G115" t="n">
-        <v>461.6954871800002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4732,18 +4549,21 @@
         <v>2.1257</v>
       </c>
       <c r="G116" t="n">
-        <v>459.5697871800002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4765,18 +4585,21 @@
         <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>459.4697871800001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4798,18 +4621,21 @@
         <v>14.0155</v>
       </c>
       <c r="G118" t="n">
-        <v>473.4852871800001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4831,18 +4657,21 @@
         <v>16.9798</v>
       </c>
       <c r="G119" t="n">
-        <v>456.5054871800001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4864,18 +4693,21 @@
         <v>0.06950000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>456.5749871800001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4897,18 +4729,21 @@
         <v>0.03</v>
       </c>
       <c r="G121" t="n">
-        <v>456.6049871800001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4930,18 +4765,21 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>457.6049871800001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4963,18 +4801,21 @@
         <v>13.1618</v>
       </c>
       <c r="G123" t="n">
-        <v>470.7667871800001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4996,18 +4837,21 @@
         <v>43.6584</v>
       </c>
       <c r="G124" t="n">
-        <v>470.7667871800001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5029,18 +4873,21 @@
         <v>82.69199999999999</v>
       </c>
       <c r="G125" t="n">
-        <v>388.07478718</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5062,18 +4909,21 @@
         <v>2.8435</v>
       </c>
       <c r="G126" t="n">
-        <v>385.23128718</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5095,18 +4945,21 @@
         <v>0.60364883</v>
       </c>
       <c r="G127" t="n">
-        <v>385.83493601</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5128,18 +4981,21 @@
         <v>14.3161</v>
       </c>
       <c r="G128" t="n">
-        <v>385.83493601</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5161,18 +5017,21 @@
         <v>2.6786</v>
       </c>
       <c r="G129" t="n">
-        <v>383.15633601</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5194,18 +5053,21 @@
         <v>100.6006</v>
       </c>
       <c r="G130" t="n">
-        <v>282.55573601</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5227,18 +5089,21 @@
         <v>30.671</v>
       </c>
       <c r="G131" t="n">
-        <v>282.55573601</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5260,18 +5125,21 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>282.55573601</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5293,18 +5161,21 @@
         <v>20.3789</v>
       </c>
       <c r="G133" t="n">
-        <v>302.93463601</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5326,18 +5197,21 @@
         <v>0.03</v>
       </c>
       <c r="G134" t="n">
-        <v>302.90463601</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5359,18 +5233,21 @@
         <v>3.1388</v>
       </c>
       <c r="G135" t="n">
-        <v>299.76583601</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5392,18 +5269,21 @@
         <v>12.7198</v>
       </c>
       <c r="G136" t="n">
-        <v>299.76583601</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5425,18 +5305,21 @@
         <v>0.0414</v>
       </c>
       <c r="G137" t="n">
-        <v>299.8072360100001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5458,18 +5341,21 @@
         <v>0.08168449</v>
       </c>
       <c r="G138" t="n">
-        <v>299.8889205</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5491,18 +5377,21 @@
         <v>1.9</v>
       </c>
       <c r="G139" t="n">
-        <v>297.9889205000001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5524,18 +5413,21 @@
         <v>0.4465</v>
       </c>
       <c r="G140" t="n">
-        <v>297.9889205000001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5557,18 +5449,21 @@
         <v>4.5518</v>
       </c>
       <c r="G141" t="n">
-        <v>293.4371205</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5590,18 +5485,21 @@
         <v>18.3234</v>
       </c>
       <c r="G142" t="n">
-        <v>293.4371205</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5623,18 +5521,21 @@
         <v>0.22</v>
       </c>
       <c r="G143" t="n">
-        <v>293.6571205000001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5656,18 +5557,21 @@
         <v>3.5702</v>
       </c>
       <c r="G144" t="n">
-        <v>290.0869205000001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5689,18 +5593,21 @@
         <v>0.63</v>
       </c>
       <c r="G145" t="n">
-        <v>290.7169205000001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5722,18 +5629,21 @@
         <v>0.1</v>
       </c>
       <c r="G146" t="n">
-        <v>290.6169205</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5755,18 +5665,21 @@
         <v>0.79</v>
       </c>
       <c r="G147" t="n">
-        <v>291.4069205000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5788,18 +5701,21 @@
         <v>1.4893</v>
       </c>
       <c r="G148" t="n">
-        <v>292.8962205000001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5821,18 +5737,21 @@
         <v>1.111</v>
       </c>
       <c r="G149" t="n">
-        <v>291.7852205000001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5854,18 +5773,21 @@
         <v>1.7716</v>
       </c>
       <c r="G150" t="n">
-        <v>291.7852205000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5887,18 +5809,21 @@
         <v>6.8981</v>
       </c>
       <c r="G151" t="n">
-        <v>291.7852205000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5920,18 +5845,21 @@
         <v>1.24</v>
       </c>
       <c r="G152" t="n">
-        <v>290.5452205000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5953,18 +5881,21 @@
         <v>2.9964</v>
       </c>
       <c r="G153" t="n">
-        <v>287.5488205000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5986,18 +5917,21 @@
         <v>33.4695</v>
       </c>
       <c r="G154" t="n">
-        <v>321.0183205000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6019,18 +5953,21 @@
         <v>5.9</v>
       </c>
       <c r="G155" t="n">
-        <v>315.1183205000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6052,18 +5989,21 @@
         <v>2.7</v>
       </c>
       <c r="G156" t="n">
-        <v>315.1183205000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6085,18 +6025,21 @@
         <v>1.55</v>
       </c>
       <c r="G157" t="n">
-        <v>313.5683205000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6118,18 +6061,21 @@
         <v>14.3161</v>
       </c>
       <c r="G158" t="n">
-        <v>313.5683205000001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6151,18 +6097,21 @@
         <v>14.1049</v>
       </c>
       <c r="G159" t="n">
-        <v>327.6732205000001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6184,18 +6133,21 @@
         <v>1.0651</v>
       </c>
       <c r="G160" t="n">
-        <v>328.7383205</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6217,18 +6169,21 @@
         <v>10.7779</v>
       </c>
       <c r="G161" t="n">
-        <v>339.5162205</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6250,18 +6205,21 @@
         <v>0.1098</v>
       </c>
       <c r="G162" t="n">
-        <v>339.4064205</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6283,18 +6241,21 @@
         <v>5.5486</v>
       </c>
       <c r="G163" t="n">
-        <v>344.9550205</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6316,18 +6277,21 @@
         <v>6.8853</v>
       </c>
       <c r="G164" t="n">
-        <v>338.0697205000001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6349,18 +6313,21 @@
         <v>68.59220000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>269.4775205000001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6382,18 +6349,21 @@
         <v>41.657</v>
       </c>
       <c r="G166" t="n">
-        <v>311.1345205000001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6415,18 +6385,21 @@
         <v>0.0179</v>
       </c>
       <c r="G167" t="n">
-        <v>311.1166205000001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6448,18 +6421,21 @@
         <v>8.8024</v>
       </c>
       <c r="G168" t="n">
-        <v>319.9190205</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6481,18 +6457,21 @@
         <v>6.9161</v>
       </c>
       <c r="G169" t="n">
-        <v>326.8351205</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6514,18 +6493,21 @@
         <v>26.3898</v>
       </c>
       <c r="G170" t="n">
-        <v>300.4453205</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6547,18 +6529,21 @@
         <v>1.42046062</v>
       </c>
       <c r="G171" t="n">
-        <v>301.8657811200001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6580,18 +6565,21 @@
         <v>1.4205</v>
       </c>
       <c r="G172" t="n">
-        <v>300.4452811200001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6613,18 +6601,21 @@
         <v>0.2587</v>
       </c>
       <c r="G173" t="n">
-        <v>300.70398112</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6646,18 +6637,21 @@
         <v>7.6809</v>
       </c>
       <c r="G174" t="n">
-        <v>308.38488112</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6679,18 +6673,21 @@
         <v>6.4364</v>
       </c>
       <c r="G175" t="n">
-        <v>301.9484811200001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6712,18 +6709,21 @@
         <v>1.6143</v>
       </c>
       <c r="G176" t="n">
-        <v>303.5627811200001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6745,18 +6745,21 @@
         <v>0.4975</v>
       </c>
       <c r="G177" t="n">
-        <v>303.5627811200001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6778,18 +6781,21 @@
         <v>16.0032</v>
       </c>
       <c r="G178" t="n">
-        <v>287.5595811200001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6811,18 +6817,21 @@
         <v>4.1075</v>
       </c>
       <c r="G179" t="n">
-        <v>287.5595811200001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6844,18 +6853,21 @@
         <v>35.8367</v>
       </c>
       <c r="G180" t="n">
-        <v>251.7228811200001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6877,18 +6889,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>252.7228811200001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6910,18 +6925,21 @@
         <v>0.0396</v>
       </c>
       <c r="G182" t="n">
-        <v>252.6832811200001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6943,18 +6961,21 @@
         <v>0.5</v>
       </c>
       <c r="G183" t="n">
-        <v>253.1832811200001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6976,18 +6997,21 @@
         <v>0.02958579</v>
       </c>
       <c r="G184" t="n">
-        <v>253.2128669100001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7009,18 +7033,21 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>252.2128669100001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7042,18 +7069,21 @@
         <v>4.11</v>
       </c>
       <c r="G186" t="n">
-        <v>248.10286691</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7075,18 +7105,21 @@
         <v>3.9756</v>
       </c>
       <c r="G187" t="n">
-        <v>252.07846691</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7108,18 +7141,21 @@
         <v>0.7475000000000001</v>
       </c>
       <c r="G188" t="n">
-        <v>251.33096691</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7141,18 +7177,21 @@
         <v>5.6376</v>
       </c>
       <c r="G189" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7174,18 +7213,21 @@
         <v>4.7974</v>
       </c>
       <c r="G190" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7207,18 +7249,21 @@
         <v>1.5072</v>
       </c>
       <c r="G191" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7240,18 +7285,21 @@
         <v>1.0781</v>
       </c>
       <c r="G192" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7273,18 +7321,21 @@
         <v>0.9478</v>
       </c>
       <c r="G193" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7306,18 +7357,21 @@
         <v>1.5571</v>
       </c>
       <c r="G194" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7339,18 +7393,21 @@
         <v>4.6291</v>
       </c>
       <c r="G195" t="n">
-        <v>256.96856691</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7372,18 +7429,21 @@
         <v>2.3983</v>
       </c>
       <c r="G196" t="n">
-        <v>259.3668669100001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7405,18 +7465,21 @@
         <v>20.8165</v>
       </c>
       <c r="G197" t="n">
-        <v>280.1833669100001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7438,18 +7501,21 @@
         <v>1.9999</v>
       </c>
       <c r="G198" t="n">
-        <v>278.18346691</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7471,18 +7537,21 @@
         <v>5.025</v>
       </c>
       <c r="G199" t="n">
-        <v>273.1584669100001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7504,18 +7573,21 @@
         <v>0.4632</v>
       </c>
       <c r="G200" t="n">
-        <v>273.62166691</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7537,18 +7609,21 @@
         <v>20.0358</v>
       </c>
       <c r="G201" t="n">
-        <v>293.65746691</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7570,18 +7645,21 @@
         <v>10.3622</v>
       </c>
       <c r="G202" t="n">
-        <v>293.65746691</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7603,18 +7681,21 @@
         <v>7.6193</v>
       </c>
       <c r="G203" t="n">
-        <v>293.65746691</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7636,18 +7717,21 @@
         <v>0.0171</v>
       </c>
       <c r="G204" t="n">
-        <v>293.64036691</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7669,18 +7753,21 @@
         <v>0.8082</v>
       </c>
       <c r="G205" t="n">
-        <v>292.83216691</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7702,18 +7789,21 @@
         <v>1.639</v>
       </c>
       <c r="G206" t="n">
-        <v>292.83216691</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7735,18 +7825,21 @@
         <v>1.0002</v>
       </c>
       <c r="G207" t="n">
-        <v>292.83216691</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7768,18 +7861,21 @@
         <v>0.0149</v>
       </c>
       <c r="G208" t="n">
-        <v>292.81726691</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7801,18 +7897,21 @@
         <v>4.11</v>
       </c>
       <c r="G209" t="n">
-        <v>288.70726691</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7834,18 +7933,21 @@
         <v>68.59220000000001</v>
       </c>
       <c r="G210" t="n">
-        <v>220.11506691</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7867,18 +7969,21 @@
         <v>0.021</v>
       </c>
       <c r="G211" t="n">
-        <v>220.13606691</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7900,18 +8005,21 @@
         <v>0.0226</v>
       </c>
       <c r="G212" t="n">
-        <v>220.11346691</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7933,18 +8041,21 @@
         <v>6.2362</v>
       </c>
       <c r="G213" t="n">
-        <v>213.87726691</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7966,18 +8077,21 @@
         <v>45.9187</v>
       </c>
       <c r="G214" t="n">
-        <v>259.7959669099999</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7999,18 +8113,21 @@
         <v>9.3916</v>
       </c>
       <c r="G215" t="n">
-        <v>259.7959669099999</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8032,18 +8149,21 @@
         <v>37.3841</v>
       </c>
       <c r="G216" t="n">
-        <v>222.41186691</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8065,18 +8185,21 @@
         <v>11.60128398</v>
       </c>
       <c r="G217" t="n">
-        <v>234.01315089</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8098,18 +8221,21 @@
         <v>15.1592</v>
       </c>
       <c r="G218" t="n">
-        <v>218.85395089</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8131,18 +8257,21 @@
         <v>0.0076</v>
       </c>
       <c r="G219" t="n">
-        <v>218.86155089</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8164,18 +8293,21 @@
         <v>0.1</v>
       </c>
       <c r="G220" t="n">
-        <v>218.96155089</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8197,18 +8329,21 @@
         <v>0.8504</v>
       </c>
       <c r="G221" t="n">
-        <v>219.81195089</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8230,18 +8365,21 @@
         <v>3.442</v>
       </c>
       <c r="G222" t="n">
-        <v>216.36995089</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8263,18 +8401,21 @@
         <v>7.2</v>
       </c>
       <c r="G223" t="n">
-        <v>223.5699508899999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8296,18 +8437,21 @@
         <v>3.8316</v>
       </c>
       <c r="G224" t="n">
-        <v>227.40155089</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8329,18 +8473,21 @@
         <v>0.0179</v>
       </c>
       <c r="G225" t="n">
-        <v>227.40155089</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8362,18 +8509,21 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>228.40155089</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8395,18 +8545,21 @@
         <v>16.4853</v>
       </c>
       <c r="G227" t="n">
-        <v>244.8868508899999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8428,18 +8581,21 @@
         <v>1.4</v>
       </c>
       <c r="G228" t="n">
-        <v>246.28685089</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8461,18 +8617,21 @@
         <v>0.0185</v>
       </c>
       <c r="G229" t="n">
-        <v>246.26835089</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8494,18 +8653,21 @@
         <v>14.4</v>
       </c>
       <c r="G230" t="n">
-        <v>260.6683508899999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8527,18 +8689,21 @@
         <v>21</v>
       </c>
       <c r="G231" t="n">
-        <v>281.6683508899999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8560,18 +8725,21 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>271.96835089</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8593,18 +8761,21 @@
         <v>7.0825</v>
       </c>
       <c r="G233" t="n">
-        <v>279.0508508899999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8626,18 +8797,21 @@
         <v>4.5882</v>
       </c>
       <c r="G234" t="n">
-        <v>274.46265089</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8659,18 +8833,21 @@
         <v>0.0183</v>
       </c>
       <c r="G235" t="n">
-        <v>274.44435089</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8692,18 +8869,21 @@
         <v>134.7647</v>
       </c>
       <c r="G236" t="n">
-        <v>409.20905089</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8725,18 +8905,21 @@
         <v>0.6996</v>
       </c>
       <c r="G237" t="n">
-        <v>408.50945089</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8758,18 +8941,21 @@
         <v>10.5362</v>
       </c>
       <c r="G238" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8791,18 +8977,21 @@
         <v>10.4508</v>
       </c>
       <c r="G239" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8824,18 +9013,21 @@
         <v>1.0323</v>
       </c>
       <c r="G240" t="n">
-        <v>419.04565089</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8857,18 +9049,21 @@
         <v>1.4684</v>
       </c>
       <c r="G241" t="n">
-        <v>420.51405089</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8890,18 +9085,21 @@
         <v>32.65141358</v>
       </c>
       <c r="G242" t="n">
-        <v>453.16546447</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8923,18 +9121,21 @@
         <v>4.3398</v>
       </c>
       <c r="G243" t="n">
-        <v>453.16546447</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8956,18 +9157,21 @@
         <v>19.4572</v>
       </c>
       <c r="G244" t="n">
-        <v>472.62266447</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8989,18 +9193,21 @@
         <v>63.51388314</v>
       </c>
       <c r="G245" t="n">
-        <v>472.62266447</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9022,18 +9229,21 @@
         <v>43.1198</v>
       </c>
       <c r="G246" t="n">
-        <v>515.74246447</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9055,18 +9265,21 @@
         <v>39.25744206</v>
       </c>
       <c r="G247" t="n">
-        <v>554.99990653</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9088,18 +9301,21 @@
         <v>64.1341</v>
       </c>
       <c r="G248" t="n">
-        <v>619.13400653</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9121,18 +9337,21 @@
         <v>14.0135</v>
       </c>
       <c r="G249" t="n">
-        <v>619.13400653</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9154,18 +9373,21 @@
         <v>53.16</v>
       </c>
       <c r="G250" t="n">
-        <v>672.2940065299999</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9187,18 +9409,21 @@
         <v>0.02</v>
       </c>
       <c r="G251" t="n">
-        <v>672.27400653</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9220,18 +9445,21 @@
         <v>5.9965</v>
       </c>
       <c r="G252" t="n">
-        <v>672.27400653</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9253,18 +9481,21 @@
         <v>31.1302</v>
       </c>
       <c r="G253" t="n">
-        <v>641.14380653</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9286,18 +9517,21 @@
         <v>16.8372</v>
       </c>
       <c r="G254" t="n">
-        <v>624.30660653</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9319,18 +9553,23 @@
         <v>20.4407</v>
       </c>
       <c r="G255" t="n">
-        <v>603.86590653</v>
-      </c>
-      <c r="H255" t="n">
         <v>2</v>
       </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>63000</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1.122777777777778</v>
+      </c>
       <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>1.019401778496362</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9352,18 +9591,15 @@
         <v>1.5583</v>
       </c>
       <c r="G256" t="n">
-        <v>603.86590653</v>
-      </c>
-      <c r="H256" t="n">
         <v>2</v>
       </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9385,18 +9621,15 @@
         <v>2.2686</v>
       </c>
       <c r="G257" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H257" t="n">
         <v>2</v>
       </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9418,18 +9651,15 @@
         <v>41.1806</v>
       </c>
       <c r="G258" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H258" t="n">
         <v>2</v>
       </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9451,18 +9681,15 @@
         <v>24.5942</v>
       </c>
       <c r="G259" t="n">
-        <v>601.59730653</v>
-      </c>
-      <c r="H259" t="n">
         <v>2</v>
       </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9484,18 +9711,15 @@
         <v>25.4904</v>
       </c>
       <c r="G260" t="n">
-        <v>627.08770653</v>
-      </c>
-      <c r="H260" t="n">
         <v>2</v>
       </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9517,18 +9741,15 @@
         <v>0.15</v>
       </c>
       <c r="G261" t="n">
-        <v>627.08770653</v>
-      </c>
-      <c r="H261" t="n">
         <v>2</v>
       </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9550,18 +9771,15 @@
         <v>16.1778</v>
       </c>
       <c r="G262" t="n">
-        <v>610.9099065299999</v>
-      </c>
-      <c r="H262" t="n">
         <v>2</v>
       </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9583,18 +9801,15 @@
         <v>1.0287</v>
       </c>
       <c r="G263" t="n">
-        <v>609.88120653</v>
-      </c>
-      <c r="H263" t="n">
         <v>2</v>
       </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9616,18 +9831,15 @@
         <v>13.4727</v>
       </c>
       <c r="G264" t="n">
-        <v>596.40850653</v>
-      </c>
-      <c r="H264" t="n">
         <v>2</v>
       </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9649,18 +9861,15 @@
         <v>15.1859</v>
       </c>
       <c r="G265" t="n">
-        <v>611.5944065299999</v>
-      </c>
-      <c r="H265" t="n">
         <v>2</v>
       </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9682,18 +9891,15 @@
         <v>2.6767</v>
       </c>
       <c r="G266" t="n">
-        <v>614.2711065299999</v>
-      </c>
-      <c r="H266" t="n">
         <v>2</v>
       </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9715,18 +9921,15 @@
         <v>6.7813</v>
       </c>
       <c r="G267" t="n">
-        <v>621.0524065299999</v>
-      </c>
-      <c r="H267" t="n">
         <v>2</v>
       </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
